--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3196200</v>
+        <v>3343100</v>
       </c>
       <c r="E8" s="3">
-        <v>3118600</v>
+        <v>3044900</v>
       </c>
       <c r="F8" s="3">
-        <v>2802900</v>
+        <v>2971000</v>
       </c>
       <c r="G8" s="3">
-        <v>2274100</v>
+        <v>2670200</v>
       </c>
       <c r="H8" s="3">
-        <v>2250500</v>
+        <v>2166400</v>
       </c>
       <c r="I8" s="3">
-        <v>2315900</v>
+        <v>2144000</v>
       </c>
       <c r="J8" s="3">
+        <v>2206300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2878700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3350300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2201800</v>
+        <v>696700</v>
       </c>
       <c r="E9" s="3">
-        <v>2119600</v>
+        <v>630500</v>
       </c>
       <c r="F9" s="3">
-        <v>1848300</v>
+        <v>583300</v>
       </c>
       <c r="G9" s="3">
-        <v>1464900</v>
+        <v>462100</v>
       </c>
       <c r="H9" s="3">
-        <v>1216700</v>
+        <v>379300</v>
       </c>
       <c r="I9" s="3">
-        <v>1210500</v>
+        <v>116600</v>
       </c>
       <c r="J9" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1670800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1633100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>994400</v>
+        <v>2646300</v>
       </c>
       <c r="E10" s="3">
-        <v>999100</v>
+        <v>2414400</v>
       </c>
       <c r="F10" s="3">
-        <v>954600</v>
+        <v>2387700</v>
       </c>
       <c r="G10" s="3">
-        <v>809200</v>
+        <v>2208100</v>
       </c>
       <c r="H10" s="3">
-        <v>1033900</v>
+        <v>1787100</v>
       </c>
       <c r="I10" s="3">
-        <v>1105500</v>
+        <v>2027300</v>
       </c>
       <c r="J10" s="3">
+        <v>2098800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1207900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1717200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,21 +842,24 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>2100</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>480300</v>
+        <v>-94200</v>
       </c>
       <c r="E14" s="3">
-        <v>-559400</v>
+        <v>457500</v>
       </c>
       <c r="F14" s="3">
-        <v>21300</v>
+        <v>-532900</v>
       </c>
       <c r="G14" s="3">
-        <v>17200</v>
+        <v>20300</v>
       </c>
       <c r="H14" s="3">
-        <v>14500</v>
+        <v>16400</v>
       </c>
       <c r="I14" s="3">
-        <v>80900</v>
+        <v>13800</v>
       </c>
       <c r="J14" s="3">
+        <v>77100</v>
+      </c>
+      <c r="K14" s="3">
         <v>181800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>246800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>269200</v>
+        <v>272300</v>
       </c>
       <c r="E15" s="3">
-        <v>256900</v>
+        <v>256400</v>
       </c>
       <c r="F15" s="3">
-        <v>315700</v>
+        <v>244700</v>
       </c>
       <c r="G15" s="3">
-        <v>273900</v>
+        <v>300800</v>
       </c>
       <c r="H15" s="3">
-        <v>268400</v>
+        <v>261000</v>
       </c>
       <c r="I15" s="3">
-        <v>289100</v>
+        <v>255700</v>
       </c>
       <c r="J15" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K15" s="3">
         <v>515800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>331400</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3320500</v>
+        <v>2888100</v>
       </c>
       <c r="E17" s="3">
-        <v>2160200</v>
+        <v>3163200</v>
       </c>
       <c r="F17" s="3">
-        <v>2502500</v>
+        <v>2057900</v>
       </c>
       <c r="G17" s="3">
-        <v>2031300</v>
+        <v>2384000</v>
       </c>
       <c r="H17" s="3">
-        <v>1989200</v>
+        <v>1935100</v>
       </c>
       <c r="I17" s="3">
-        <v>2106500</v>
+        <v>1895100</v>
       </c>
       <c r="J17" s="3">
+        <v>2006800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2694200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3363700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-124200</v>
+        <v>455000</v>
       </c>
       <c r="E18" s="3">
-        <v>958500</v>
+        <v>-118400</v>
       </c>
       <c r="F18" s="3">
-        <v>300400</v>
+        <v>913100</v>
       </c>
       <c r="G18" s="3">
-        <v>242800</v>
+        <v>286200</v>
       </c>
       <c r="H18" s="3">
-        <v>261300</v>
+        <v>231300</v>
       </c>
       <c r="I18" s="3">
-        <v>209400</v>
+        <v>248900</v>
       </c>
       <c r="J18" s="3">
+        <v>199500</v>
+      </c>
+      <c r="K18" s="3">
         <v>184500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22800</v>
+        <v>9000</v>
       </c>
       <c r="E20" s="3">
-        <v>9000</v>
+        <v>21700</v>
       </c>
       <c r="F20" s="3">
-        <v>18900</v>
+        <v>8600</v>
       </c>
       <c r="G20" s="3">
-        <v>12300</v>
+        <v>18000</v>
       </c>
       <c r="H20" s="3">
-        <v>6700</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="3">
-        <v>103000</v>
+        <v>6400</v>
       </c>
       <c r="J20" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K20" s="3">
         <v>20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-53100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>169800</v>
+        <v>837600</v>
       </c>
       <c r="E21" s="3">
-        <v>1228700</v>
+        <v>159000</v>
       </c>
       <c r="F21" s="3">
-        <v>636700</v>
+        <v>1167800</v>
       </c>
       <c r="G21" s="3">
-        <v>520900</v>
+        <v>603200</v>
       </c>
       <c r="H21" s="3">
-        <v>540900</v>
+        <v>493500</v>
       </c>
       <c r="I21" s="3">
-        <v>614300</v>
+        <v>512400</v>
       </c>
       <c r="J21" s="3">
+        <v>582100</v>
+      </c>
+      <c r="K21" s="3">
         <v>501800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>459400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="E22" s="3">
-        <v>45000</v>
+        <v>43800</v>
       </c>
       <c r="F22" s="3">
-        <v>49800</v>
+        <v>42900</v>
       </c>
       <c r="G22" s="3">
-        <v>49500</v>
+        <v>47400</v>
       </c>
       <c r="H22" s="3">
-        <v>57000</v>
+        <v>47200</v>
       </c>
       <c r="I22" s="3">
-        <v>167400</v>
+        <v>54300</v>
       </c>
       <c r="J22" s="3">
+        <v>159500</v>
+      </c>
+      <c r="K22" s="3">
         <v>65800</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-147500</v>
+        <v>416900</v>
       </c>
       <c r="E23" s="3">
-        <v>922500</v>
+        <v>-140500</v>
       </c>
       <c r="F23" s="3">
-        <v>269600</v>
+        <v>878900</v>
       </c>
       <c r="G23" s="3">
-        <v>205600</v>
+        <v>256800</v>
       </c>
       <c r="H23" s="3">
-        <v>211000</v>
+        <v>195800</v>
       </c>
       <c r="I23" s="3">
-        <v>145100</v>
+        <v>201000</v>
       </c>
       <c r="J23" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K23" s="3">
         <v>139200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20400</v>
+        <v>67400</v>
       </c>
       <c r="E24" s="3">
-        <v>47800</v>
+        <v>-19500</v>
       </c>
       <c r="F24" s="3">
-        <v>52600</v>
+        <v>45600</v>
       </c>
       <c r="G24" s="3">
-        <v>44900</v>
+        <v>50100</v>
       </c>
       <c r="H24" s="3">
-        <v>48000</v>
+        <v>42700</v>
       </c>
       <c r="I24" s="3">
-        <v>37400</v>
+        <v>45700</v>
       </c>
       <c r="J24" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K24" s="3">
         <v>44100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-127100</v>
+        <v>349500</v>
       </c>
       <c r="E26" s="3">
-        <v>874700</v>
+        <v>-121100</v>
       </c>
       <c r="F26" s="3">
-        <v>216900</v>
+        <v>833300</v>
       </c>
       <c r="G26" s="3">
-        <v>160700</v>
+        <v>206700</v>
       </c>
       <c r="H26" s="3">
-        <v>163000</v>
+        <v>153100</v>
       </c>
       <c r="I26" s="3">
-        <v>107700</v>
+        <v>155300</v>
       </c>
       <c r="J26" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K26" s="3">
         <v>95200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-88400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-127100</v>
+        <v>349500</v>
       </c>
       <c r="E27" s="3">
-        <v>874700</v>
+        <v>-121100</v>
       </c>
       <c r="F27" s="3">
-        <v>216900</v>
+        <v>833300</v>
       </c>
       <c r="G27" s="3">
-        <v>160700</v>
+        <v>206700</v>
       </c>
       <c r="H27" s="3">
-        <v>163400</v>
+        <v>153100</v>
       </c>
       <c r="I27" s="3">
-        <v>106100</v>
+        <v>155700</v>
       </c>
       <c r="J27" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K27" s="3">
         <v>92200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-91800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-57700</v>
+        <v>166800</v>
       </c>
       <c r="J29" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-30600</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22800</v>
+        <v>-9000</v>
       </c>
       <c r="E32" s="3">
-        <v>-9000</v>
+        <v>-21700</v>
       </c>
       <c r="F32" s="3">
-        <v>-18900</v>
+        <v>-8600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12300</v>
+        <v>-18000</v>
       </c>
       <c r="H32" s="3">
-        <v>-6700</v>
+        <v>-11700</v>
       </c>
       <c r="I32" s="3">
-        <v>-103000</v>
+        <v>-6400</v>
       </c>
       <c r="J32" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>53100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-127100</v>
+        <v>349500</v>
       </c>
       <c r="E33" s="3">
-        <v>883000</v>
+        <v>-121100</v>
       </c>
       <c r="F33" s="3">
-        <v>216900</v>
+        <v>841200</v>
       </c>
       <c r="G33" s="3">
-        <v>160700</v>
+        <v>206700</v>
       </c>
       <c r="H33" s="3">
-        <v>338500</v>
+        <v>153100</v>
       </c>
       <c r="I33" s="3">
-        <v>48500</v>
+        <v>322400</v>
       </c>
       <c r="J33" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K33" s="3">
         <v>61500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-91800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-127100</v>
+        <v>349500</v>
       </c>
       <c r="E35" s="3">
-        <v>883000</v>
+        <v>-121100</v>
       </c>
       <c r="F35" s="3">
-        <v>216900</v>
+        <v>841200</v>
       </c>
       <c r="G35" s="3">
-        <v>160700</v>
+        <v>206700</v>
       </c>
       <c r="H35" s="3">
-        <v>338500</v>
+        <v>153100</v>
       </c>
       <c r="I35" s="3">
-        <v>48500</v>
+        <v>322400</v>
       </c>
       <c r="J35" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K35" s="3">
         <v>61500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-91800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>330200</v>
+        <v>295600</v>
       </c>
       <c r="E41" s="3">
-        <v>388200</v>
+        <v>315300</v>
       </c>
       <c r="F41" s="3">
-        <v>204500</v>
+        <v>370700</v>
       </c>
       <c r="G41" s="3">
-        <v>125000</v>
+        <v>195300</v>
       </c>
       <c r="H41" s="3">
-        <v>177000</v>
+        <v>119400</v>
       </c>
       <c r="I41" s="3">
-        <v>178700</v>
+        <v>169000</v>
       </c>
       <c r="J41" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K41" s="3">
         <v>207500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>89100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8700</v>
+        <v>88600</v>
       </c>
       <c r="E42" s="3">
-        <v>13300</v>
+        <v>8300</v>
       </c>
       <c r="F42" s="3">
-        <v>15000</v>
+        <v>12700</v>
       </c>
       <c r="G42" s="3">
-        <v>136000</v>
+        <v>14300</v>
       </c>
       <c r="H42" s="3">
-        <v>144300</v>
+        <v>129900</v>
       </c>
       <c r="I42" s="3">
-        <v>384700</v>
+        <v>137800</v>
       </c>
       <c r="J42" s="3">
+        <v>367400</v>
+      </c>
+      <c r="K42" s="3">
         <v>9200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1234400</v>
+        <v>589500</v>
       </c>
       <c r="E43" s="3">
-        <v>532800</v>
+        <v>1178600</v>
       </c>
       <c r="F43" s="3">
-        <v>468000</v>
+        <v>508700</v>
       </c>
       <c r="G43" s="3">
-        <v>403500</v>
+        <v>446900</v>
       </c>
       <c r="H43" s="3">
-        <v>381400</v>
+        <v>385300</v>
       </c>
       <c r="I43" s="3">
-        <v>476300</v>
+        <v>364100</v>
       </c>
       <c r="J43" s="3">
+        <v>454800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1112300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>508000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>266800</v>
+        <v>131500</v>
       </c>
       <c r="E44" s="3">
-        <v>109000</v>
+        <v>254800</v>
       </c>
       <c r="F44" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="G44" s="3">
-        <v>72000</v>
+        <v>98800</v>
       </c>
       <c r="H44" s="3">
-        <v>76100</v>
+        <v>68800</v>
       </c>
       <c r="I44" s="3">
-        <v>82500</v>
+        <v>72700</v>
       </c>
       <c r="J44" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K44" s="3">
         <v>69800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47700</v>
+        <v>37400</v>
       </c>
       <c r="E45" s="3">
-        <v>73800</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
-        <v>273600</v>
+        <v>70500</v>
       </c>
       <c r="G45" s="3">
-        <v>37500</v>
+        <v>261200</v>
       </c>
       <c r="H45" s="3">
-        <v>33700</v>
+        <v>35800</v>
       </c>
       <c r="I45" s="3">
-        <v>75100</v>
+        <v>32200</v>
       </c>
       <c r="J45" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K45" s="3">
         <v>115200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>91100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>958600</v>
+        <v>1142700</v>
       </c>
       <c r="E46" s="3">
-        <v>1117100</v>
+        <v>915300</v>
       </c>
       <c r="F46" s="3">
-        <v>1064500</v>
+        <v>1066600</v>
       </c>
       <c r="G46" s="3">
-        <v>774000</v>
+        <v>1016400</v>
       </c>
       <c r="H46" s="3">
-        <v>812500</v>
+        <v>739000</v>
       </c>
       <c r="I46" s="3">
-        <v>1197300</v>
+        <v>775800</v>
       </c>
       <c r="J46" s="3">
+        <v>1143200</v>
+      </c>
+      <c r="K46" s="3">
         <v>899700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>766200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>470100</v>
+        <v>133400</v>
       </c>
       <c r="E47" s="3">
-        <v>374800</v>
+        <v>448800</v>
       </c>
       <c r="F47" s="3">
-        <v>37200</v>
+        <v>357900</v>
       </c>
       <c r="G47" s="3">
-        <v>34000</v>
+        <v>35600</v>
       </c>
       <c r="H47" s="3">
-        <v>33600</v>
+        <v>32500</v>
       </c>
       <c r="I47" s="3">
-        <v>27700</v>
+        <v>32100</v>
       </c>
       <c r="J47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K47" s="3">
         <v>123700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1129700</v>
+        <v>756600</v>
       </c>
       <c r="E48" s="3">
-        <v>504500</v>
+        <v>1078600</v>
       </c>
       <c r="F48" s="3">
-        <v>538200</v>
+        <v>481700</v>
       </c>
       <c r="G48" s="3">
-        <v>616800</v>
+        <v>513900</v>
       </c>
       <c r="H48" s="3">
-        <v>653500</v>
+        <v>588900</v>
       </c>
       <c r="I48" s="3">
-        <v>700100</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>624000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>668400</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>755400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3902000</v>
+        <v>2065600</v>
       </c>
       <c r="E49" s="3">
-        <v>1577500</v>
+        <v>3725700</v>
       </c>
       <c r="F49" s="3">
-        <v>1292300</v>
+        <v>1506200</v>
       </c>
       <c r="G49" s="3">
-        <v>1057900</v>
+        <v>1233900</v>
       </c>
       <c r="H49" s="3">
-        <v>557600</v>
+        <v>1010100</v>
       </c>
       <c r="I49" s="3">
-        <v>549400</v>
+        <v>532400</v>
       </c>
       <c r="J49" s="3">
+        <v>524600</v>
+      </c>
+      <c r="K49" s="3">
         <v>314500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>514100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39300</v>
+        <v>91700</v>
       </c>
       <c r="E52" s="3">
-        <v>443800</v>
+        <v>37500</v>
       </c>
       <c r="F52" s="3">
-        <v>355100</v>
+        <v>423800</v>
       </c>
       <c r="G52" s="3">
-        <v>310800</v>
+        <v>339100</v>
       </c>
       <c r="H52" s="3">
-        <v>254800</v>
+        <v>296700</v>
       </c>
       <c r="I52" s="3">
-        <v>103400</v>
+        <v>243300</v>
       </c>
       <c r="J52" s="3">
+        <v>98800</v>
+      </c>
+      <c r="K52" s="3">
         <v>235500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>267300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3983800</v>
+        <v>4190000</v>
       </c>
       <c r="E54" s="3">
-        <v>4017700</v>
+        <v>3803800</v>
       </c>
       <c r="F54" s="3">
-        <v>3287400</v>
+        <v>3836100</v>
       </c>
       <c r="G54" s="3">
-        <v>2793500</v>
+        <v>3138800</v>
       </c>
       <c r="H54" s="3">
-        <v>2312100</v>
+        <v>2667300</v>
       </c>
       <c r="I54" s="3">
-        <v>2577900</v>
+        <v>2207600</v>
       </c>
       <c r="J54" s="3">
+        <v>2461400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2554900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2368800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1017800</v>
+        <v>231900</v>
       </c>
       <c r="E57" s="3">
-        <v>196900</v>
+        <v>971800</v>
       </c>
       <c r="F57" s="3">
-        <v>154900</v>
+        <v>188000</v>
       </c>
       <c r="G57" s="3">
-        <v>120500</v>
+        <v>147900</v>
       </c>
       <c r="H57" s="3">
-        <v>124800</v>
+        <v>115000</v>
       </c>
       <c r="I57" s="3">
-        <v>176700</v>
+        <v>119100</v>
       </c>
       <c r="J57" s="3">
+        <v>168700</v>
+      </c>
+      <c r="K57" s="3">
         <v>728200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>192000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>870700</v>
+        <v>187400</v>
       </c>
       <c r="E58" s="3">
-        <v>87900</v>
+        <v>858900</v>
       </c>
       <c r="F58" s="3">
-        <v>100100</v>
+        <v>83900</v>
       </c>
       <c r="G58" s="3">
-        <v>430000</v>
+        <v>95500</v>
       </c>
       <c r="H58" s="3">
-        <v>16000</v>
+        <v>410600</v>
       </c>
       <c r="I58" s="3">
-        <v>531100</v>
+        <v>15300</v>
       </c>
       <c r="J58" s="3">
+        <v>507100</v>
+      </c>
+      <c r="K58" s="3">
         <v>78500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>711800</v>
+        <v>711100</v>
       </c>
       <c r="E59" s="3">
-        <v>638000</v>
+        <v>679700</v>
       </c>
       <c r="F59" s="3">
-        <v>623700</v>
+        <v>609200</v>
       </c>
       <c r="G59" s="3">
-        <v>551800</v>
+        <v>595500</v>
       </c>
       <c r="H59" s="3">
-        <v>526400</v>
+        <v>526800</v>
       </c>
       <c r="I59" s="3">
-        <v>638400</v>
+        <v>502600</v>
       </c>
       <c r="J59" s="3">
+        <v>609500</v>
+      </c>
+      <c r="K59" s="3">
         <v>704300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>706100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1664900</v>
+        <v>1130500</v>
       </c>
       <c r="E60" s="3">
-        <v>922800</v>
+        <v>1536300</v>
       </c>
       <c r="F60" s="3">
-        <v>878600</v>
+        <v>881100</v>
       </c>
       <c r="G60" s="3">
-        <v>1102200</v>
+        <v>838900</v>
       </c>
       <c r="H60" s="3">
-        <v>667200</v>
+        <v>1052400</v>
       </c>
       <c r="I60" s="3">
-        <v>1346200</v>
+        <v>637100</v>
       </c>
       <c r="J60" s="3">
+        <v>1285400</v>
+      </c>
+      <c r="K60" s="3">
         <v>975800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>935100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>906100</v>
+        <v>1486200</v>
       </c>
       <c r="E61" s="3">
-        <v>1508600</v>
+        <v>918500</v>
       </c>
       <c r="F61" s="3">
-        <v>1629500</v>
+        <v>1440400</v>
       </c>
       <c r="G61" s="3">
-        <v>1118800</v>
+        <v>1555800</v>
       </c>
       <c r="H61" s="3">
-        <v>1261900</v>
+        <v>1068200</v>
       </c>
       <c r="I61" s="3">
-        <v>1321900</v>
+        <v>1204900</v>
       </c>
       <c r="J61" s="3">
+        <v>1262200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1449000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1254200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>336400</v>
+        <v>336100</v>
       </c>
       <c r="E62" s="3">
-        <v>378800</v>
+        <v>321200</v>
       </c>
       <c r="F62" s="3">
-        <v>313000</v>
+        <v>361700</v>
       </c>
       <c r="G62" s="3">
-        <v>298300</v>
+        <v>298800</v>
       </c>
       <c r="H62" s="3">
-        <v>253600</v>
+        <v>284800</v>
       </c>
       <c r="I62" s="3">
-        <v>209700</v>
+        <v>242200</v>
       </c>
       <c r="J62" s="3">
+        <v>200200</v>
+      </c>
+      <c r="K62" s="3">
         <v>310700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>316700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2907900</v>
+        <v>2953500</v>
       </c>
       <c r="E66" s="3">
-        <v>2810600</v>
+        <v>2776500</v>
       </c>
       <c r="F66" s="3">
-        <v>2821200</v>
+        <v>2683600</v>
       </c>
       <c r="G66" s="3">
-        <v>2519000</v>
+        <v>2693700</v>
       </c>
       <c r="H66" s="3">
-        <v>2182500</v>
+        <v>2405200</v>
       </c>
       <c r="I66" s="3">
-        <v>2877900</v>
+        <v>2083900</v>
       </c>
       <c r="J66" s="3">
+        <v>2747900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2728000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2513200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1188000</v>
+        <v>1397100</v>
       </c>
       <c r="E72" s="3">
-        <v>1350700</v>
+        <v>1134300</v>
       </c>
       <c r="F72" s="3">
-        <v>499900</v>
+        <v>1289700</v>
       </c>
       <c r="G72" s="3">
-        <v>315200</v>
+        <v>477300</v>
       </c>
       <c r="H72" s="3">
-        <v>174400</v>
+        <v>300900</v>
       </c>
       <c r="I72" s="3">
-        <v>-231700</v>
+        <v>166500</v>
       </c>
       <c r="J72" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1905900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1075900</v>
+        <v>1236500</v>
       </c>
       <c r="E76" s="3">
-        <v>1207100</v>
+        <v>1027300</v>
       </c>
       <c r="F76" s="3">
-        <v>466200</v>
+        <v>1152600</v>
       </c>
       <c r="G76" s="3">
-        <v>274500</v>
+        <v>445100</v>
       </c>
       <c r="H76" s="3">
-        <v>129500</v>
+        <v>262100</v>
       </c>
       <c r="I76" s="3">
-        <v>-300100</v>
+        <v>123700</v>
       </c>
       <c r="J76" s="3">
+        <v>-286500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-173100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-144500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-127100</v>
+        <v>349500</v>
       </c>
       <c r="E81" s="3">
-        <v>883000</v>
+        <v>-121100</v>
       </c>
       <c r="F81" s="3">
-        <v>216900</v>
+        <v>841200</v>
       </c>
       <c r="G81" s="3">
-        <v>160700</v>
+        <v>206700</v>
       </c>
       <c r="H81" s="3">
-        <v>338500</v>
+        <v>153100</v>
       </c>
       <c r="I81" s="3">
-        <v>48500</v>
+        <v>322400</v>
       </c>
       <c r="J81" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K81" s="3">
         <v>61500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-91800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269800</v>
+        <v>375600</v>
       </c>
       <c r="E83" s="3">
-        <v>259700</v>
+        <v>257000</v>
       </c>
       <c r="F83" s="3">
-        <v>315600</v>
+        <v>247400</v>
       </c>
       <c r="G83" s="3">
-        <v>264400</v>
+        <v>300600</v>
       </c>
       <c r="H83" s="3">
-        <v>271400</v>
+        <v>251900</v>
       </c>
       <c r="I83" s="3">
-        <v>300200</v>
+        <v>258500</v>
       </c>
       <c r="J83" s="3">
+        <v>286000</v>
+      </c>
+      <c r="K83" s="3">
         <v>295100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>527900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>470100</v>
+        <v>570100</v>
       </c>
       <c r="E89" s="3">
-        <v>491000</v>
+        <v>447800</v>
       </c>
       <c r="F89" s="3">
-        <v>468600</v>
+        <v>467800</v>
       </c>
       <c r="G89" s="3">
-        <v>413700</v>
+        <v>446500</v>
       </c>
       <c r="H89" s="3">
-        <v>346700</v>
+        <v>394100</v>
       </c>
       <c r="I89" s="3">
-        <v>320500</v>
+        <v>330300</v>
       </c>
       <c r="J89" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K89" s="3">
         <v>343800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>362400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-190300</v>
+        <v>-172500</v>
       </c>
       <c r="E91" s="3">
-        <v>-225300</v>
+        <v>-181300</v>
       </c>
       <c r="F91" s="3">
-        <v>-240700</v>
+        <v>-214700</v>
       </c>
       <c r="G91" s="3">
-        <v>-205800</v>
+        <v>-229300</v>
       </c>
       <c r="H91" s="3">
-        <v>-223800</v>
+        <v>-196100</v>
       </c>
       <c r="I91" s="3">
-        <v>-260000</v>
+        <v>-213200</v>
       </c>
       <c r="J91" s="3">
+        <v>-247700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-236200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-276800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-590600</v>
+        <v>-75300</v>
       </c>
       <c r="E94" s="3">
-        <v>-18700</v>
+        <v>-562600</v>
       </c>
       <c r="F94" s="3">
-        <v>-387200</v>
+        <v>-17900</v>
       </c>
       <c r="G94" s="3">
-        <v>-687600</v>
+        <v>-368900</v>
       </c>
       <c r="H94" s="3">
-        <v>1200</v>
+        <v>-655100</v>
       </c>
       <c r="I94" s="3">
-        <v>-296400</v>
+        <v>1100</v>
       </c>
       <c r="J94" s="3">
+        <v>-282400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-347400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-301900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95900</v>
+        <v>-105700</v>
       </c>
       <c r="E96" s="3">
-        <v>-83100</v>
+        <v>-91400</v>
       </c>
       <c r="F96" s="3">
-        <v>-71800</v>
+        <v>-79200</v>
       </c>
       <c r="G96" s="3">
-        <v>-63200</v>
+        <v>-68400</v>
       </c>
       <c r="H96" s="3">
-        <v>-55800</v>
+        <v>-60200</v>
       </c>
       <c r="I96" s="3">
-        <v>-49900</v>
+        <v>-53200</v>
       </c>
       <c r="J96" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-46800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-149600</v>
+        <v>-272600</v>
       </c>
       <c r="E100" s="3">
-        <v>-212800</v>
+        <v>-142500</v>
       </c>
       <c r="F100" s="3">
-        <v>-88200</v>
+        <v>-202700</v>
       </c>
       <c r="G100" s="3">
-        <v>160200</v>
+        <v>-84000</v>
       </c>
       <c r="H100" s="3">
-        <v>-263700</v>
+        <v>152600</v>
       </c>
       <c r="I100" s="3">
-        <v>-125400</v>
+        <v>-251200</v>
       </c>
       <c r="J100" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="K100" s="3">
         <v>197800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7400</v>
+        <v>-9200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>7000</v>
       </c>
       <c r="F101" s="3">
-        <v>13700</v>
+        <v>-3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>13100</v>
       </c>
       <c r="H101" s="3">
-        <v>-18600</v>
+        <v>-6900</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
+        <v>-17700</v>
       </c>
       <c r="J101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-262700</v>
+        <v>213100</v>
       </c>
       <c r="E102" s="3">
-        <v>256200</v>
+        <v>-250300</v>
       </c>
       <c r="F102" s="3">
-        <v>7000</v>
+        <v>244100</v>
       </c>
       <c r="G102" s="3">
-        <v>-121000</v>
+        <v>6700</v>
       </c>
       <c r="H102" s="3">
-        <v>65500</v>
+        <v>-115300</v>
       </c>
       <c r="I102" s="3">
-        <v>-97600</v>
+        <v>62400</v>
       </c>
       <c r="J102" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="K102" s="3">
         <v>191200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3343100</v>
+        <v>3585200</v>
       </c>
       <c r="E8" s="3">
-        <v>3044900</v>
+        <v>3265400</v>
       </c>
       <c r="F8" s="3">
-        <v>2971000</v>
+        <v>3186100</v>
       </c>
       <c r="G8" s="3">
-        <v>2670200</v>
+        <v>2863600</v>
       </c>
       <c r="H8" s="3">
-        <v>2166400</v>
+        <v>2323300</v>
       </c>
       <c r="I8" s="3">
-        <v>2144000</v>
+        <v>2299200</v>
       </c>
       <c r="J8" s="3">
-        <v>2206300</v>
+        <v>2366100</v>
       </c>
       <c r="K8" s="3">
         <v>2878700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>696700</v>
+        <v>747200</v>
       </c>
       <c r="E9" s="3">
-        <v>630500</v>
+        <v>676100</v>
       </c>
       <c r="F9" s="3">
-        <v>583300</v>
+        <v>625500</v>
       </c>
       <c r="G9" s="3">
-        <v>462100</v>
+        <v>495600</v>
       </c>
       <c r="H9" s="3">
-        <v>379300</v>
+        <v>406800</v>
       </c>
       <c r="I9" s="3">
-        <v>116600</v>
+        <v>125100</v>
       </c>
       <c r="J9" s="3">
-        <v>107500</v>
+        <v>115300</v>
       </c>
       <c r="K9" s="3">
         <v>1670800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2646300</v>
+        <v>2838000</v>
       </c>
       <c r="E10" s="3">
-        <v>2414400</v>
+        <v>2589300</v>
       </c>
       <c r="F10" s="3">
-        <v>2387700</v>
+        <v>2560600</v>
       </c>
       <c r="G10" s="3">
-        <v>2208100</v>
+        <v>2368000</v>
       </c>
       <c r="H10" s="3">
-        <v>1787100</v>
+        <v>1916500</v>
       </c>
       <c r="I10" s="3">
-        <v>2027300</v>
+        <v>2174200</v>
       </c>
       <c r="J10" s="3">
-        <v>2098800</v>
+        <v>2250800</v>
       </c>
       <c r="K10" s="3">
         <v>1207900</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J12" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K12" s="3">
         <v>2300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-94200</v>
+        <v>-101000</v>
       </c>
       <c r="E14" s="3">
-        <v>457500</v>
+        <v>490700</v>
       </c>
       <c r="F14" s="3">
-        <v>-532900</v>
+        <v>-571500</v>
       </c>
       <c r="G14" s="3">
-        <v>20300</v>
+        <v>21800</v>
       </c>
       <c r="H14" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="I14" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="J14" s="3">
-        <v>77100</v>
+        <v>82700</v>
       </c>
       <c r="K14" s="3">
         <v>181800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>272300</v>
+        <v>292000</v>
       </c>
       <c r="E15" s="3">
-        <v>256400</v>
+        <v>275000</v>
       </c>
       <c r="F15" s="3">
-        <v>244700</v>
+        <v>262400</v>
       </c>
       <c r="G15" s="3">
-        <v>300800</v>
+        <v>322500</v>
       </c>
       <c r="H15" s="3">
-        <v>261000</v>
+        <v>279900</v>
       </c>
       <c r="I15" s="3">
-        <v>255700</v>
+        <v>274200</v>
       </c>
       <c r="J15" s="3">
-        <v>275400</v>
+        <v>295300</v>
       </c>
       <c r="K15" s="3">
         <v>515800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2888100</v>
+        <v>3097300</v>
       </c>
       <c r="E17" s="3">
-        <v>3163200</v>
+        <v>3392300</v>
       </c>
       <c r="F17" s="3">
-        <v>2057900</v>
+        <v>2206900</v>
       </c>
       <c r="G17" s="3">
-        <v>2384000</v>
+        <v>2556700</v>
       </c>
       <c r="H17" s="3">
-        <v>1935100</v>
+        <v>2075200</v>
       </c>
       <c r="I17" s="3">
-        <v>1895100</v>
+        <v>2032300</v>
       </c>
       <c r="J17" s="3">
-        <v>2006800</v>
+        <v>2152100</v>
       </c>
       <c r="K17" s="3">
         <v>2694200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>455000</v>
+        <v>487900</v>
       </c>
       <c r="E18" s="3">
-        <v>-118400</v>
+        <v>-126900</v>
       </c>
       <c r="F18" s="3">
-        <v>913100</v>
+        <v>979200</v>
       </c>
       <c r="G18" s="3">
-        <v>286200</v>
+        <v>307000</v>
       </c>
       <c r="H18" s="3">
-        <v>231300</v>
+        <v>248000</v>
       </c>
       <c r="I18" s="3">
-        <v>248900</v>
+        <v>266900</v>
       </c>
       <c r="J18" s="3">
-        <v>199500</v>
+        <v>214000</v>
       </c>
       <c r="K18" s="3">
         <v>184500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="E20" s="3">
-        <v>21700</v>
+        <v>23200</v>
       </c>
       <c r="F20" s="3">
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="G20" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="H20" s="3">
-        <v>11700</v>
+        <v>12500</v>
       </c>
       <c r="I20" s="3">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="J20" s="3">
-        <v>98200</v>
+        <v>105300</v>
       </c>
       <c r="K20" s="3">
         <v>20600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>837600</v>
+        <v>898600</v>
       </c>
       <c r="E21" s="3">
-        <v>159000</v>
+        <v>170800</v>
       </c>
       <c r="F21" s="3">
-        <v>1167800</v>
+        <v>1252700</v>
       </c>
       <c r="G21" s="3">
-        <v>603200</v>
+        <v>647200</v>
       </c>
       <c r="H21" s="3">
-        <v>493500</v>
+        <v>529500</v>
       </c>
       <c r="I21" s="3">
-        <v>512400</v>
+        <v>549800</v>
       </c>
       <c r="J21" s="3">
-        <v>582100</v>
+        <v>624600</v>
       </c>
       <c r="K21" s="3">
         <v>501800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E22" s="3">
         <v>47000</v>
       </c>
-      <c r="E22" s="3">
-        <v>43800</v>
-      </c>
       <c r="F22" s="3">
-        <v>42900</v>
+        <v>46000</v>
       </c>
       <c r="G22" s="3">
-        <v>47400</v>
+        <v>50900</v>
       </c>
       <c r="H22" s="3">
-        <v>47200</v>
+        <v>50600</v>
       </c>
       <c r="I22" s="3">
-        <v>54300</v>
+        <v>58200</v>
       </c>
       <c r="J22" s="3">
-        <v>159500</v>
+        <v>171000</v>
       </c>
       <c r="K22" s="3">
         <v>65800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>416900</v>
+        <v>447100</v>
       </c>
       <c r="E23" s="3">
-        <v>-140500</v>
+        <v>-150700</v>
       </c>
       <c r="F23" s="3">
-        <v>878900</v>
+        <v>942500</v>
       </c>
       <c r="G23" s="3">
-        <v>256800</v>
+        <v>275400</v>
       </c>
       <c r="H23" s="3">
-        <v>195800</v>
+        <v>210000</v>
       </c>
       <c r="I23" s="3">
-        <v>201000</v>
+        <v>215600</v>
       </c>
       <c r="J23" s="3">
-        <v>138200</v>
+        <v>148200</v>
       </c>
       <c r="K23" s="3">
         <v>139200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67400</v>
+        <v>72200</v>
       </c>
       <c r="E24" s="3">
-        <v>-19500</v>
+        <v>-20900</v>
       </c>
       <c r="F24" s="3">
-        <v>45600</v>
+        <v>48900</v>
       </c>
       <c r="G24" s="3">
-        <v>50100</v>
+        <v>53800</v>
       </c>
       <c r="H24" s="3">
-        <v>42700</v>
+        <v>45800</v>
       </c>
       <c r="I24" s="3">
-        <v>45700</v>
+        <v>49000</v>
       </c>
       <c r="J24" s="3">
-        <v>35600</v>
+        <v>38200</v>
       </c>
       <c r="K24" s="3">
         <v>44100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>349500</v>
+        <v>374800</v>
       </c>
       <c r="E26" s="3">
-        <v>-121100</v>
+        <v>-129800</v>
       </c>
       <c r="F26" s="3">
-        <v>833300</v>
+        <v>893600</v>
       </c>
       <c r="G26" s="3">
-        <v>206700</v>
+        <v>221600</v>
       </c>
       <c r="H26" s="3">
-        <v>153100</v>
+        <v>164200</v>
       </c>
       <c r="I26" s="3">
-        <v>155300</v>
+        <v>166600</v>
       </c>
       <c r="J26" s="3">
-        <v>102600</v>
+        <v>110000</v>
       </c>
       <c r="K26" s="3">
         <v>95200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>349500</v>
+        <v>374800</v>
       </c>
       <c r="E27" s="3">
-        <v>-121100</v>
+        <v>-129800</v>
       </c>
       <c r="F27" s="3">
-        <v>833300</v>
+        <v>893600</v>
       </c>
       <c r="G27" s="3">
-        <v>206700</v>
+        <v>221600</v>
       </c>
       <c r="H27" s="3">
-        <v>153100</v>
+        <v>164200</v>
       </c>
       <c r="I27" s="3">
-        <v>155700</v>
+        <v>166900</v>
       </c>
       <c r="J27" s="3">
-        <v>101100</v>
+        <v>108400</v>
       </c>
       <c r="K27" s="3">
         <v>92200</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>166800</v>
+        <v>178800</v>
       </c>
       <c r="J29" s="3">
-        <v>-54900</v>
+        <v>-58900</v>
       </c>
       <c r="K29" s="3">
         <v>-30600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-9600</v>
       </c>
       <c r="E32" s="3">
-        <v>-21700</v>
+        <v>-23200</v>
       </c>
       <c r="F32" s="3">
-        <v>-8600</v>
+        <v>-9200</v>
       </c>
       <c r="G32" s="3">
-        <v>-18000</v>
+        <v>-19300</v>
       </c>
       <c r="H32" s="3">
-        <v>-11700</v>
+        <v>-12500</v>
       </c>
       <c r="I32" s="3">
-        <v>-6400</v>
+        <v>-6900</v>
       </c>
       <c r="J32" s="3">
-        <v>-98200</v>
+        <v>-105300</v>
       </c>
       <c r="K32" s="3">
         <v>-20600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>349500</v>
+        <v>374800</v>
       </c>
       <c r="E33" s="3">
-        <v>-121100</v>
+        <v>-129800</v>
       </c>
       <c r="F33" s="3">
-        <v>841200</v>
+        <v>902100</v>
       </c>
       <c r="G33" s="3">
-        <v>206700</v>
+        <v>221600</v>
       </c>
       <c r="H33" s="3">
-        <v>153100</v>
+        <v>164200</v>
       </c>
       <c r="I33" s="3">
-        <v>322400</v>
+        <v>345800</v>
       </c>
       <c r="J33" s="3">
-        <v>46200</v>
+        <v>49500</v>
       </c>
       <c r="K33" s="3">
         <v>61500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>349500</v>
+        <v>374800</v>
       </c>
       <c r="E35" s="3">
-        <v>-121100</v>
+        <v>-129800</v>
       </c>
       <c r="F35" s="3">
-        <v>841200</v>
+        <v>902100</v>
       </c>
       <c r="G35" s="3">
-        <v>206700</v>
+        <v>221600</v>
       </c>
       <c r="H35" s="3">
-        <v>153100</v>
+        <v>164200</v>
       </c>
       <c r="I35" s="3">
-        <v>322400</v>
+        <v>345800</v>
       </c>
       <c r="J35" s="3">
-        <v>46200</v>
+        <v>49500</v>
       </c>
       <c r="K35" s="3">
         <v>61500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>295600</v>
+        <v>316300</v>
       </c>
       <c r="E41" s="3">
-        <v>315300</v>
+        <v>337300</v>
       </c>
       <c r="F41" s="3">
-        <v>370700</v>
+        <v>396600</v>
       </c>
       <c r="G41" s="3">
-        <v>195300</v>
+        <v>208900</v>
       </c>
       <c r="H41" s="3">
-        <v>119400</v>
+        <v>127700</v>
       </c>
       <c r="I41" s="3">
-        <v>169000</v>
+        <v>180800</v>
       </c>
       <c r="J41" s="3">
-        <v>170600</v>
+        <v>182500</v>
       </c>
       <c r="K41" s="3">
         <v>207500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>88600</v>
+        <v>94800</v>
       </c>
       <c r="E42" s="3">
-        <v>8300</v>
+        <v>8800</v>
       </c>
       <c r="F42" s="3">
-        <v>12700</v>
+        <v>13600</v>
       </c>
       <c r="G42" s="3">
-        <v>14300</v>
+        <v>15300</v>
       </c>
       <c r="H42" s="3">
-        <v>129900</v>
+        <v>138900</v>
       </c>
       <c r="I42" s="3">
-        <v>137800</v>
+        <v>147400</v>
       </c>
       <c r="J42" s="3">
-        <v>367400</v>
+        <v>393100</v>
       </c>
       <c r="K42" s="3">
         <v>9200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>589500</v>
+        <v>630800</v>
       </c>
       <c r="E43" s="3">
-        <v>1178600</v>
+        <v>1261100</v>
       </c>
       <c r="F43" s="3">
-        <v>508700</v>
+        <v>544300</v>
       </c>
       <c r="G43" s="3">
-        <v>446900</v>
+        <v>478100</v>
       </c>
       <c r="H43" s="3">
-        <v>385300</v>
+        <v>412200</v>
       </c>
       <c r="I43" s="3">
-        <v>364100</v>
+        <v>389600</v>
       </c>
       <c r="J43" s="3">
-        <v>454800</v>
+        <v>486600</v>
       </c>
       <c r="K43" s="3">
         <v>1112300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>131500</v>
+        <v>140700</v>
       </c>
       <c r="E44" s="3">
-        <v>254800</v>
+        <v>272600</v>
       </c>
       <c r="F44" s="3">
-        <v>104100</v>
+        <v>111300</v>
       </c>
       <c r="G44" s="3">
-        <v>98800</v>
+        <v>105700</v>
       </c>
       <c r="H44" s="3">
-        <v>68800</v>
+        <v>73600</v>
       </c>
       <c r="I44" s="3">
-        <v>72700</v>
+        <v>77800</v>
       </c>
       <c r="J44" s="3">
-        <v>78800</v>
+        <v>84300</v>
       </c>
       <c r="K44" s="3">
         <v>69800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37400</v>
+        <v>40000</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>48700</v>
       </c>
       <c r="F45" s="3">
-        <v>70500</v>
+        <v>75400</v>
       </c>
       <c r="G45" s="3">
-        <v>261200</v>
+        <v>279500</v>
       </c>
       <c r="H45" s="3">
-        <v>35800</v>
+        <v>38300</v>
       </c>
       <c r="I45" s="3">
-        <v>32200</v>
+        <v>34500</v>
       </c>
       <c r="J45" s="3">
-        <v>71700</v>
+        <v>76700</v>
       </c>
       <c r="K45" s="3">
         <v>115200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1142700</v>
+        <v>1222700</v>
       </c>
       <c r="E46" s="3">
-        <v>915300</v>
+        <v>979400</v>
       </c>
       <c r="F46" s="3">
-        <v>1066600</v>
+        <v>1141300</v>
       </c>
       <c r="G46" s="3">
-        <v>1016400</v>
+        <v>1087500</v>
       </c>
       <c r="H46" s="3">
-        <v>739000</v>
+        <v>790800</v>
       </c>
       <c r="I46" s="3">
-        <v>775800</v>
+        <v>830100</v>
       </c>
       <c r="J46" s="3">
-        <v>1143200</v>
+        <v>1223200</v>
       </c>
       <c r="K46" s="3">
         <v>899700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>133400</v>
+        <v>142800</v>
       </c>
       <c r="E47" s="3">
-        <v>448800</v>
+        <v>480200</v>
       </c>
       <c r="F47" s="3">
-        <v>357900</v>
+        <v>382900</v>
       </c>
       <c r="G47" s="3">
-        <v>35600</v>
+        <v>38000</v>
       </c>
       <c r="H47" s="3">
-        <v>32500</v>
+        <v>34700</v>
       </c>
       <c r="I47" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="J47" s="3">
-        <v>26400</v>
+        <v>28300</v>
       </c>
       <c r="K47" s="3">
         <v>123700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>756600</v>
+        <v>809500</v>
       </c>
       <c r="E48" s="3">
-        <v>1078600</v>
+        <v>1154100</v>
       </c>
       <c r="F48" s="3">
-        <v>481700</v>
+        <v>515400</v>
       </c>
       <c r="G48" s="3">
-        <v>513900</v>
+        <v>549800</v>
       </c>
       <c r="H48" s="3">
-        <v>588900</v>
+        <v>630100</v>
       </c>
       <c r="I48" s="3">
-        <v>624000</v>
+        <v>667700</v>
       </c>
       <c r="J48" s="3">
-        <v>668400</v>
+        <v>715200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2065600</v>
+        <v>2210200</v>
       </c>
       <c r="E49" s="3">
-        <v>3725700</v>
+        <v>3986400</v>
       </c>
       <c r="F49" s="3">
-        <v>1506200</v>
+        <v>1611600</v>
       </c>
       <c r="G49" s="3">
-        <v>1233900</v>
+        <v>1320300</v>
       </c>
       <c r="H49" s="3">
-        <v>1010100</v>
+        <v>1080800</v>
       </c>
       <c r="I49" s="3">
-        <v>532400</v>
+        <v>569700</v>
       </c>
       <c r="J49" s="3">
-        <v>524600</v>
+        <v>561300</v>
       </c>
       <c r="K49" s="3">
         <v>314500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91700</v>
+        <v>98100</v>
       </c>
       <c r="E52" s="3">
-        <v>37500</v>
+        <v>40200</v>
       </c>
       <c r="F52" s="3">
-        <v>423800</v>
+        <v>453400</v>
       </c>
       <c r="G52" s="3">
-        <v>339100</v>
+        <v>362800</v>
       </c>
       <c r="H52" s="3">
-        <v>296700</v>
+        <v>317500</v>
       </c>
       <c r="I52" s="3">
-        <v>243300</v>
+        <v>260300</v>
       </c>
       <c r="J52" s="3">
-        <v>98800</v>
+        <v>105700</v>
       </c>
       <c r="K52" s="3">
         <v>235500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4190000</v>
+        <v>4483300</v>
       </c>
       <c r="E54" s="3">
-        <v>3803800</v>
+        <v>4070000</v>
       </c>
       <c r="F54" s="3">
-        <v>3836100</v>
+        <v>4104600</v>
       </c>
       <c r="G54" s="3">
-        <v>3138800</v>
+        <v>3358500</v>
       </c>
       <c r="H54" s="3">
-        <v>2667300</v>
+        <v>2854000</v>
       </c>
       <c r="I54" s="3">
-        <v>2207600</v>
+        <v>2362100</v>
       </c>
       <c r="J54" s="3">
-        <v>2461400</v>
+        <v>2633700</v>
       </c>
       <c r="K54" s="3">
         <v>2554900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>231900</v>
+        <v>248200</v>
       </c>
       <c r="E57" s="3">
-        <v>971800</v>
+        <v>1039900</v>
       </c>
       <c r="F57" s="3">
-        <v>188000</v>
+        <v>201200</v>
       </c>
       <c r="G57" s="3">
-        <v>147900</v>
+        <v>158200</v>
       </c>
       <c r="H57" s="3">
-        <v>115000</v>
+        <v>123100</v>
       </c>
       <c r="I57" s="3">
-        <v>119100</v>
+        <v>127500</v>
       </c>
       <c r="J57" s="3">
-        <v>168700</v>
+        <v>180600</v>
       </c>
       <c r="K57" s="3">
         <v>728200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>187400</v>
+        <v>200500</v>
       </c>
       <c r="E58" s="3">
-        <v>858900</v>
+        <v>919000</v>
       </c>
       <c r="F58" s="3">
-        <v>83900</v>
+        <v>89800</v>
       </c>
       <c r="G58" s="3">
-        <v>95500</v>
+        <v>102200</v>
       </c>
       <c r="H58" s="3">
-        <v>410600</v>
+        <v>439300</v>
       </c>
       <c r="I58" s="3">
-        <v>15300</v>
+        <v>16400</v>
       </c>
       <c r="J58" s="3">
-        <v>507100</v>
+        <v>542600</v>
       </c>
       <c r="K58" s="3">
         <v>78500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>711100</v>
+        <v>760900</v>
       </c>
       <c r="E59" s="3">
-        <v>679700</v>
+        <v>727200</v>
       </c>
       <c r="F59" s="3">
-        <v>609200</v>
+        <v>651800</v>
       </c>
       <c r="G59" s="3">
-        <v>595500</v>
+        <v>637100</v>
       </c>
       <c r="H59" s="3">
-        <v>526800</v>
+        <v>563700</v>
       </c>
       <c r="I59" s="3">
-        <v>502600</v>
+        <v>537800</v>
       </c>
       <c r="J59" s="3">
-        <v>609500</v>
+        <v>652200</v>
       </c>
       <c r="K59" s="3">
         <v>704300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1130500</v>
+        <v>1209600</v>
       </c>
       <c r="E60" s="3">
-        <v>1536300</v>
+        <v>1643900</v>
       </c>
       <c r="F60" s="3">
-        <v>881100</v>
+        <v>942800</v>
       </c>
       <c r="G60" s="3">
-        <v>838900</v>
+        <v>897600</v>
       </c>
       <c r="H60" s="3">
-        <v>1052400</v>
+        <v>1126100</v>
       </c>
       <c r="I60" s="3">
-        <v>637100</v>
+        <v>681700</v>
       </c>
       <c r="J60" s="3">
-        <v>1285400</v>
+        <v>1375300</v>
       </c>
       <c r="K60" s="3">
         <v>975800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1486200</v>
+        <v>1590200</v>
       </c>
       <c r="E61" s="3">
-        <v>918500</v>
+        <v>982800</v>
       </c>
       <c r="F61" s="3">
-        <v>1440400</v>
+        <v>1541200</v>
       </c>
       <c r="G61" s="3">
-        <v>1555800</v>
+        <v>1664700</v>
       </c>
       <c r="H61" s="3">
-        <v>1068200</v>
+        <v>1143000</v>
       </c>
       <c r="I61" s="3">
-        <v>1204900</v>
+        <v>1289200</v>
       </c>
       <c r="J61" s="3">
-        <v>1262200</v>
+        <v>1350500</v>
       </c>
       <c r="K61" s="3">
         <v>1449000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>336100</v>
+        <v>359700</v>
       </c>
       <c r="E62" s="3">
-        <v>321200</v>
+        <v>343700</v>
       </c>
       <c r="F62" s="3">
-        <v>361700</v>
+        <v>387000</v>
       </c>
       <c r="G62" s="3">
-        <v>298800</v>
+        <v>319800</v>
       </c>
       <c r="H62" s="3">
-        <v>284800</v>
+        <v>304700</v>
       </c>
       <c r="I62" s="3">
-        <v>242200</v>
+        <v>259100</v>
       </c>
       <c r="J62" s="3">
-        <v>200200</v>
+        <v>214200</v>
       </c>
       <c r="K62" s="3">
         <v>310700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2953500</v>
+        <v>3160300</v>
       </c>
       <c r="E66" s="3">
-        <v>2776500</v>
+        <v>2970900</v>
       </c>
       <c r="F66" s="3">
-        <v>2683600</v>
+        <v>2871400</v>
       </c>
       <c r="G66" s="3">
-        <v>2693700</v>
+        <v>2882200</v>
       </c>
       <c r="H66" s="3">
-        <v>2405200</v>
+        <v>2573600</v>
       </c>
       <c r="I66" s="3">
-        <v>2083900</v>
+        <v>2229800</v>
       </c>
       <c r="J66" s="3">
-        <v>2747900</v>
+        <v>2940200</v>
       </c>
       <c r="K66" s="3">
         <v>2728000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1397100</v>
+        <v>1494900</v>
       </c>
       <c r="E72" s="3">
-        <v>1134300</v>
+        <v>1213700</v>
       </c>
       <c r="F72" s="3">
-        <v>1289700</v>
+        <v>1380000</v>
       </c>
       <c r="G72" s="3">
-        <v>477300</v>
+        <v>510700</v>
       </c>
       <c r="H72" s="3">
-        <v>300900</v>
+        <v>322000</v>
       </c>
       <c r="I72" s="3">
-        <v>166500</v>
+        <v>178200</v>
       </c>
       <c r="J72" s="3">
-        <v>-221200</v>
+        <v>-236700</v>
       </c>
       <c r="K72" s="3">
         <v>1905900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1236500</v>
+        <v>1323000</v>
       </c>
       <c r="E76" s="3">
-        <v>1027300</v>
+        <v>1099200</v>
       </c>
       <c r="F76" s="3">
-        <v>1152600</v>
+        <v>1233200</v>
       </c>
       <c r="G76" s="3">
-        <v>445100</v>
+        <v>476300</v>
       </c>
       <c r="H76" s="3">
-        <v>262100</v>
+        <v>280400</v>
       </c>
       <c r="I76" s="3">
-        <v>123700</v>
+        <v>132300</v>
       </c>
       <c r="J76" s="3">
-        <v>-286500</v>
+        <v>-306600</v>
       </c>
       <c r="K76" s="3">
         <v>-173100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>349500</v>
+        <v>374800</v>
       </c>
       <c r="E81" s="3">
-        <v>-121100</v>
+        <v>-129800</v>
       </c>
       <c r="F81" s="3">
-        <v>841200</v>
+        <v>902100</v>
       </c>
       <c r="G81" s="3">
-        <v>206700</v>
+        <v>221600</v>
       </c>
       <c r="H81" s="3">
-        <v>153100</v>
+        <v>164200</v>
       </c>
       <c r="I81" s="3">
-        <v>322400</v>
+        <v>345800</v>
       </c>
       <c r="J81" s="3">
-        <v>46200</v>
+        <v>49500</v>
       </c>
       <c r="K81" s="3">
         <v>61500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>375600</v>
+        <v>402800</v>
       </c>
       <c r="E83" s="3">
-        <v>257000</v>
+        <v>275600</v>
       </c>
       <c r="F83" s="3">
-        <v>247400</v>
+        <v>265300</v>
       </c>
       <c r="G83" s="3">
-        <v>300600</v>
+        <v>322400</v>
       </c>
       <c r="H83" s="3">
-        <v>251900</v>
+        <v>270100</v>
       </c>
       <c r="I83" s="3">
-        <v>258500</v>
+        <v>277200</v>
       </c>
       <c r="J83" s="3">
-        <v>286000</v>
+        <v>306700</v>
       </c>
       <c r="K83" s="3">
         <v>295100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>570100</v>
+        <v>611400</v>
       </c>
       <c r="E89" s="3">
-        <v>447800</v>
+        <v>480200</v>
       </c>
       <c r="F89" s="3">
-        <v>467800</v>
+        <v>501600</v>
       </c>
       <c r="G89" s="3">
-        <v>446500</v>
+        <v>478800</v>
       </c>
       <c r="H89" s="3">
-        <v>394100</v>
+        <v>422700</v>
       </c>
       <c r="I89" s="3">
-        <v>330300</v>
+        <v>354200</v>
       </c>
       <c r="J89" s="3">
-        <v>305300</v>
+        <v>327400</v>
       </c>
       <c r="K89" s="3">
         <v>343800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172500</v>
+        <v>-185000</v>
       </c>
       <c r="E91" s="3">
-        <v>-181300</v>
+        <v>-194400</v>
       </c>
       <c r="F91" s="3">
-        <v>-214700</v>
+        <v>-230200</v>
       </c>
       <c r="G91" s="3">
-        <v>-229300</v>
+        <v>-245900</v>
       </c>
       <c r="H91" s="3">
-        <v>-196100</v>
+        <v>-210300</v>
       </c>
       <c r="I91" s="3">
-        <v>-213200</v>
+        <v>-228600</v>
       </c>
       <c r="J91" s="3">
-        <v>-247700</v>
+        <v>-265600</v>
       </c>
       <c r="K91" s="3">
         <v>-236200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75300</v>
+        <v>-80700</v>
       </c>
       <c r="E94" s="3">
-        <v>-562600</v>
+        <v>-603300</v>
       </c>
       <c r="F94" s="3">
-        <v>-17900</v>
+        <v>-19200</v>
       </c>
       <c r="G94" s="3">
-        <v>-368900</v>
+        <v>-395600</v>
       </c>
       <c r="H94" s="3">
-        <v>-655100</v>
+        <v>-702500</v>
       </c>
       <c r="I94" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J94" s="3">
-        <v>-282400</v>
+        <v>-302900</v>
       </c>
       <c r="K94" s="3">
         <v>-347400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105700</v>
+        <v>-113300</v>
       </c>
       <c r="E96" s="3">
-        <v>-91400</v>
+        <v>-98000</v>
       </c>
       <c r="F96" s="3">
-        <v>-79200</v>
+        <v>-84900</v>
       </c>
       <c r="G96" s="3">
-        <v>-68400</v>
+        <v>-73300</v>
       </c>
       <c r="H96" s="3">
-        <v>-60200</v>
+        <v>-64600</v>
       </c>
       <c r="I96" s="3">
-        <v>-53200</v>
+        <v>-57100</v>
       </c>
       <c r="J96" s="3">
-        <v>-47500</v>
+        <v>-51000</v>
       </c>
       <c r="K96" s="3">
         <v>-46800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-272600</v>
+        <v>-292300</v>
       </c>
       <c r="E100" s="3">
-        <v>-142500</v>
+        <v>-152800</v>
       </c>
       <c r="F100" s="3">
-        <v>-202700</v>
+        <v>-217400</v>
       </c>
       <c r="G100" s="3">
-        <v>-84000</v>
+        <v>-90100</v>
       </c>
       <c r="H100" s="3">
-        <v>152600</v>
+        <v>163600</v>
       </c>
       <c r="I100" s="3">
-        <v>-251200</v>
+        <v>-269400</v>
       </c>
       <c r="J100" s="3">
-        <v>-119500</v>
+        <v>-128100</v>
       </c>
       <c r="K100" s="3">
         <v>197800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9200</v>
+        <v>-9900</v>
       </c>
       <c r="E101" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="G101" s="3">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6900</v>
+        <v>-7400</v>
       </c>
       <c r="I101" s="3">
-        <v>-17700</v>
+        <v>-19000</v>
       </c>
       <c r="J101" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K101" s="3">
         <v>-3000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213100</v>
+        <v>228500</v>
       </c>
       <c r="E102" s="3">
-        <v>-250300</v>
+        <v>-268400</v>
       </c>
       <c r="F102" s="3">
-        <v>244100</v>
+        <v>261800</v>
       </c>
       <c r="G102" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="H102" s="3">
-        <v>-115300</v>
+        <v>-123600</v>
       </c>
       <c r="I102" s="3">
-        <v>62400</v>
+        <v>67000</v>
       </c>
       <c r="J102" s="3">
-        <v>-93000</v>
+        <v>-99700</v>
       </c>
       <c r="K102" s="3">
         <v>191200</v>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3585200</v>
+        <v>3614000</v>
       </c>
       <c r="E8" s="3">
-        <v>3265400</v>
+        <v>3291600</v>
       </c>
       <c r="F8" s="3">
-        <v>3186100</v>
+        <v>3211700</v>
       </c>
       <c r="G8" s="3">
-        <v>2863600</v>
+        <v>2886600</v>
       </c>
       <c r="H8" s="3">
-        <v>2323300</v>
+        <v>2341900</v>
       </c>
       <c r="I8" s="3">
-        <v>2299200</v>
+        <v>2317700</v>
       </c>
       <c r="J8" s="3">
-        <v>2366100</v>
+        <v>2385100</v>
       </c>
       <c r="K8" s="3">
         <v>2878700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>747200</v>
+        <v>753200</v>
       </c>
       <c r="E9" s="3">
-        <v>676100</v>
+        <v>681500</v>
       </c>
       <c r="F9" s="3">
-        <v>625500</v>
+        <v>630600</v>
       </c>
       <c r="G9" s="3">
-        <v>495600</v>
+        <v>499500</v>
       </c>
       <c r="H9" s="3">
-        <v>406800</v>
+        <v>410100</v>
       </c>
       <c r="I9" s="3">
-        <v>125100</v>
+        <v>126100</v>
       </c>
       <c r="J9" s="3">
-        <v>115300</v>
+        <v>116200</v>
       </c>
       <c r="K9" s="3">
         <v>1670800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2838000</v>
+        <v>2860800</v>
       </c>
       <c r="E10" s="3">
-        <v>2589300</v>
+        <v>2610100</v>
       </c>
       <c r="F10" s="3">
-        <v>2560600</v>
+        <v>2581200</v>
       </c>
       <c r="G10" s="3">
-        <v>2368000</v>
+        <v>2387100</v>
       </c>
       <c r="H10" s="3">
-        <v>1916500</v>
+        <v>1931900</v>
       </c>
       <c r="I10" s="3">
-        <v>2174200</v>
+        <v>2191600</v>
       </c>
       <c r="J10" s="3">
-        <v>2250800</v>
+        <v>2268800</v>
       </c>
       <c r="K10" s="3">
         <v>1207900</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-101000</v>
+        <v>-101900</v>
       </c>
       <c r="E14" s="3">
-        <v>490700</v>
+        <v>494600</v>
       </c>
       <c r="F14" s="3">
-        <v>-571500</v>
+        <v>-576100</v>
       </c>
       <c r="G14" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="H14" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I14" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="J14" s="3">
-        <v>82700</v>
+        <v>83300</v>
       </c>
       <c r="K14" s="3">
         <v>181800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>292000</v>
+        <v>294400</v>
       </c>
       <c r="E15" s="3">
-        <v>275000</v>
+        <v>277200</v>
       </c>
       <c r="F15" s="3">
-        <v>262400</v>
+        <v>264500</v>
       </c>
       <c r="G15" s="3">
-        <v>322500</v>
+        <v>325100</v>
       </c>
       <c r="H15" s="3">
-        <v>279900</v>
+        <v>282100</v>
       </c>
       <c r="I15" s="3">
-        <v>274200</v>
+        <v>276400</v>
       </c>
       <c r="J15" s="3">
-        <v>295300</v>
+        <v>297700</v>
       </c>
       <c r="K15" s="3">
         <v>515800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3097300</v>
+        <v>3122100</v>
       </c>
       <c r="E17" s="3">
-        <v>3392300</v>
+        <v>3419600</v>
       </c>
       <c r="F17" s="3">
-        <v>2206900</v>
+        <v>2224600</v>
       </c>
       <c r="G17" s="3">
-        <v>2556700</v>
+        <v>2577200</v>
       </c>
       <c r="H17" s="3">
-        <v>2075200</v>
+        <v>2091900</v>
       </c>
       <c r="I17" s="3">
-        <v>2032300</v>
+        <v>2048600</v>
       </c>
       <c r="J17" s="3">
-        <v>2152100</v>
+        <v>2169400</v>
       </c>
       <c r="K17" s="3">
         <v>2694200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>487900</v>
+        <v>491800</v>
       </c>
       <c r="E18" s="3">
-        <v>-126900</v>
+        <v>-127900</v>
       </c>
       <c r="F18" s="3">
-        <v>979200</v>
+        <v>987100</v>
       </c>
       <c r="G18" s="3">
-        <v>307000</v>
+        <v>309400</v>
       </c>
       <c r="H18" s="3">
-        <v>248000</v>
+        <v>250000</v>
       </c>
       <c r="I18" s="3">
-        <v>266900</v>
+        <v>269100</v>
       </c>
       <c r="J18" s="3">
-        <v>214000</v>
+        <v>215700</v>
       </c>
       <c r="K18" s="3">
         <v>184500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="E20" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="F20" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="G20" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="H20" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I20" s="3">
         <v>6900</v>
       </c>
       <c r="J20" s="3">
-        <v>105300</v>
+        <v>106100</v>
       </c>
       <c r="K20" s="3">
         <v>20600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>898600</v>
+        <v>908900</v>
       </c>
       <c r="E21" s="3">
-        <v>170800</v>
+        <v>174200</v>
       </c>
       <c r="F21" s="3">
-        <v>1252700</v>
+        <v>1264700</v>
       </c>
       <c r="G21" s="3">
-        <v>647200</v>
+        <v>654900</v>
       </c>
       <c r="H21" s="3">
-        <v>529500</v>
+        <v>535800</v>
       </c>
       <c r="I21" s="3">
-        <v>549800</v>
+        <v>556300</v>
       </c>
       <c r="J21" s="3">
-        <v>624600</v>
+        <v>631900</v>
       </c>
       <c r="K21" s="3">
         <v>501800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50500</v>
+        <v>50900</v>
       </c>
       <c r="E22" s="3">
-        <v>47000</v>
+        <v>47400</v>
       </c>
       <c r="F22" s="3">
-        <v>46000</v>
+        <v>46300</v>
       </c>
       <c r="G22" s="3">
-        <v>50900</v>
+        <v>51300</v>
       </c>
       <c r="H22" s="3">
-        <v>50600</v>
+        <v>51000</v>
       </c>
       <c r="I22" s="3">
-        <v>58200</v>
+        <v>58700</v>
       </c>
       <c r="J22" s="3">
-        <v>171000</v>
+        <v>172400</v>
       </c>
       <c r="K22" s="3">
         <v>65800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>447100</v>
+        <v>450700</v>
       </c>
       <c r="E23" s="3">
-        <v>-150700</v>
+        <v>-151900</v>
       </c>
       <c r="F23" s="3">
-        <v>942500</v>
+        <v>950100</v>
       </c>
       <c r="G23" s="3">
-        <v>275400</v>
+        <v>277600</v>
       </c>
       <c r="H23" s="3">
-        <v>210000</v>
+        <v>211700</v>
       </c>
       <c r="I23" s="3">
-        <v>215600</v>
+        <v>217300</v>
       </c>
       <c r="J23" s="3">
-        <v>148200</v>
+        <v>149400</v>
       </c>
       <c r="K23" s="3">
         <v>139200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72200</v>
+        <v>72800</v>
       </c>
       <c r="E24" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="F24" s="3">
-        <v>48900</v>
+        <v>49300</v>
       </c>
       <c r="G24" s="3">
-        <v>53800</v>
+        <v>54200</v>
       </c>
       <c r="H24" s="3">
-        <v>45800</v>
+        <v>46200</v>
       </c>
       <c r="I24" s="3">
-        <v>49000</v>
+        <v>49400</v>
       </c>
       <c r="J24" s="3">
-        <v>38200</v>
+        <v>38500</v>
       </c>
       <c r="K24" s="3">
         <v>44100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>374800</v>
+        <v>377900</v>
       </c>
       <c r="E26" s="3">
-        <v>-129800</v>
+        <v>-130900</v>
       </c>
       <c r="F26" s="3">
-        <v>893600</v>
+        <v>900800</v>
       </c>
       <c r="G26" s="3">
-        <v>221600</v>
+        <v>223400</v>
       </c>
       <c r="H26" s="3">
-        <v>164200</v>
+        <v>165500</v>
       </c>
       <c r="I26" s="3">
-        <v>166600</v>
+        <v>167900</v>
       </c>
       <c r="J26" s="3">
-        <v>110000</v>
+        <v>110900</v>
       </c>
       <c r="K26" s="3">
         <v>95200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>374800</v>
+        <v>377900</v>
       </c>
       <c r="E27" s="3">
-        <v>-129800</v>
+        <v>-130900</v>
       </c>
       <c r="F27" s="3">
-        <v>893600</v>
+        <v>900800</v>
       </c>
       <c r="G27" s="3">
-        <v>221600</v>
+        <v>223400</v>
       </c>
       <c r="H27" s="3">
-        <v>164200</v>
+        <v>165500</v>
       </c>
       <c r="I27" s="3">
-        <v>166900</v>
+        <v>168300</v>
       </c>
       <c r="J27" s="3">
-        <v>108400</v>
+        <v>109300</v>
       </c>
       <c r="K27" s="3">
         <v>92200</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>178800</v>
+        <v>180300</v>
       </c>
       <c r="J29" s="3">
-        <v>-58900</v>
+        <v>-59400</v>
       </c>
       <c r="K29" s="3">
         <v>-30600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="E32" s="3">
-        <v>-23200</v>
+        <v>-23400</v>
       </c>
       <c r="F32" s="3">
-        <v>-9200</v>
+        <v>-9300</v>
       </c>
       <c r="G32" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="H32" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="I32" s="3">
         <v>-6900</v>
       </c>
       <c r="J32" s="3">
-        <v>-105300</v>
+        <v>-106100</v>
       </c>
       <c r="K32" s="3">
         <v>-20600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>374800</v>
+        <v>377900</v>
       </c>
       <c r="E33" s="3">
-        <v>-129800</v>
+        <v>-130900</v>
       </c>
       <c r="F33" s="3">
-        <v>902100</v>
+        <v>909300</v>
       </c>
       <c r="G33" s="3">
-        <v>221600</v>
+        <v>223400</v>
       </c>
       <c r="H33" s="3">
-        <v>164200</v>
+        <v>165500</v>
       </c>
       <c r="I33" s="3">
-        <v>345800</v>
+        <v>348600</v>
       </c>
       <c r="J33" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="K33" s="3">
         <v>61500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>374800</v>
+        <v>377900</v>
       </c>
       <c r="E35" s="3">
-        <v>-129800</v>
+        <v>-130900</v>
       </c>
       <c r="F35" s="3">
-        <v>902100</v>
+        <v>909300</v>
       </c>
       <c r="G35" s="3">
-        <v>221600</v>
+        <v>223400</v>
       </c>
       <c r="H35" s="3">
-        <v>164200</v>
+        <v>165500</v>
       </c>
       <c r="I35" s="3">
-        <v>345800</v>
+        <v>348600</v>
       </c>
       <c r="J35" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="K35" s="3">
         <v>61500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>316300</v>
+        <v>318900</v>
       </c>
       <c r="E41" s="3">
-        <v>337300</v>
+        <v>340000</v>
       </c>
       <c r="F41" s="3">
-        <v>396600</v>
+        <v>399800</v>
       </c>
       <c r="G41" s="3">
-        <v>208900</v>
+        <v>210600</v>
       </c>
       <c r="H41" s="3">
-        <v>127700</v>
+        <v>128700</v>
       </c>
       <c r="I41" s="3">
-        <v>180800</v>
+        <v>182300</v>
       </c>
       <c r="J41" s="3">
-        <v>182500</v>
+        <v>184000</v>
       </c>
       <c r="K41" s="3">
         <v>207500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>94800</v>
+        <v>95600</v>
       </c>
       <c r="E42" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F42" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G42" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H42" s="3">
-        <v>138900</v>
+        <v>140100</v>
       </c>
       <c r="I42" s="3">
-        <v>147400</v>
+        <v>148600</v>
       </c>
       <c r="J42" s="3">
-        <v>393100</v>
+        <v>396200</v>
       </c>
       <c r="K42" s="3">
         <v>9200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>630800</v>
+        <v>635900</v>
       </c>
       <c r="E43" s="3">
-        <v>1261100</v>
+        <v>1271200</v>
       </c>
       <c r="F43" s="3">
-        <v>544300</v>
+        <v>548700</v>
       </c>
       <c r="G43" s="3">
-        <v>478100</v>
+        <v>482000</v>
       </c>
       <c r="H43" s="3">
-        <v>412200</v>
+        <v>415500</v>
       </c>
       <c r="I43" s="3">
-        <v>389600</v>
+        <v>392800</v>
       </c>
       <c r="J43" s="3">
-        <v>486600</v>
+        <v>490500</v>
       </c>
       <c r="K43" s="3">
         <v>1112300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="E44" s="3">
-        <v>272600</v>
+        <v>274800</v>
       </c>
       <c r="F44" s="3">
-        <v>111300</v>
+        <v>112200</v>
       </c>
       <c r="G44" s="3">
-        <v>105700</v>
+        <v>106500</v>
       </c>
       <c r="H44" s="3">
-        <v>73600</v>
+        <v>74200</v>
       </c>
       <c r="I44" s="3">
-        <v>77800</v>
+        <v>78400</v>
       </c>
       <c r="J44" s="3">
-        <v>84300</v>
+        <v>84900</v>
       </c>
       <c r="K44" s="3">
         <v>69800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="E45" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="F45" s="3">
-        <v>75400</v>
+        <v>76000</v>
       </c>
       <c r="G45" s="3">
-        <v>279500</v>
+        <v>281700</v>
       </c>
       <c r="H45" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="I45" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="J45" s="3">
-        <v>76700</v>
+        <v>77400</v>
       </c>
       <c r="K45" s="3">
         <v>115200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1222700</v>
+        <v>1232500</v>
       </c>
       <c r="E46" s="3">
-        <v>979400</v>
+        <v>987200</v>
       </c>
       <c r="F46" s="3">
-        <v>1141300</v>
+        <v>1150500</v>
       </c>
       <c r="G46" s="3">
-        <v>1087500</v>
+        <v>1096300</v>
       </c>
       <c r="H46" s="3">
-        <v>790800</v>
+        <v>797100</v>
       </c>
       <c r="I46" s="3">
-        <v>830100</v>
+        <v>836800</v>
       </c>
       <c r="J46" s="3">
-        <v>1223200</v>
+        <v>1233000</v>
       </c>
       <c r="K46" s="3">
         <v>899700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>142800</v>
+        <v>143900</v>
       </c>
       <c r="E47" s="3">
-        <v>480200</v>
+        <v>484100</v>
       </c>
       <c r="F47" s="3">
-        <v>382900</v>
+        <v>386000</v>
       </c>
       <c r="G47" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="H47" s="3">
-        <v>34700</v>
+        <v>35000</v>
       </c>
       <c r="I47" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="J47" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="K47" s="3">
         <v>123700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>809500</v>
+        <v>816000</v>
       </c>
       <c r="E48" s="3">
-        <v>1154100</v>
+        <v>1163400</v>
       </c>
       <c r="F48" s="3">
-        <v>515400</v>
+        <v>519500</v>
       </c>
       <c r="G48" s="3">
-        <v>549800</v>
+        <v>554300</v>
       </c>
       <c r="H48" s="3">
-        <v>630100</v>
+        <v>635200</v>
       </c>
       <c r="I48" s="3">
-        <v>667700</v>
+        <v>673000</v>
       </c>
       <c r="J48" s="3">
-        <v>715200</v>
+        <v>721000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2210200</v>
+        <v>2228000</v>
       </c>
       <c r="E49" s="3">
-        <v>3986400</v>
+        <v>4018400</v>
       </c>
       <c r="F49" s="3">
-        <v>1611600</v>
+        <v>1624600</v>
       </c>
       <c r="G49" s="3">
-        <v>1320300</v>
+        <v>1330900</v>
       </c>
       <c r="H49" s="3">
-        <v>1080800</v>
+        <v>1089500</v>
       </c>
       <c r="I49" s="3">
-        <v>569700</v>
+        <v>574200</v>
       </c>
       <c r="J49" s="3">
-        <v>561300</v>
+        <v>565800</v>
       </c>
       <c r="K49" s="3">
         <v>314500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98100</v>
+        <v>98900</v>
       </c>
       <c r="E52" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="F52" s="3">
-        <v>453400</v>
+        <v>457100</v>
       </c>
       <c r="G52" s="3">
-        <v>362800</v>
+        <v>365700</v>
       </c>
       <c r="H52" s="3">
-        <v>317500</v>
+        <v>320100</v>
       </c>
       <c r="I52" s="3">
-        <v>260300</v>
+        <v>262400</v>
       </c>
       <c r="J52" s="3">
-        <v>105700</v>
+        <v>106500</v>
       </c>
       <c r="K52" s="3">
         <v>235500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4483300</v>
+        <v>4519300</v>
       </c>
       <c r="E54" s="3">
-        <v>4070000</v>
+        <v>4102700</v>
       </c>
       <c r="F54" s="3">
-        <v>4104600</v>
+        <v>4137600</v>
       </c>
       <c r="G54" s="3">
-        <v>3358500</v>
+        <v>3385500</v>
       </c>
       <c r="H54" s="3">
-        <v>2854000</v>
+        <v>2876900</v>
       </c>
       <c r="I54" s="3">
-        <v>2362100</v>
+        <v>2381100</v>
       </c>
       <c r="J54" s="3">
-        <v>2633700</v>
+        <v>2654800</v>
       </c>
       <c r="K54" s="3">
         <v>2554900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>248200</v>
+        <v>250200</v>
       </c>
       <c r="E57" s="3">
-        <v>1039900</v>
+        <v>1048200</v>
       </c>
       <c r="F57" s="3">
-        <v>201200</v>
+        <v>202800</v>
       </c>
       <c r="G57" s="3">
-        <v>158200</v>
+        <v>159500</v>
       </c>
       <c r="H57" s="3">
-        <v>123100</v>
+        <v>124100</v>
       </c>
       <c r="I57" s="3">
-        <v>127500</v>
+        <v>128500</v>
       </c>
       <c r="J57" s="3">
-        <v>180600</v>
+        <v>182000</v>
       </c>
       <c r="K57" s="3">
         <v>728200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200500</v>
+        <v>202100</v>
       </c>
       <c r="E58" s="3">
-        <v>919000</v>
+        <v>926400</v>
       </c>
       <c r="F58" s="3">
-        <v>89800</v>
+        <v>90500</v>
       </c>
       <c r="G58" s="3">
-        <v>102200</v>
+        <v>103100</v>
       </c>
       <c r="H58" s="3">
-        <v>439300</v>
+        <v>442800</v>
       </c>
       <c r="I58" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J58" s="3">
-        <v>542600</v>
+        <v>546900</v>
       </c>
       <c r="K58" s="3">
         <v>78500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>760900</v>
+        <v>767000</v>
       </c>
       <c r="E59" s="3">
-        <v>727200</v>
+        <v>733100</v>
       </c>
       <c r="F59" s="3">
-        <v>651800</v>
+        <v>657000</v>
       </c>
       <c r="G59" s="3">
-        <v>637100</v>
+        <v>642300</v>
       </c>
       <c r="H59" s="3">
-        <v>563700</v>
+        <v>568200</v>
       </c>
       <c r="I59" s="3">
-        <v>537800</v>
+        <v>542100</v>
       </c>
       <c r="J59" s="3">
-        <v>652200</v>
+        <v>657400</v>
       </c>
       <c r="K59" s="3">
         <v>704300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1209600</v>
+        <v>1219300</v>
       </c>
       <c r="E60" s="3">
-        <v>1643900</v>
+        <v>1657100</v>
       </c>
       <c r="F60" s="3">
-        <v>942800</v>
+        <v>950400</v>
       </c>
       <c r="G60" s="3">
-        <v>897600</v>
+        <v>904800</v>
       </c>
       <c r="H60" s="3">
-        <v>1126100</v>
+        <v>1135200</v>
       </c>
       <c r="I60" s="3">
-        <v>681700</v>
+        <v>687100</v>
       </c>
       <c r="J60" s="3">
-        <v>1375300</v>
+        <v>1386400</v>
       </c>
       <c r="K60" s="3">
         <v>975800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1590200</v>
+        <v>1603000</v>
       </c>
       <c r="E61" s="3">
-        <v>982800</v>
+        <v>990700</v>
       </c>
       <c r="F61" s="3">
-        <v>1541200</v>
+        <v>1553600</v>
       </c>
       <c r="G61" s="3">
-        <v>1664700</v>
+        <v>1678100</v>
       </c>
       <c r="H61" s="3">
-        <v>1143000</v>
+        <v>1152200</v>
       </c>
       <c r="I61" s="3">
-        <v>1289200</v>
+        <v>1299600</v>
       </c>
       <c r="J61" s="3">
-        <v>1350500</v>
+        <v>1361400</v>
       </c>
       <c r="K61" s="3">
         <v>1449000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>359700</v>
+        <v>362500</v>
       </c>
       <c r="E62" s="3">
-        <v>343700</v>
+        <v>346400</v>
       </c>
       <c r="F62" s="3">
-        <v>387000</v>
+        <v>390100</v>
       </c>
       <c r="G62" s="3">
-        <v>319800</v>
+        <v>322300</v>
       </c>
       <c r="H62" s="3">
-        <v>304700</v>
+        <v>307200</v>
       </c>
       <c r="I62" s="3">
-        <v>259100</v>
+        <v>261200</v>
       </c>
       <c r="J62" s="3">
-        <v>214200</v>
+        <v>216000</v>
       </c>
       <c r="K62" s="3">
         <v>310700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3160300</v>
+        <v>3185600</v>
       </c>
       <c r="E66" s="3">
-        <v>2970900</v>
+        <v>2994700</v>
       </c>
       <c r="F66" s="3">
-        <v>2871400</v>
+        <v>2894500</v>
       </c>
       <c r="G66" s="3">
-        <v>2882200</v>
+        <v>2905400</v>
       </c>
       <c r="H66" s="3">
-        <v>2573600</v>
+        <v>2594200</v>
       </c>
       <c r="I66" s="3">
-        <v>2229800</v>
+        <v>2247700</v>
       </c>
       <c r="J66" s="3">
-        <v>2940200</v>
+        <v>2963800</v>
       </c>
       <c r="K66" s="3">
         <v>2728000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1494900</v>
+        <v>1506900</v>
       </c>
       <c r="E72" s="3">
-        <v>1213700</v>
+        <v>1223400</v>
       </c>
       <c r="F72" s="3">
-        <v>1380000</v>
+        <v>1391000</v>
       </c>
       <c r="G72" s="3">
-        <v>510700</v>
+        <v>514900</v>
       </c>
       <c r="H72" s="3">
-        <v>322000</v>
+        <v>324600</v>
       </c>
       <c r="I72" s="3">
-        <v>178200</v>
+        <v>179600</v>
       </c>
       <c r="J72" s="3">
-        <v>-236700</v>
+        <v>-238600</v>
       </c>
       <c r="K72" s="3">
         <v>1905900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1323000</v>
+        <v>1333700</v>
       </c>
       <c r="E76" s="3">
-        <v>1099200</v>
+        <v>1108000</v>
       </c>
       <c r="F76" s="3">
-        <v>1233200</v>
+        <v>1243100</v>
       </c>
       <c r="G76" s="3">
-        <v>476300</v>
+        <v>480100</v>
       </c>
       <c r="H76" s="3">
-        <v>280400</v>
+        <v>282700</v>
       </c>
       <c r="I76" s="3">
-        <v>132300</v>
+        <v>133400</v>
       </c>
       <c r="J76" s="3">
-        <v>-306600</v>
+        <v>-309000</v>
       </c>
       <c r="K76" s="3">
         <v>-173100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>374800</v>
+        <v>377900</v>
       </c>
       <c r="E81" s="3">
-        <v>-129800</v>
+        <v>-130900</v>
       </c>
       <c r="F81" s="3">
-        <v>902100</v>
+        <v>909300</v>
       </c>
       <c r="G81" s="3">
-        <v>221600</v>
+        <v>223400</v>
       </c>
       <c r="H81" s="3">
-        <v>164200</v>
+        <v>165500</v>
       </c>
       <c r="I81" s="3">
-        <v>345800</v>
+        <v>348600</v>
       </c>
       <c r="J81" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="K81" s="3">
         <v>61500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>402800</v>
+        <v>406100</v>
       </c>
       <c r="E83" s="3">
-        <v>275600</v>
+        <v>277900</v>
       </c>
       <c r="F83" s="3">
-        <v>265300</v>
+        <v>267500</v>
       </c>
       <c r="G83" s="3">
-        <v>322400</v>
+        <v>325000</v>
       </c>
       <c r="H83" s="3">
-        <v>270100</v>
+        <v>272300</v>
       </c>
       <c r="I83" s="3">
-        <v>277200</v>
+        <v>279500</v>
       </c>
       <c r="J83" s="3">
-        <v>306700</v>
+        <v>309200</v>
       </c>
       <c r="K83" s="3">
         <v>295100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>611400</v>
+        <v>616300</v>
       </c>
       <c r="E89" s="3">
-        <v>480200</v>
+        <v>484100</v>
       </c>
       <c r="F89" s="3">
-        <v>501600</v>
+        <v>505700</v>
       </c>
       <c r="G89" s="3">
-        <v>478800</v>
+        <v>482600</v>
       </c>
       <c r="H89" s="3">
-        <v>422700</v>
+        <v>426000</v>
       </c>
       <c r="I89" s="3">
-        <v>354200</v>
+        <v>357100</v>
       </c>
       <c r="J89" s="3">
-        <v>327400</v>
+        <v>330100</v>
       </c>
       <c r="K89" s="3">
         <v>343800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-185000</v>
+        <v>-186500</v>
       </c>
       <c r="E91" s="3">
-        <v>-194400</v>
+        <v>-196000</v>
       </c>
       <c r="F91" s="3">
-        <v>-230200</v>
+        <v>-232100</v>
       </c>
       <c r="G91" s="3">
-        <v>-245900</v>
+        <v>-247900</v>
       </c>
       <c r="H91" s="3">
-        <v>-210300</v>
+        <v>-212000</v>
       </c>
       <c r="I91" s="3">
-        <v>-228600</v>
+        <v>-230500</v>
       </c>
       <c r="J91" s="3">
-        <v>-265600</v>
+        <v>-267700</v>
       </c>
       <c r="K91" s="3">
         <v>-236200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80700</v>
+        <v>-81300</v>
       </c>
       <c r="E94" s="3">
-        <v>-603300</v>
+        <v>-608200</v>
       </c>
       <c r="F94" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="G94" s="3">
-        <v>-395600</v>
+        <v>-398800</v>
       </c>
       <c r="H94" s="3">
-        <v>-702500</v>
+        <v>-708200</v>
       </c>
       <c r="I94" s="3">
         <v>1200</v>
       </c>
       <c r="J94" s="3">
-        <v>-302900</v>
+        <v>-305300</v>
       </c>
       <c r="K94" s="3">
         <v>-347400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-113300</v>
+        <v>-114200</v>
       </c>
       <c r="E96" s="3">
-        <v>-98000</v>
+        <v>-98800</v>
       </c>
       <c r="F96" s="3">
-        <v>-84900</v>
+        <v>-85600</v>
       </c>
       <c r="G96" s="3">
-        <v>-73300</v>
+        <v>-73900</v>
       </c>
       <c r="H96" s="3">
-        <v>-64600</v>
+        <v>-65100</v>
       </c>
       <c r="I96" s="3">
-        <v>-57100</v>
+        <v>-57500</v>
       </c>
       <c r="J96" s="3">
-        <v>-51000</v>
+        <v>-51400</v>
       </c>
       <c r="K96" s="3">
         <v>-46800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-292300</v>
+        <v>-294600</v>
       </c>
       <c r="E100" s="3">
-        <v>-152800</v>
+        <v>-154000</v>
       </c>
       <c r="F100" s="3">
-        <v>-217400</v>
+        <v>-219100</v>
       </c>
       <c r="G100" s="3">
-        <v>-90100</v>
+        <v>-90800</v>
       </c>
       <c r="H100" s="3">
-        <v>163600</v>
+        <v>165000</v>
       </c>
       <c r="I100" s="3">
-        <v>-269400</v>
+        <v>-271600</v>
       </c>
       <c r="J100" s="3">
-        <v>-128100</v>
+        <v>-129100</v>
       </c>
       <c r="K100" s="3">
         <v>197800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="E101" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F101" s="3">
         <v>-3300</v>
       </c>
       <c r="G101" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="I101" s="3">
-        <v>-19000</v>
+        <v>-19200</v>
       </c>
       <c r="J101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K101" s="3">
         <v>-3000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>228500</v>
+        <v>230300</v>
       </c>
       <c r="E102" s="3">
-        <v>-268400</v>
+        <v>-270500</v>
       </c>
       <c r="F102" s="3">
-        <v>261800</v>
+        <v>263900</v>
       </c>
       <c r="G102" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H102" s="3">
-        <v>-123600</v>
+        <v>-124600</v>
       </c>
       <c r="I102" s="3">
-        <v>67000</v>
+        <v>67500</v>
       </c>
       <c r="J102" s="3">
-        <v>-99700</v>
+        <v>-100500</v>
       </c>
       <c r="K102" s="3">
         <v>191200</v>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3614000</v>
+        <v>3727400</v>
       </c>
       <c r="E8" s="3">
-        <v>3291600</v>
+        <v>3394900</v>
       </c>
       <c r="F8" s="3">
-        <v>3211700</v>
+        <v>3312500</v>
       </c>
       <c r="G8" s="3">
-        <v>2886600</v>
+        <v>2977200</v>
       </c>
       <c r="H8" s="3">
-        <v>2341900</v>
+        <v>2415400</v>
       </c>
       <c r="I8" s="3">
-        <v>2317700</v>
+        <v>2390400</v>
       </c>
       <c r="J8" s="3">
-        <v>2385100</v>
+        <v>2459900</v>
       </c>
       <c r="K8" s="3">
         <v>2878700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>753200</v>
+        <v>776800</v>
       </c>
       <c r="E9" s="3">
-        <v>681500</v>
+        <v>702900</v>
       </c>
       <c r="F9" s="3">
-        <v>630600</v>
+        <v>650300</v>
       </c>
       <c r="G9" s="3">
-        <v>499500</v>
+        <v>515200</v>
       </c>
       <c r="H9" s="3">
-        <v>410100</v>
+        <v>422900</v>
       </c>
       <c r="I9" s="3">
-        <v>126100</v>
+        <v>130000</v>
       </c>
       <c r="J9" s="3">
-        <v>116200</v>
+        <v>119900</v>
       </c>
       <c r="K9" s="3">
         <v>1670800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2860800</v>
+        <v>2950600</v>
       </c>
       <c r="E10" s="3">
-        <v>2610100</v>
+        <v>2692000</v>
       </c>
       <c r="F10" s="3">
-        <v>2581200</v>
+        <v>2662200</v>
       </c>
       <c r="G10" s="3">
-        <v>2387100</v>
+        <v>2462000</v>
       </c>
       <c r="H10" s="3">
-        <v>1931900</v>
+        <v>1992500</v>
       </c>
       <c r="I10" s="3">
-        <v>2191600</v>
+        <v>2260400</v>
       </c>
       <c r="J10" s="3">
-        <v>2268800</v>
+        <v>2340100</v>
       </c>
       <c r="K10" s="3">
         <v>1207900</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="3">
         <v>2300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-101900</v>
+        <v>-105000</v>
       </c>
       <c r="E14" s="3">
-        <v>494600</v>
+        <v>510100</v>
       </c>
       <c r="F14" s="3">
-        <v>-576100</v>
+        <v>-594200</v>
       </c>
       <c r="G14" s="3">
-        <v>22000</v>
+        <v>22700</v>
       </c>
       <c r="H14" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="I14" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="J14" s="3">
-        <v>83300</v>
+        <v>86000</v>
       </c>
       <c r="K14" s="3">
         <v>181800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>294400</v>
+        <v>303600</v>
       </c>
       <c r="E15" s="3">
-        <v>277200</v>
+        <v>285900</v>
       </c>
       <c r="F15" s="3">
-        <v>264500</v>
+        <v>272900</v>
       </c>
       <c r="G15" s="3">
-        <v>325100</v>
+        <v>335300</v>
       </c>
       <c r="H15" s="3">
-        <v>282100</v>
+        <v>291000</v>
       </c>
       <c r="I15" s="3">
-        <v>276400</v>
+        <v>285100</v>
       </c>
       <c r="J15" s="3">
-        <v>297700</v>
+        <v>307000</v>
       </c>
       <c r="K15" s="3">
         <v>515800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3122100</v>
+        <v>3220100</v>
       </c>
       <c r="E17" s="3">
-        <v>3419600</v>
+        <v>3526900</v>
       </c>
       <c r="F17" s="3">
-        <v>2224600</v>
+        <v>2294500</v>
       </c>
       <c r="G17" s="3">
-        <v>2577200</v>
+        <v>2658100</v>
       </c>
       <c r="H17" s="3">
-        <v>2091900</v>
+        <v>2157600</v>
       </c>
       <c r="I17" s="3">
-        <v>2048600</v>
+        <v>2112900</v>
       </c>
       <c r="J17" s="3">
-        <v>2169400</v>
+        <v>2237500</v>
       </c>
       <c r="K17" s="3">
         <v>2694200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>491800</v>
+        <v>507300</v>
       </c>
       <c r="E18" s="3">
-        <v>-127900</v>
+        <v>-132000</v>
       </c>
       <c r="F18" s="3">
-        <v>987100</v>
+        <v>1018100</v>
       </c>
       <c r="G18" s="3">
-        <v>309400</v>
+        <v>319100</v>
       </c>
       <c r="H18" s="3">
-        <v>250000</v>
+        <v>257900</v>
       </c>
       <c r="I18" s="3">
-        <v>269100</v>
+        <v>277500</v>
       </c>
       <c r="J18" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="K18" s="3">
         <v>184500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>23400</v>
+        <v>24200</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="G20" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="H20" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="I20" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="J20" s="3">
-        <v>106100</v>
+        <v>109400</v>
       </c>
       <c r="K20" s="3">
         <v>20600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>908900</v>
+        <v>934600</v>
       </c>
       <c r="E21" s="3">
-        <v>174200</v>
+        <v>177800</v>
       </c>
       <c r="F21" s="3">
-        <v>1264700</v>
+        <v>1302600</v>
       </c>
       <c r="G21" s="3">
-        <v>654900</v>
+        <v>673200</v>
       </c>
       <c r="H21" s="3">
-        <v>535800</v>
+        <v>550700</v>
       </c>
       <c r="I21" s="3">
-        <v>556300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>631900</v>
+        <v>571900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>501800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50900</v>
+        <v>52500</v>
       </c>
       <c r="E22" s="3">
-        <v>47400</v>
+        <v>48900</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>47800</v>
       </c>
       <c r="G22" s="3">
-        <v>51300</v>
+        <v>52900</v>
       </c>
       <c r="H22" s="3">
-        <v>51000</v>
+        <v>52600</v>
       </c>
       <c r="I22" s="3">
-        <v>58700</v>
+        <v>60600</v>
       </c>
       <c r="J22" s="3">
-        <v>172400</v>
+        <v>177800</v>
       </c>
       <c r="K22" s="3">
         <v>65800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>450700</v>
+        <v>464800</v>
       </c>
       <c r="E23" s="3">
-        <v>-151900</v>
+        <v>-156700</v>
       </c>
       <c r="F23" s="3">
-        <v>950100</v>
+        <v>979900</v>
       </c>
       <c r="G23" s="3">
-        <v>277600</v>
+        <v>286300</v>
       </c>
       <c r="H23" s="3">
-        <v>211700</v>
+        <v>218300</v>
       </c>
       <c r="I23" s="3">
-        <v>217300</v>
+        <v>224100</v>
       </c>
       <c r="J23" s="3">
-        <v>149400</v>
+        <v>154100</v>
       </c>
       <c r="K23" s="3">
         <v>139200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72800</v>
+        <v>75100</v>
       </c>
       <c r="E24" s="3">
-        <v>-21000</v>
+        <v>-21700</v>
       </c>
       <c r="F24" s="3">
-        <v>49300</v>
+        <v>50800</v>
       </c>
       <c r="G24" s="3">
-        <v>54200</v>
+        <v>55900</v>
       </c>
       <c r="H24" s="3">
-        <v>46200</v>
+        <v>47600</v>
       </c>
       <c r="I24" s="3">
-        <v>49400</v>
+        <v>50900</v>
       </c>
       <c r="J24" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="K24" s="3">
         <v>44100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>377900</v>
+        <v>389700</v>
       </c>
       <c r="E26" s="3">
-        <v>-130900</v>
+        <v>-135000</v>
       </c>
       <c r="F26" s="3">
-        <v>900800</v>
+        <v>929100</v>
       </c>
       <c r="G26" s="3">
-        <v>223400</v>
+        <v>230400</v>
       </c>
       <c r="H26" s="3">
-        <v>165500</v>
+        <v>170700</v>
       </c>
       <c r="I26" s="3">
-        <v>167900</v>
+        <v>173200</v>
       </c>
       <c r="J26" s="3">
-        <v>110900</v>
+        <v>114400</v>
       </c>
       <c r="K26" s="3">
         <v>95200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>377900</v>
+        <v>389700</v>
       </c>
       <c r="E27" s="3">
-        <v>-130900</v>
+        <v>-135000</v>
       </c>
       <c r="F27" s="3">
-        <v>900800</v>
+        <v>929100</v>
       </c>
       <c r="G27" s="3">
-        <v>223400</v>
+        <v>230400</v>
       </c>
       <c r="H27" s="3">
-        <v>165500</v>
+        <v>170700</v>
       </c>
       <c r="I27" s="3">
-        <v>168300</v>
+        <v>173600</v>
       </c>
       <c r="J27" s="3">
-        <v>109300</v>
+        <v>112700</v>
       </c>
       <c r="K27" s="3">
         <v>92200</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>180300</v>
+        <v>185900</v>
       </c>
       <c r="J29" s="3">
-        <v>-59400</v>
+        <v>-61200</v>
       </c>
       <c r="K29" s="3">
         <v>-30600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>-23400</v>
+        <v>-24200</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="G32" s="3">
-        <v>-19400</v>
+        <v>-20000</v>
       </c>
       <c r="H32" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="I32" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="J32" s="3">
-        <v>-106100</v>
+        <v>-109400</v>
       </c>
       <c r="K32" s="3">
         <v>-20600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>377900</v>
+        <v>389700</v>
       </c>
       <c r="E33" s="3">
-        <v>-130900</v>
+        <v>-135000</v>
       </c>
       <c r="F33" s="3">
-        <v>909300</v>
+        <v>937900</v>
       </c>
       <c r="G33" s="3">
-        <v>223400</v>
+        <v>230400</v>
       </c>
       <c r="H33" s="3">
-        <v>165500</v>
+        <v>170700</v>
       </c>
       <c r="I33" s="3">
-        <v>348600</v>
+        <v>359500</v>
       </c>
       <c r="J33" s="3">
-        <v>49900</v>
+        <v>51500</v>
       </c>
       <c r="K33" s="3">
         <v>61500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>377900</v>
+        <v>389700</v>
       </c>
       <c r="E35" s="3">
-        <v>-130900</v>
+        <v>-135000</v>
       </c>
       <c r="F35" s="3">
-        <v>909300</v>
+        <v>937900</v>
       </c>
       <c r="G35" s="3">
-        <v>223400</v>
+        <v>230400</v>
       </c>
       <c r="H35" s="3">
-        <v>165500</v>
+        <v>170700</v>
       </c>
       <c r="I35" s="3">
-        <v>348600</v>
+        <v>359500</v>
       </c>
       <c r="J35" s="3">
-        <v>49900</v>
+        <v>51500</v>
       </c>
       <c r="K35" s="3">
         <v>61500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>318900</v>
+        <v>328900</v>
       </c>
       <c r="E41" s="3">
-        <v>340000</v>
+        <v>350700</v>
       </c>
       <c r="F41" s="3">
-        <v>399800</v>
+        <v>412400</v>
       </c>
       <c r="G41" s="3">
-        <v>210600</v>
+        <v>217200</v>
       </c>
       <c r="H41" s="3">
-        <v>128700</v>
+        <v>132800</v>
       </c>
       <c r="I41" s="3">
-        <v>182300</v>
+        <v>188000</v>
       </c>
       <c r="J41" s="3">
-        <v>184000</v>
+        <v>189800</v>
       </c>
       <c r="K41" s="3">
         <v>207500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95600</v>
+        <v>98600</v>
       </c>
       <c r="E42" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="F42" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="G42" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="H42" s="3">
-        <v>140100</v>
+        <v>144500</v>
       </c>
       <c r="I42" s="3">
-        <v>148600</v>
+        <v>153200</v>
       </c>
       <c r="J42" s="3">
-        <v>396200</v>
+        <v>408700</v>
       </c>
       <c r="K42" s="3">
         <v>9200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>635900</v>
+        <v>655800</v>
       </c>
       <c r="E43" s="3">
-        <v>1271200</v>
+        <v>1311100</v>
       </c>
       <c r="F43" s="3">
-        <v>548700</v>
+        <v>565900</v>
       </c>
       <c r="G43" s="3">
-        <v>482000</v>
+        <v>497100</v>
       </c>
       <c r="H43" s="3">
-        <v>415500</v>
+        <v>428600</v>
       </c>
       <c r="I43" s="3">
-        <v>392800</v>
+        <v>405100</v>
       </c>
       <c r="J43" s="3">
-        <v>490500</v>
+        <v>505900</v>
       </c>
       <c r="K43" s="3">
         <v>1112300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>141800</v>
+        <v>146200</v>
       </c>
       <c r="E44" s="3">
-        <v>274800</v>
+        <v>283400</v>
       </c>
       <c r="F44" s="3">
-        <v>112200</v>
+        <v>115800</v>
       </c>
       <c r="G44" s="3">
-        <v>106500</v>
+        <v>109900</v>
       </c>
       <c r="H44" s="3">
-        <v>74200</v>
+        <v>76500</v>
       </c>
       <c r="I44" s="3">
-        <v>78400</v>
+        <v>80900</v>
       </c>
       <c r="J44" s="3">
-        <v>84900</v>
+        <v>87600</v>
       </c>
       <c r="K44" s="3">
         <v>69800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40300</v>
+        <v>41600</v>
       </c>
       <c r="E45" s="3">
-        <v>49100</v>
+        <v>50700</v>
       </c>
       <c r="F45" s="3">
-        <v>76000</v>
+        <v>78400</v>
       </c>
       <c r="G45" s="3">
-        <v>281700</v>
+        <v>290600</v>
       </c>
       <c r="H45" s="3">
-        <v>38600</v>
+        <v>39800</v>
       </c>
       <c r="I45" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="J45" s="3">
-        <v>77400</v>
+        <v>79800</v>
       </c>
       <c r="K45" s="3">
         <v>115200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1232500</v>
+        <v>1271200</v>
       </c>
       <c r="E46" s="3">
-        <v>987200</v>
+        <v>1018200</v>
       </c>
       <c r="F46" s="3">
-        <v>1150500</v>
+        <v>1186600</v>
       </c>
       <c r="G46" s="3">
-        <v>1096300</v>
+        <v>1130700</v>
       </c>
       <c r="H46" s="3">
-        <v>797100</v>
+        <v>822100</v>
       </c>
       <c r="I46" s="3">
-        <v>836800</v>
+        <v>863000</v>
       </c>
       <c r="J46" s="3">
-        <v>1233000</v>
+        <v>1271700</v>
       </c>
       <c r="K46" s="3">
         <v>899700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>143900</v>
+        <v>148400</v>
       </c>
       <c r="E47" s="3">
-        <v>484100</v>
+        <v>499300</v>
       </c>
       <c r="F47" s="3">
-        <v>386000</v>
+        <v>398100</v>
       </c>
       <c r="G47" s="3">
-        <v>38300</v>
+        <v>39500</v>
       </c>
       <c r="H47" s="3">
-        <v>35000</v>
+        <v>36100</v>
       </c>
       <c r="I47" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="J47" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="K47" s="3">
         <v>123700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>816000</v>
+        <v>841600</v>
       </c>
       <c r="E48" s="3">
-        <v>1163400</v>
+        <v>1199900</v>
       </c>
       <c r="F48" s="3">
-        <v>519500</v>
+        <v>535800</v>
       </c>
       <c r="G48" s="3">
-        <v>554300</v>
+        <v>571700</v>
       </c>
       <c r="H48" s="3">
-        <v>635200</v>
+        <v>655100</v>
       </c>
       <c r="I48" s="3">
-        <v>673000</v>
+        <v>694100</v>
       </c>
       <c r="J48" s="3">
-        <v>721000</v>
+        <v>743600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2228000</v>
+        <v>2297900</v>
       </c>
       <c r="E49" s="3">
-        <v>4018400</v>
+        <v>4144600</v>
       </c>
       <c r="F49" s="3">
-        <v>1624600</v>
+        <v>1675600</v>
       </c>
       <c r="G49" s="3">
-        <v>1330900</v>
+        <v>1372600</v>
       </c>
       <c r="H49" s="3">
-        <v>1089500</v>
+        <v>1123700</v>
       </c>
       <c r="I49" s="3">
-        <v>574200</v>
+        <v>592300</v>
       </c>
       <c r="J49" s="3">
-        <v>565800</v>
+        <v>583600</v>
       </c>
       <c r="K49" s="3">
         <v>314500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98900</v>
+        <v>102000</v>
       </c>
       <c r="E52" s="3">
-        <v>40500</v>
+        <v>41700</v>
       </c>
       <c r="F52" s="3">
-        <v>457100</v>
+        <v>471400</v>
       </c>
       <c r="G52" s="3">
-        <v>365700</v>
+        <v>377200</v>
       </c>
       <c r="H52" s="3">
-        <v>320100</v>
+        <v>330100</v>
       </c>
       <c r="I52" s="3">
-        <v>262400</v>
+        <v>270700</v>
       </c>
       <c r="J52" s="3">
-        <v>106500</v>
+        <v>109900</v>
       </c>
       <c r="K52" s="3">
         <v>235500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4519300</v>
+        <v>4661200</v>
       </c>
       <c r="E54" s="3">
-        <v>4102700</v>
+        <v>4231500</v>
       </c>
       <c r="F54" s="3">
-        <v>4137600</v>
+        <v>4267500</v>
       </c>
       <c r="G54" s="3">
-        <v>3385500</v>
+        <v>3491700</v>
       </c>
       <c r="H54" s="3">
-        <v>2876900</v>
+        <v>2967200</v>
       </c>
       <c r="I54" s="3">
-        <v>2381100</v>
+        <v>2455800</v>
       </c>
       <c r="J54" s="3">
-        <v>2654800</v>
+        <v>2738100</v>
       </c>
       <c r="K54" s="3">
         <v>2554900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>250200</v>
+        <v>258000</v>
       </c>
       <c r="E57" s="3">
-        <v>1048200</v>
+        <v>1081100</v>
       </c>
       <c r="F57" s="3">
-        <v>202800</v>
+        <v>209100</v>
       </c>
       <c r="G57" s="3">
-        <v>159500</v>
+        <v>164500</v>
       </c>
       <c r="H57" s="3">
-        <v>124100</v>
+        <v>128000</v>
       </c>
       <c r="I57" s="3">
-        <v>128500</v>
+        <v>132500</v>
       </c>
       <c r="J57" s="3">
-        <v>182000</v>
+        <v>187700</v>
       </c>
       <c r="K57" s="3">
         <v>728200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>202100</v>
+        <v>208500</v>
       </c>
       <c r="E58" s="3">
-        <v>926400</v>
+        <v>955500</v>
       </c>
       <c r="F58" s="3">
-        <v>90500</v>
+        <v>93400</v>
       </c>
       <c r="G58" s="3">
-        <v>103100</v>
+        <v>106300</v>
       </c>
       <c r="H58" s="3">
-        <v>442800</v>
+        <v>456700</v>
       </c>
       <c r="I58" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="J58" s="3">
-        <v>546900</v>
+        <v>564100</v>
       </c>
       <c r="K58" s="3">
         <v>78500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>767000</v>
+        <v>791100</v>
       </c>
       <c r="E59" s="3">
-        <v>733100</v>
+        <v>756100</v>
       </c>
       <c r="F59" s="3">
-        <v>657000</v>
+        <v>677700</v>
       </c>
       <c r="G59" s="3">
-        <v>642300</v>
+        <v>662400</v>
       </c>
       <c r="H59" s="3">
-        <v>568200</v>
+        <v>586100</v>
       </c>
       <c r="I59" s="3">
-        <v>542100</v>
+        <v>559200</v>
       </c>
       <c r="J59" s="3">
-        <v>657400</v>
+        <v>678100</v>
       </c>
       <c r="K59" s="3">
         <v>704300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1219300</v>
+        <v>1257600</v>
       </c>
       <c r="E60" s="3">
-        <v>1657100</v>
+        <v>1709100</v>
       </c>
       <c r="F60" s="3">
-        <v>950400</v>
+        <v>980200</v>
       </c>
       <c r="G60" s="3">
-        <v>904800</v>
+        <v>933200</v>
       </c>
       <c r="H60" s="3">
-        <v>1135200</v>
+        <v>1170800</v>
       </c>
       <c r="I60" s="3">
-        <v>687100</v>
+        <v>708700</v>
       </c>
       <c r="J60" s="3">
-        <v>1386400</v>
+        <v>1429900</v>
       </c>
       <c r="K60" s="3">
         <v>975800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1603000</v>
+        <v>1653300</v>
       </c>
       <c r="E61" s="3">
-        <v>990700</v>
+        <v>1021800</v>
       </c>
       <c r="F61" s="3">
-        <v>1553600</v>
+        <v>1602400</v>
       </c>
       <c r="G61" s="3">
-        <v>1678100</v>
+        <v>1730800</v>
       </c>
       <c r="H61" s="3">
-        <v>1152200</v>
+        <v>1188400</v>
       </c>
       <c r="I61" s="3">
-        <v>1299600</v>
+        <v>1340400</v>
       </c>
       <c r="J61" s="3">
-        <v>1361400</v>
+        <v>1404100</v>
       </c>
       <c r="K61" s="3">
         <v>1449000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>362500</v>
+        <v>373900</v>
       </c>
       <c r="E62" s="3">
-        <v>346400</v>
+        <v>357300</v>
       </c>
       <c r="F62" s="3">
-        <v>390100</v>
+        <v>402300</v>
       </c>
       <c r="G62" s="3">
-        <v>322300</v>
+        <v>332400</v>
       </c>
       <c r="H62" s="3">
-        <v>307200</v>
+        <v>316800</v>
       </c>
       <c r="I62" s="3">
-        <v>261200</v>
+        <v>269400</v>
       </c>
       <c r="J62" s="3">
-        <v>216000</v>
+        <v>222700</v>
       </c>
       <c r="K62" s="3">
         <v>310700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3185600</v>
+        <v>3285600</v>
       </c>
       <c r="E66" s="3">
-        <v>2994700</v>
+        <v>3088700</v>
       </c>
       <c r="F66" s="3">
-        <v>2894500</v>
+        <v>2985300</v>
       </c>
       <c r="G66" s="3">
-        <v>2905400</v>
+        <v>2996600</v>
       </c>
       <c r="H66" s="3">
-        <v>2594200</v>
+        <v>2675700</v>
       </c>
       <c r="I66" s="3">
-        <v>2247700</v>
+        <v>2318200</v>
       </c>
       <c r="J66" s="3">
-        <v>2963800</v>
+        <v>3056900</v>
       </c>
       <c r="K66" s="3">
         <v>2728000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1506900</v>
+        <v>1554200</v>
       </c>
       <c r="E72" s="3">
-        <v>1223400</v>
+        <v>1261800</v>
       </c>
       <c r="F72" s="3">
-        <v>1391000</v>
+        <v>1434700</v>
       </c>
       <c r="G72" s="3">
-        <v>514900</v>
+        <v>531000</v>
       </c>
       <c r="H72" s="3">
-        <v>324600</v>
+        <v>334800</v>
       </c>
       <c r="I72" s="3">
-        <v>179600</v>
+        <v>185200</v>
       </c>
       <c r="J72" s="3">
-        <v>-238600</v>
+        <v>-246100</v>
       </c>
       <c r="K72" s="3">
         <v>1905900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1333700</v>
+        <v>1375500</v>
       </c>
       <c r="E76" s="3">
-        <v>1108000</v>
+        <v>1142800</v>
       </c>
       <c r="F76" s="3">
-        <v>1243100</v>
+        <v>1282100</v>
       </c>
       <c r="G76" s="3">
-        <v>480100</v>
+        <v>495200</v>
       </c>
       <c r="H76" s="3">
-        <v>282700</v>
+        <v>291500</v>
       </c>
       <c r="I76" s="3">
-        <v>133400</v>
+        <v>137600</v>
       </c>
       <c r="J76" s="3">
-        <v>-309000</v>
+        <v>-318700</v>
       </c>
       <c r="K76" s="3">
         <v>-173100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>377900</v>
+        <v>389700</v>
       </c>
       <c r="E81" s="3">
-        <v>-130900</v>
+        <v>-135000</v>
       </c>
       <c r="F81" s="3">
-        <v>909300</v>
+        <v>937900</v>
       </c>
       <c r="G81" s="3">
-        <v>223400</v>
+        <v>230400</v>
       </c>
       <c r="H81" s="3">
-        <v>165500</v>
+        <v>170700</v>
       </c>
       <c r="I81" s="3">
-        <v>348600</v>
+        <v>359500</v>
       </c>
       <c r="J81" s="3">
-        <v>49900</v>
+        <v>51500</v>
       </c>
       <c r="K81" s="3">
         <v>61500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>406100</v>
+        <v>418800</v>
       </c>
       <c r="E83" s="3">
-        <v>277900</v>
+        <v>286600</v>
       </c>
       <c r="F83" s="3">
-        <v>267500</v>
+        <v>275900</v>
       </c>
       <c r="G83" s="3">
-        <v>325000</v>
+        <v>335200</v>
       </c>
       <c r="H83" s="3">
-        <v>272300</v>
+        <v>280800</v>
       </c>
       <c r="I83" s="3">
-        <v>279500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>309200</v>
+        <v>288200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>295100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>616300</v>
+        <v>635600</v>
       </c>
       <c r="E89" s="3">
-        <v>484100</v>
+        <v>499300</v>
       </c>
       <c r="F89" s="3">
-        <v>505700</v>
+        <v>521500</v>
       </c>
       <c r="G89" s="3">
-        <v>482600</v>
+        <v>497800</v>
       </c>
       <c r="H89" s="3">
-        <v>426000</v>
+        <v>439400</v>
       </c>
       <c r="I89" s="3">
-        <v>357100</v>
+        <v>368300</v>
       </c>
       <c r="J89" s="3">
-        <v>330100</v>
+        <v>340400</v>
       </c>
       <c r="K89" s="3">
         <v>343800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-186500</v>
+        <v>-192400</v>
       </c>
       <c r="E91" s="3">
-        <v>-196000</v>
+        <v>-202100</v>
       </c>
       <c r="F91" s="3">
-        <v>-232100</v>
+        <v>-239300</v>
       </c>
       <c r="G91" s="3">
-        <v>-247900</v>
+        <v>-255700</v>
       </c>
       <c r="H91" s="3">
-        <v>-212000</v>
+        <v>-218600</v>
       </c>
       <c r="I91" s="3">
-        <v>-230500</v>
+        <v>-237700</v>
       </c>
       <c r="J91" s="3">
-        <v>-267700</v>
+        <v>-276100</v>
       </c>
       <c r="K91" s="3">
         <v>-236200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81300</v>
+        <v>-83900</v>
       </c>
       <c r="E94" s="3">
-        <v>-608200</v>
+        <v>-627300</v>
       </c>
       <c r="F94" s="3">
-        <v>-19300</v>
+        <v>-19900</v>
       </c>
       <c r="G94" s="3">
-        <v>-398800</v>
+        <v>-411300</v>
       </c>
       <c r="H94" s="3">
-        <v>-708200</v>
+        <v>-730400</v>
       </c>
       <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
-        <v>-305300</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-347400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-114200</v>
+        <v>-117800</v>
       </c>
       <c r="E96" s="3">
-        <v>-98800</v>
+        <v>-101900</v>
       </c>
       <c r="F96" s="3">
-        <v>-85600</v>
+        <v>-88300</v>
       </c>
       <c r="G96" s="3">
-        <v>-73900</v>
+        <v>-76200</v>
       </c>
       <c r="H96" s="3">
-        <v>-65100</v>
+        <v>-67100</v>
       </c>
       <c r="I96" s="3">
-        <v>-57500</v>
+        <v>-59300</v>
       </c>
       <c r="J96" s="3">
-        <v>-51400</v>
+        <v>-53000</v>
       </c>
       <c r="K96" s="3">
         <v>-46800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-294600</v>
+        <v>-303900</v>
       </c>
       <c r="E100" s="3">
-        <v>-154000</v>
+        <v>-158900</v>
       </c>
       <c r="F100" s="3">
-        <v>-219100</v>
+        <v>-226000</v>
       </c>
       <c r="G100" s="3">
-        <v>-90800</v>
+        <v>-93700</v>
       </c>
       <c r="H100" s="3">
-        <v>165000</v>
+        <v>170100</v>
       </c>
       <c r="I100" s="3">
-        <v>-271600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-129100</v>
+        <v>-280100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>197800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="E101" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="H101" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="I101" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>3900</v>
+        <v>-19800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-3000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>230300</v>
+        <v>237600</v>
       </c>
       <c r="E102" s="3">
-        <v>-270500</v>
+        <v>-279000</v>
       </c>
       <c r="F102" s="3">
-        <v>263900</v>
+        <v>272200</v>
       </c>
       <c r="G102" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H102" s="3">
-        <v>-124600</v>
+        <v>-128500</v>
       </c>
       <c r="I102" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="J102" s="3">
-        <v>-100500</v>
+        <v>-103700</v>
       </c>
       <c r="K102" s="3">
         <v>191200</v>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3727400</v>
+        <v>3995600</v>
       </c>
       <c r="E8" s="3">
-        <v>3394900</v>
+        <v>3841200</v>
       </c>
       <c r="F8" s="3">
-        <v>3312500</v>
+        <v>3498600</v>
       </c>
       <c r="G8" s="3">
-        <v>2977200</v>
+        <v>3413700</v>
       </c>
       <c r="H8" s="3">
-        <v>2415400</v>
+        <v>3068100</v>
       </c>
       <c r="I8" s="3">
-        <v>2390400</v>
+        <v>2489200</v>
       </c>
       <c r="J8" s="3">
+        <v>2463400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2459900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2878700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3350300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>776800</v>
+        <v>854300</v>
       </c>
       <c r="E9" s="3">
-        <v>702900</v>
+        <v>800500</v>
       </c>
       <c r="F9" s="3">
-        <v>650300</v>
+        <v>724400</v>
       </c>
       <c r="G9" s="3">
-        <v>515200</v>
+        <v>670200</v>
       </c>
       <c r="H9" s="3">
-        <v>422900</v>
+        <v>530900</v>
       </c>
       <c r="I9" s="3">
-        <v>130000</v>
+        <v>435900</v>
       </c>
       <c r="J9" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K9" s="3">
         <v>119900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1670800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1633100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2950600</v>
+        <v>3141300</v>
       </c>
       <c r="E10" s="3">
-        <v>2692000</v>
+        <v>3040600</v>
       </c>
       <c r="F10" s="3">
-        <v>2662200</v>
+        <v>2774200</v>
       </c>
       <c r="G10" s="3">
-        <v>2462000</v>
+        <v>2743500</v>
       </c>
       <c r="H10" s="3">
-        <v>1992500</v>
+        <v>2537200</v>
       </c>
       <c r="I10" s="3">
-        <v>2260400</v>
+        <v>2053300</v>
       </c>
       <c r="J10" s="3">
+        <v>2329400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2340100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1207900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1717200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,21 +858,24 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>2200</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-105000</v>
+        <v>48000</v>
       </c>
       <c r="E14" s="3">
-        <v>510100</v>
+        <v>-108300</v>
       </c>
       <c r="F14" s="3">
-        <v>-594200</v>
+        <v>525700</v>
       </c>
       <c r="G14" s="3">
-        <v>22700</v>
+        <v>-612300</v>
       </c>
       <c r="H14" s="3">
-        <v>18300</v>
+        <v>23300</v>
       </c>
       <c r="I14" s="3">
-        <v>15400</v>
+        <v>18800</v>
       </c>
       <c r="J14" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K14" s="3">
         <v>86000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>181800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>246800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>303600</v>
+        <v>311700</v>
       </c>
       <c r="E15" s="3">
-        <v>285900</v>
+        <v>312900</v>
       </c>
       <c r="F15" s="3">
-        <v>272900</v>
+        <v>294600</v>
       </c>
       <c r="G15" s="3">
-        <v>335300</v>
+        <v>281200</v>
       </c>
       <c r="H15" s="3">
-        <v>291000</v>
+        <v>345600</v>
       </c>
       <c r="I15" s="3">
-        <v>285100</v>
+        <v>299900</v>
       </c>
       <c r="J15" s="3">
+        <v>293800</v>
+      </c>
+      <c r="K15" s="3">
         <v>307000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>515800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>331400</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3220100</v>
+        <v>3579800</v>
       </c>
       <c r="E17" s="3">
-        <v>3526900</v>
+        <v>3318400</v>
       </c>
       <c r="F17" s="3">
-        <v>2294500</v>
+        <v>3634600</v>
       </c>
       <c r="G17" s="3">
-        <v>2658100</v>
+        <v>2364500</v>
       </c>
       <c r="H17" s="3">
-        <v>2157600</v>
+        <v>2739200</v>
       </c>
       <c r="I17" s="3">
-        <v>2112900</v>
+        <v>2223400</v>
       </c>
       <c r="J17" s="3">
+        <v>2177400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2237500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2694200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3363700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>507300</v>
+        <v>415800</v>
       </c>
       <c r="E18" s="3">
-        <v>-132000</v>
+        <v>522700</v>
       </c>
       <c r="F18" s="3">
-        <v>1018100</v>
+        <v>-136000</v>
       </c>
       <c r="G18" s="3">
-        <v>319100</v>
+        <v>1049200</v>
       </c>
       <c r="H18" s="3">
-        <v>257900</v>
+        <v>328900</v>
       </c>
       <c r="I18" s="3">
-        <v>277500</v>
+        <v>265800</v>
       </c>
       <c r="J18" s="3">
+        <v>286000</v>
+      </c>
+      <c r="K18" s="3">
         <v>222500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>184500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>-47000</v>
       </c>
       <c r="E20" s="3">
-        <v>24200</v>
+        <v>10300</v>
       </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>24900</v>
       </c>
       <c r="G20" s="3">
-        <v>20000</v>
+        <v>9900</v>
       </c>
       <c r="H20" s="3">
-        <v>13000</v>
+        <v>20700</v>
       </c>
       <c r="I20" s="3">
-        <v>7100</v>
+        <v>13400</v>
       </c>
       <c r="J20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K20" s="3">
         <v>109400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-53100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>934600</v>
+        <v>809400</v>
       </c>
       <c r="E21" s="3">
-        <v>177800</v>
+        <v>964800</v>
       </c>
       <c r="F21" s="3">
-        <v>1302600</v>
+        <v>184300</v>
       </c>
       <c r="G21" s="3">
-        <v>673200</v>
+        <v>1343400</v>
       </c>
       <c r="H21" s="3">
-        <v>550700</v>
+        <v>695100</v>
       </c>
       <c r="I21" s="3">
-        <v>571900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>568700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>590500</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>501800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>459400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52500</v>
+        <v>43600</v>
       </c>
       <c r="E22" s="3">
-        <v>48900</v>
+        <v>54100</v>
       </c>
       <c r="F22" s="3">
-        <v>47800</v>
+        <v>50400</v>
       </c>
       <c r="G22" s="3">
-        <v>52900</v>
+        <v>49200</v>
       </c>
       <c r="H22" s="3">
-        <v>52600</v>
+        <v>54500</v>
       </c>
       <c r="I22" s="3">
-        <v>60600</v>
+        <v>54200</v>
       </c>
       <c r="J22" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K22" s="3">
         <v>177800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65800</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>464800</v>
+        <v>325200</v>
       </c>
       <c r="E23" s="3">
-        <v>-156700</v>
+        <v>479000</v>
       </c>
       <c r="F23" s="3">
-        <v>979900</v>
+        <v>-161500</v>
       </c>
       <c r="G23" s="3">
-        <v>286300</v>
+        <v>1009800</v>
       </c>
       <c r="H23" s="3">
-        <v>218300</v>
+        <v>295100</v>
       </c>
       <c r="I23" s="3">
-        <v>224100</v>
+        <v>225000</v>
       </c>
       <c r="J23" s="3">
+        <v>230900</v>
+      </c>
+      <c r="K23" s="3">
         <v>154100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75100</v>
+        <v>61600</v>
       </c>
       <c r="E24" s="3">
-        <v>-21700</v>
+        <v>77400</v>
       </c>
       <c r="F24" s="3">
-        <v>50800</v>
+        <v>-22400</v>
       </c>
       <c r="G24" s="3">
-        <v>55900</v>
+        <v>52400</v>
       </c>
       <c r="H24" s="3">
-        <v>47600</v>
+        <v>57600</v>
       </c>
       <c r="I24" s="3">
-        <v>50900</v>
+        <v>49100</v>
       </c>
       <c r="J24" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K24" s="3">
         <v>39700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>389700</v>
+        <v>263600</v>
       </c>
       <c r="E26" s="3">
-        <v>-135000</v>
+        <v>401600</v>
       </c>
       <c r="F26" s="3">
-        <v>929100</v>
+        <v>-139100</v>
       </c>
       <c r="G26" s="3">
-        <v>230400</v>
+        <v>957500</v>
       </c>
       <c r="H26" s="3">
-        <v>170700</v>
+        <v>237500</v>
       </c>
       <c r="I26" s="3">
-        <v>173200</v>
+        <v>175900</v>
       </c>
       <c r="J26" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K26" s="3">
         <v>114400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>95200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-88400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>389700</v>
+        <v>263600</v>
       </c>
       <c r="E27" s="3">
-        <v>-135000</v>
+        <v>401600</v>
       </c>
       <c r="F27" s="3">
-        <v>929100</v>
+        <v>-139100</v>
       </c>
       <c r="G27" s="3">
-        <v>230400</v>
+        <v>957500</v>
       </c>
       <c r="H27" s="3">
-        <v>170700</v>
+        <v>237500</v>
       </c>
       <c r="I27" s="3">
-        <v>173600</v>
+        <v>175900</v>
       </c>
       <c r="J27" s="3">
+        <v>178900</v>
+      </c>
+      <c r="K27" s="3">
         <v>112700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-91800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>185900</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-61200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-30600</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>47000</v>
       </c>
       <c r="E32" s="3">
-        <v>-24200</v>
+        <v>-10300</v>
       </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-24900</v>
       </c>
       <c r="G32" s="3">
-        <v>-20000</v>
+        <v>-9900</v>
       </c>
       <c r="H32" s="3">
-        <v>-13000</v>
+        <v>-20700</v>
       </c>
       <c r="I32" s="3">
-        <v>-7100</v>
+        <v>-13400</v>
       </c>
       <c r="J32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-109400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>53100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>389700</v>
+        <v>263600</v>
       </c>
       <c r="E33" s="3">
-        <v>-135000</v>
+        <v>401600</v>
       </c>
       <c r="F33" s="3">
-        <v>937900</v>
+        <v>-139100</v>
       </c>
       <c r="G33" s="3">
-        <v>230400</v>
+        <v>966500</v>
       </c>
       <c r="H33" s="3">
-        <v>170700</v>
+        <v>237500</v>
       </c>
       <c r="I33" s="3">
-        <v>359500</v>
+        <v>175900</v>
       </c>
       <c r="J33" s="3">
+        <v>370500</v>
+      </c>
+      <c r="K33" s="3">
         <v>51500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-91800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>389700</v>
+        <v>263600</v>
       </c>
       <c r="E35" s="3">
-        <v>-135000</v>
+        <v>401600</v>
       </c>
       <c r="F35" s="3">
-        <v>937900</v>
+        <v>-139100</v>
       </c>
       <c r="G35" s="3">
-        <v>230400</v>
+        <v>966500</v>
       </c>
       <c r="H35" s="3">
-        <v>170700</v>
+        <v>237500</v>
       </c>
       <c r="I35" s="3">
-        <v>359500</v>
+        <v>175900</v>
       </c>
       <c r="J35" s="3">
+        <v>370500</v>
+      </c>
+      <c r="K35" s="3">
         <v>51500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-91800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>328900</v>
+        <v>3140800</v>
       </c>
       <c r="E41" s="3">
-        <v>350700</v>
+        <v>338900</v>
       </c>
       <c r="F41" s="3">
-        <v>412400</v>
+        <v>361400</v>
       </c>
       <c r="G41" s="3">
-        <v>217200</v>
+        <v>425000</v>
       </c>
       <c r="H41" s="3">
-        <v>132800</v>
+        <v>223900</v>
       </c>
       <c r="I41" s="3">
-        <v>188000</v>
+        <v>136800</v>
       </c>
       <c r="J41" s="3">
+        <v>193700</v>
+      </c>
+      <c r="K41" s="3">
         <v>189800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>207500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>89100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>98600</v>
+        <v>252300</v>
       </c>
       <c r="E42" s="3">
+        <v>101600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>148900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>408700</v>
+      </c>
+      <c r="L42" s="3">
         <v>9200</v>
       </c>
-      <c r="F42" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>15900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>144500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>153200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>408700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>9200</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>655800</v>
+        <v>749900</v>
       </c>
       <c r="E43" s="3">
-        <v>1311100</v>
+        <v>675900</v>
       </c>
       <c r="F43" s="3">
-        <v>565900</v>
+        <v>1351100</v>
       </c>
       <c r="G43" s="3">
-        <v>497100</v>
+        <v>583200</v>
       </c>
       <c r="H43" s="3">
-        <v>428600</v>
+        <v>512300</v>
       </c>
       <c r="I43" s="3">
-        <v>405100</v>
+        <v>441700</v>
       </c>
       <c r="J43" s="3">
+        <v>417500</v>
+      </c>
+      <c r="K43" s="3">
         <v>505900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1112300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>508000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146200</v>
+        <v>185800</v>
       </c>
       <c r="E44" s="3">
-        <v>283400</v>
+        <v>150700</v>
       </c>
       <c r="F44" s="3">
-        <v>115800</v>
+        <v>292100</v>
       </c>
       <c r="G44" s="3">
-        <v>109900</v>
+        <v>119300</v>
       </c>
       <c r="H44" s="3">
-        <v>76500</v>
+        <v>113200</v>
       </c>
       <c r="I44" s="3">
-        <v>80900</v>
+        <v>78800</v>
       </c>
       <c r="J44" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K44" s="3">
         <v>87600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>69800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41600</v>
+        <v>49400</v>
       </c>
       <c r="E45" s="3">
-        <v>50700</v>
+        <v>42900</v>
       </c>
       <c r="F45" s="3">
-        <v>78400</v>
+        <v>52200</v>
       </c>
       <c r="G45" s="3">
-        <v>290600</v>
+        <v>80800</v>
       </c>
       <c r="H45" s="3">
-        <v>39800</v>
+        <v>299400</v>
       </c>
       <c r="I45" s="3">
-        <v>35800</v>
+        <v>41000</v>
       </c>
       <c r="J45" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K45" s="3">
         <v>79800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>115200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>91100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1271200</v>
+        <v>4378200</v>
       </c>
       <c r="E46" s="3">
-        <v>1018200</v>
+        <v>1310000</v>
       </c>
       <c r="F46" s="3">
-        <v>1186600</v>
+        <v>1049300</v>
       </c>
       <c r="G46" s="3">
-        <v>1130700</v>
+        <v>1222800</v>
       </c>
       <c r="H46" s="3">
-        <v>822100</v>
+        <v>1165200</v>
       </c>
       <c r="I46" s="3">
-        <v>863000</v>
+        <v>847200</v>
       </c>
       <c r="J46" s="3">
+        <v>889400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1271700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>899700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>766200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>148400</v>
+        <v>153300</v>
       </c>
       <c r="E47" s="3">
-        <v>499300</v>
+        <v>153000</v>
       </c>
       <c r="F47" s="3">
-        <v>398100</v>
+        <v>514500</v>
       </c>
       <c r="G47" s="3">
-        <v>39500</v>
+        <v>410200</v>
       </c>
       <c r="H47" s="3">
-        <v>36100</v>
+        <v>40800</v>
       </c>
       <c r="I47" s="3">
-        <v>35700</v>
+        <v>37200</v>
       </c>
       <c r="J47" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K47" s="3">
         <v>29400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>123700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>841600</v>
+        <v>877700</v>
       </c>
       <c r="E48" s="3">
-        <v>1199900</v>
+        <v>867300</v>
       </c>
       <c r="F48" s="3">
-        <v>535800</v>
+        <v>1236500</v>
       </c>
       <c r="G48" s="3">
-        <v>571700</v>
+        <v>552200</v>
       </c>
       <c r="H48" s="3">
-        <v>655100</v>
+        <v>589100</v>
       </c>
       <c r="I48" s="3">
-        <v>694100</v>
+        <v>675100</v>
       </c>
       <c r="J48" s="3">
+        <v>715300</v>
+      </c>
+      <c r="K48" s="3">
         <v>743600</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>755400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2297900</v>
+        <v>2720000</v>
       </c>
       <c r="E49" s="3">
-        <v>4144600</v>
+        <v>2368000</v>
       </c>
       <c r="F49" s="3">
-        <v>1675600</v>
+        <v>4271100</v>
       </c>
       <c r="G49" s="3">
-        <v>1372600</v>
+        <v>1726700</v>
       </c>
       <c r="H49" s="3">
-        <v>1123700</v>
+        <v>1414500</v>
       </c>
       <c r="I49" s="3">
-        <v>592300</v>
+        <v>1158000</v>
       </c>
       <c r="J49" s="3">
+        <v>610300</v>
+      </c>
+      <c r="K49" s="3">
         <v>583600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>314500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>514100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>102000</v>
+        <v>132600</v>
       </c>
       <c r="E52" s="3">
-        <v>41700</v>
+        <v>105100</v>
       </c>
       <c r="F52" s="3">
-        <v>471400</v>
+        <v>43000</v>
       </c>
       <c r="G52" s="3">
-        <v>377200</v>
+        <v>485800</v>
       </c>
       <c r="H52" s="3">
-        <v>330100</v>
+        <v>388700</v>
       </c>
       <c r="I52" s="3">
-        <v>270700</v>
+        <v>340200</v>
       </c>
       <c r="J52" s="3">
+        <v>278900</v>
+      </c>
+      <c r="K52" s="3">
         <v>109900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>235500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>267300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4661200</v>
+        <v>8261700</v>
       </c>
       <c r="E54" s="3">
-        <v>4231500</v>
+        <v>4803400</v>
       </c>
       <c r="F54" s="3">
-        <v>4267500</v>
+        <v>4360700</v>
       </c>
       <c r="G54" s="3">
-        <v>3491700</v>
+        <v>4397700</v>
       </c>
       <c r="H54" s="3">
-        <v>2967200</v>
+        <v>3598300</v>
       </c>
       <c r="I54" s="3">
-        <v>2455800</v>
+        <v>3057800</v>
       </c>
       <c r="J54" s="3">
+        <v>2530800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2738100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2554900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2368800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2147,197 +2277,215 @@
         <v>258000</v>
       </c>
       <c r="E57" s="3">
-        <v>1081100</v>
+        <v>265900</v>
       </c>
       <c r="F57" s="3">
-        <v>209100</v>
+        <v>1114100</v>
       </c>
       <c r="G57" s="3">
-        <v>164500</v>
+        <v>215500</v>
       </c>
       <c r="H57" s="3">
-        <v>128000</v>
+        <v>169500</v>
       </c>
       <c r="I57" s="3">
-        <v>132500</v>
+        <v>131900</v>
       </c>
       <c r="J57" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K57" s="3">
         <v>187700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>728200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>192000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>208500</v>
+        <v>2716000</v>
       </c>
       <c r="E58" s="3">
-        <v>955500</v>
+        <v>214800</v>
       </c>
       <c r="F58" s="3">
-        <v>93400</v>
+        <v>984600</v>
       </c>
       <c r="G58" s="3">
-        <v>106300</v>
+        <v>96200</v>
       </c>
       <c r="H58" s="3">
-        <v>456700</v>
+        <v>109500</v>
       </c>
       <c r="I58" s="3">
-        <v>17000</v>
+        <v>470700</v>
       </c>
       <c r="J58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K58" s="3">
         <v>564100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>78500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>791100</v>
+        <v>1211800</v>
       </c>
       <c r="E59" s="3">
-        <v>756100</v>
+        <v>815200</v>
       </c>
       <c r="F59" s="3">
-        <v>677700</v>
+        <v>779200</v>
       </c>
       <c r="G59" s="3">
-        <v>662400</v>
+        <v>698400</v>
       </c>
       <c r="H59" s="3">
-        <v>586100</v>
+        <v>682600</v>
       </c>
       <c r="I59" s="3">
-        <v>559200</v>
+        <v>604000</v>
       </c>
       <c r="J59" s="3">
+        <v>576200</v>
+      </c>
+      <c r="K59" s="3">
         <v>678100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>704300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>706100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1257600</v>
+        <v>4185800</v>
       </c>
       <c r="E60" s="3">
-        <v>1709100</v>
+        <v>1296000</v>
       </c>
       <c r="F60" s="3">
-        <v>980200</v>
+        <v>1761200</v>
       </c>
       <c r="G60" s="3">
-        <v>933200</v>
+        <v>1010100</v>
       </c>
       <c r="H60" s="3">
-        <v>1170800</v>
+        <v>961700</v>
       </c>
       <c r="I60" s="3">
-        <v>708700</v>
+        <v>1206500</v>
       </c>
       <c r="J60" s="3">
+        <v>730300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1429900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>975800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>935100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1653300</v>
+        <v>2093500</v>
       </c>
       <c r="E61" s="3">
-        <v>1021800</v>
+        <v>1703800</v>
       </c>
       <c r="F61" s="3">
-        <v>1602400</v>
+        <v>1053000</v>
       </c>
       <c r="G61" s="3">
-        <v>1730800</v>
+        <v>1651300</v>
       </c>
       <c r="H61" s="3">
-        <v>1188400</v>
+        <v>1783600</v>
       </c>
       <c r="I61" s="3">
-        <v>1340400</v>
+        <v>1224600</v>
       </c>
       <c r="J61" s="3">
+        <v>1381300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1404100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1449000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1254200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>373900</v>
+        <v>382500</v>
       </c>
       <c r="E62" s="3">
-        <v>357300</v>
+        <v>385300</v>
       </c>
       <c r="F62" s="3">
-        <v>402300</v>
+        <v>368200</v>
       </c>
       <c r="G62" s="3">
-        <v>332400</v>
+        <v>414600</v>
       </c>
       <c r="H62" s="3">
-        <v>316800</v>
+        <v>342600</v>
       </c>
       <c r="I62" s="3">
-        <v>269400</v>
+        <v>326500</v>
       </c>
       <c r="J62" s="3">
+        <v>277600</v>
+      </c>
+      <c r="K62" s="3">
         <v>222700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>310700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>316700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3285600</v>
+        <v>6663000</v>
       </c>
       <c r="E66" s="3">
-        <v>3088700</v>
+        <v>3385900</v>
       </c>
       <c r="F66" s="3">
-        <v>2985300</v>
+        <v>3183000</v>
       </c>
       <c r="G66" s="3">
-        <v>2996600</v>
+        <v>3076400</v>
       </c>
       <c r="H66" s="3">
-        <v>2675700</v>
+        <v>3088100</v>
       </c>
       <c r="I66" s="3">
-        <v>2318200</v>
+        <v>2757300</v>
       </c>
       <c r="J66" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3056900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2728000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2513200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1554200</v>
+        <v>1865500</v>
       </c>
       <c r="E72" s="3">
-        <v>1261800</v>
+        <v>1601600</v>
       </c>
       <c r="F72" s="3">
-        <v>1434700</v>
+        <v>1300300</v>
       </c>
       <c r="G72" s="3">
-        <v>531000</v>
+        <v>1478500</v>
       </c>
       <c r="H72" s="3">
-        <v>334800</v>
+        <v>547200</v>
       </c>
       <c r="I72" s="3">
-        <v>185200</v>
+        <v>345000</v>
       </c>
       <c r="J72" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-246100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1905900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1375500</v>
+        <v>1598600</v>
       </c>
       <c r="E76" s="3">
-        <v>1142800</v>
+        <v>1417500</v>
       </c>
       <c r="F76" s="3">
-        <v>1282100</v>
+        <v>1177700</v>
       </c>
       <c r="G76" s="3">
-        <v>495200</v>
+        <v>1321300</v>
       </c>
       <c r="H76" s="3">
-        <v>291500</v>
+        <v>510300</v>
       </c>
       <c r="I76" s="3">
-        <v>137600</v>
+        <v>300400</v>
       </c>
       <c r="J76" s="3">
+        <v>141800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-318700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-173100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-144500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>389700</v>
+        <v>263600</v>
       </c>
       <c r="E81" s="3">
-        <v>-135000</v>
+        <v>401600</v>
       </c>
       <c r="F81" s="3">
-        <v>937900</v>
+        <v>-139100</v>
       </c>
       <c r="G81" s="3">
-        <v>230400</v>
+        <v>966500</v>
       </c>
       <c r="H81" s="3">
-        <v>170700</v>
+        <v>237500</v>
       </c>
       <c r="I81" s="3">
-        <v>359500</v>
+        <v>175900</v>
       </c>
       <c r="J81" s="3">
+        <v>370500</v>
+      </c>
+      <c r="K81" s="3">
         <v>51500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-91800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>418800</v>
+        <v>440500</v>
       </c>
       <c r="E83" s="3">
-        <v>286600</v>
+        <v>431600</v>
       </c>
       <c r="F83" s="3">
-        <v>275900</v>
+        <v>295300</v>
       </c>
       <c r="G83" s="3">
-        <v>335200</v>
+        <v>284300</v>
       </c>
       <c r="H83" s="3">
-        <v>280800</v>
+        <v>345400</v>
       </c>
       <c r="I83" s="3">
-        <v>288200</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>289400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>297000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>295100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>527900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>635600</v>
+        <v>770100</v>
       </c>
       <c r="E89" s="3">
-        <v>499300</v>
+        <v>655100</v>
       </c>
       <c r="F89" s="3">
-        <v>521500</v>
+        <v>514500</v>
       </c>
       <c r="G89" s="3">
-        <v>497800</v>
+        <v>537500</v>
       </c>
       <c r="H89" s="3">
-        <v>439400</v>
+        <v>513000</v>
       </c>
       <c r="I89" s="3">
-        <v>368300</v>
+        <v>452800</v>
       </c>
       <c r="J89" s="3">
+        <v>379500</v>
+      </c>
+      <c r="K89" s="3">
         <v>340400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>343800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>362400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-192400</v>
+        <v>-183800</v>
       </c>
       <c r="E91" s="3">
-        <v>-202100</v>
+        <v>-198300</v>
       </c>
       <c r="F91" s="3">
-        <v>-239300</v>
+        <v>-208300</v>
       </c>
       <c r="G91" s="3">
-        <v>-255700</v>
+        <v>-246700</v>
       </c>
       <c r="H91" s="3">
-        <v>-218600</v>
+        <v>-263500</v>
       </c>
       <c r="I91" s="3">
-        <v>-237700</v>
+        <v>-225300</v>
       </c>
       <c r="J91" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-276100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-236200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-276800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83900</v>
+        <v>-462700</v>
       </c>
       <c r="E94" s="3">
-        <v>-627300</v>
+        <v>-86500</v>
       </c>
       <c r="F94" s="3">
-        <v>-19900</v>
+        <v>-646400</v>
       </c>
       <c r="G94" s="3">
-        <v>-411300</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
-        <v>-730400</v>
+        <v>-423800</v>
       </c>
       <c r="I94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-752700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-347400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-301900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-117800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-101900</v>
+        <v>-121400</v>
       </c>
       <c r="F96" s="3">
-        <v>-88300</v>
+        <v>-105000</v>
       </c>
       <c r="G96" s="3">
-        <v>-76200</v>
+        <v>-91000</v>
       </c>
       <c r="H96" s="3">
-        <v>-67100</v>
+        <v>-78500</v>
       </c>
       <c r="I96" s="3">
-        <v>-59300</v>
+        <v>-69200</v>
       </c>
       <c r="J96" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-53000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-303900</v>
+        <v>88000</v>
       </c>
       <c r="E100" s="3">
-        <v>-158900</v>
+        <v>-313200</v>
       </c>
       <c r="F100" s="3">
-        <v>-226000</v>
+        <v>-163700</v>
       </c>
       <c r="G100" s="3">
-        <v>-93700</v>
+        <v>-232900</v>
       </c>
       <c r="H100" s="3">
-        <v>170100</v>
+        <v>-96500</v>
       </c>
       <c r="I100" s="3">
-        <v>-280100</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>175300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>197800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10300</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>7800</v>
+        <v>-10600</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>8100</v>
       </c>
       <c r="G101" s="3">
-        <v>14600</v>
+        <v>-3500</v>
       </c>
       <c r="H101" s="3">
-        <v>-7700</v>
+        <v>15000</v>
       </c>
       <c r="I101" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-7900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>237600</v>
+        <v>391800</v>
       </c>
       <c r="E102" s="3">
-        <v>-279000</v>
+        <v>244800</v>
       </c>
       <c r="F102" s="3">
-        <v>272200</v>
+        <v>-287600</v>
       </c>
       <c r="G102" s="3">
-        <v>7400</v>
+        <v>280500</v>
       </c>
       <c r="H102" s="3">
-        <v>-128500</v>
+        <v>7600</v>
       </c>
       <c r="I102" s="3">
-        <v>69600</v>
+        <v>-132500</v>
       </c>
       <c r="J102" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-103700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>191200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3995600</v>
+        <v>3850700</v>
       </c>
       <c r="E8" s="3">
-        <v>3841200</v>
+        <v>3701900</v>
       </c>
       <c r="F8" s="3">
-        <v>3498600</v>
+        <v>3371700</v>
       </c>
       <c r="G8" s="3">
-        <v>3413700</v>
+        <v>3289900</v>
       </c>
       <c r="H8" s="3">
-        <v>3068100</v>
+        <v>2956800</v>
       </c>
       <c r="I8" s="3">
-        <v>2489200</v>
+        <v>2398900</v>
       </c>
       <c r="J8" s="3">
-        <v>2463400</v>
+        <v>2374100</v>
       </c>
       <c r="K8" s="3">
         <v>2459900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>854300</v>
+        <v>823300</v>
       </c>
       <c r="E9" s="3">
-        <v>800500</v>
+        <v>771500</v>
       </c>
       <c r="F9" s="3">
-        <v>724400</v>
+        <v>698100</v>
       </c>
       <c r="G9" s="3">
-        <v>670200</v>
+        <v>645900</v>
       </c>
       <c r="H9" s="3">
-        <v>530900</v>
+        <v>511700</v>
       </c>
       <c r="I9" s="3">
-        <v>435900</v>
+        <v>420000</v>
       </c>
       <c r="J9" s="3">
-        <v>134000</v>
+        <v>129200</v>
       </c>
       <c r="K9" s="3">
         <v>119900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3141300</v>
+        <v>3027300</v>
       </c>
       <c r="E10" s="3">
-        <v>3040600</v>
+        <v>2930400</v>
       </c>
       <c r="F10" s="3">
-        <v>2774200</v>
+        <v>2673600</v>
       </c>
       <c r="G10" s="3">
-        <v>2743500</v>
+        <v>2644000</v>
       </c>
       <c r="H10" s="3">
-        <v>2537200</v>
+        <v>2445100</v>
       </c>
       <c r="I10" s="3">
-        <v>2053300</v>
+        <v>1978900</v>
       </c>
       <c r="J10" s="3">
-        <v>2329400</v>
+        <v>2244900</v>
       </c>
       <c r="K10" s="3">
         <v>2340100</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>48000</v>
+        <v>46200</v>
       </c>
       <c r="E14" s="3">
-        <v>-108300</v>
+        <v>-104300</v>
       </c>
       <c r="F14" s="3">
-        <v>525700</v>
+        <v>506600</v>
       </c>
       <c r="G14" s="3">
-        <v>-612300</v>
+        <v>-590100</v>
       </c>
       <c r="H14" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="I14" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="J14" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K14" s="3">
         <v>86000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>311700</v>
+        <v>300400</v>
       </c>
       <c r="E15" s="3">
-        <v>312900</v>
+        <v>301500</v>
       </c>
       <c r="F15" s="3">
-        <v>294600</v>
+        <v>283900</v>
       </c>
       <c r="G15" s="3">
-        <v>281200</v>
+        <v>271000</v>
       </c>
       <c r="H15" s="3">
-        <v>345600</v>
+        <v>333000</v>
       </c>
       <c r="I15" s="3">
-        <v>299900</v>
+        <v>289000</v>
       </c>
       <c r="J15" s="3">
-        <v>293800</v>
+        <v>283100</v>
       </c>
       <c r="K15" s="3">
         <v>307000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3579800</v>
+        <v>3450000</v>
       </c>
       <c r="E17" s="3">
-        <v>3318400</v>
+        <v>3198100</v>
       </c>
       <c r="F17" s="3">
-        <v>3634600</v>
+        <v>3502800</v>
       </c>
       <c r="G17" s="3">
-        <v>2364500</v>
+        <v>2278800</v>
       </c>
       <c r="H17" s="3">
-        <v>2739200</v>
+        <v>2639900</v>
       </c>
       <c r="I17" s="3">
-        <v>2223400</v>
+        <v>2142800</v>
       </c>
       <c r="J17" s="3">
-        <v>2177400</v>
+        <v>2098500</v>
       </c>
       <c r="K17" s="3">
         <v>2237500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>415800</v>
+        <v>400700</v>
       </c>
       <c r="E18" s="3">
-        <v>522700</v>
+        <v>503800</v>
       </c>
       <c r="F18" s="3">
-        <v>-136000</v>
+        <v>-131100</v>
       </c>
       <c r="G18" s="3">
-        <v>1049200</v>
+        <v>1011100</v>
       </c>
       <c r="H18" s="3">
-        <v>328900</v>
+        <v>316900</v>
       </c>
       <c r="I18" s="3">
-        <v>265800</v>
+        <v>256100</v>
       </c>
       <c r="J18" s="3">
-        <v>286000</v>
+        <v>275600</v>
       </c>
       <c r="K18" s="3">
         <v>222500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-47000</v>
+        <v>-45300</v>
       </c>
       <c r="E20" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="F20" s="3">
-        <v>24900</v>
+        <v>24000</v>
       </c>
       <c r="G20" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="H20" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I20" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="J20" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K20" s="3">
         <v>109400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>809400</v>
+        <v>783600</v>
       </c>
       <c r="E21" s="3">
-        <v>964800</v>
+        <v>933300</v>
       </c>
       <c r="F21" s="3">
-        <v>184300</v>
+        <v>180000</v>
       </c>
       <c r="G21" s="3">
-        <v>1343400</v>
+        <v>1297000</v>
       </c>
       <c r="H21" s="3">
-        <v>695100</v>
+        <v>672600</v>
       </c>
       <c r="I21" s="3">
-        <v>568700</v>
+        <v>550400</v>
       </c>
       <c r="J21" s="3">
-        <v>590500</v>
+        <v>571400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43600</v>
+        <v>42000</v>
       </c>
       <c r="E22" s="3">
-        <v>54100</v>
+        <v>52100</v>
       </c>
       <c r="F22" s="3">
-        <v>50400</v>
+        <v>48600</v>
       </c>
       <c r="G22" s="3">
-        <v>49200</v>
+        <v>47500</v>
       </c>
       <c r="H22" s="3">
-        <v>54500</v>
+        <v>52500</v>
       </c>
       <c r="I22" s="3">
-        <v>54200</v>
+        <v>52200</v>
       </c>
       <c r="J22" s="3">
-        <v>62400</v>
+        <v>60100</v>
       </c>
       <c r="K22" s="3">
         <v>177800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>325200</v>
+        <v>313400</v>
       </c>
       <c r="E23" s="3">
-        <v>479000</v>
+        <v>461600</v>
       </c>
       <c r="F23" s="3">
-        <v>-161500</v>
+        <v>-155600</v>
       </c>
       <c r="G23" s="3">
-        <v>1009800</v>
+        <v>973200</v>
       </c>
       <c r="H23" s="3">
-        <v>295100</v>
+        <v>284400</v>
       </c>
       <c r="I23" s="3">
-        <v>225000</v>
+        <v>216800</v>
       </c>
       <c r="J23" s="3">
-        <v>230900</v>
+        <v>222600</v>
       </c>
       <c r="K23" s="3">
         <v>154100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61600</v>
+        <v>59300</v>
       </c>
       <c r="E24" s="3">
-        <v>77400</v>
+        <v>74600</v>
       </c>
       <c r="F24" s="3">
-        <v>-22400</v>
+        <v>-21500</v>
       </c>
       <c r="G24" s="3">
-        <v>52400</v>
+        <v>50500</v>
       </c>
       <c r="H24" s="3">
-        <v>57600</v>
+        <v>55500</v>
       </c>
       <c r="I24" s="3">
-        <v>49100</v>
+        <v>47300</v>
       </c>
       <c r="J24" s="3">
-        <v>52500</v>
+        <v>50600</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>263600</v>
+        <v>254100</v>
       </c>
       <c r="E26" s="3">
-        <v>401600</v>
+        <v>387000</v>
       </c>
       <c r="F26" s="3">
-        <v>-139100</v>
+        <v>-134100</v>
       </c>
       <c r="G26" s="3">
-        <v>957500</v>
+        <v>922700</v>
       </c>
       <c r="H26" s="3">
-        <v>237500</v>
+        <v>228800</v>
       </c>
       <c r="I26" s="3">
-        <v>175900</v>
+        <v>169500</v>
       </c>
       <c r="J26" s="3">
-        <v>178400</v>
+        <v>172000</v>
       </c>
       <c r="K26" s="3">
         <v>114400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>263600</v>
+        <v>254100</v>
       </c>
       <c r="E27" s="3">
-        <v>401600</v>
+        <v>387000</v>
       </c>
       <c r="F27" s="3">
-        <v>-139100</v>
+        <v>-134100</v>
       </c>
       <c r="G27" s="3">
-        <v>957500</v>
+        <v>922700</v>
       </c>
       <c r="H27" s="3">
-        <v>237500</v>
+        <v>228800</v>
       </c>
       <c r="I27" s="3">
-        <v>175900</v>
+        <v>169500</v>
       </c>
       <c r="J27" s="3">
-        <v>178900</v>
+        <v>172400</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>191600</v>
+        <v>184700</v>
       </c>
       <c r="K29" s="3">
         <v>-61200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>47000</v>
+        <v>45300</v>
       </c>
       <c r="E32" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="F32" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="G32" s="3">
-        <v>-9900</v>
+        <v>-9500</v>
       </c>
       <c r="H32" s="3">
-        <v>-20700</v>
+        <v>-19900</v>
       </c>
       <c r="I32" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="J32" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="K32" s="3">
         <v>-109400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>263600</v>
+        <v>254100</v>
       </c>
       <c r="E33" s="3">
-        <v>401600</v>
+        <v>387000</v>
       </c>
       <c r="F33" s="3">
-        <v>-139100</v>
+        <v>-134100</v>
       </c>
       <c r="G33" s="3">
-        <v>966500</v>
+        <v>931500</v>
       </c>
       <c r="H33" s="3">
-        <v>237500</v>
+        <v>228800</v>
       </c>
       <c r="I33" s="3">
-        <v>175900</v>
+        <v>169500</v>
       </c>
       <c r="J33" s="3">
-        <v>370500</v>
+        <v>357000</v>
       </c>
       <c r="K33" s="3">
         <v>51500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>263600</v>
+        <v>254100</v>
       </c>
       <c r="E35" s="3">
-        <v>401600</v>
+        <v>387000</v>
       </c>
       <c r="F35" s="3">
-        <v>-139100</v>
+        <v>-134100</v>
       </c>
       <c r="G35" s="3">
-        <v>966500</v>
+        <v>931500</v>
       </c>
       <c r="H35" s="3">
-        <v>237500</v>
+        <v>228800</v>
       </c>
       <c r="I35" s="3">
-        <v>175900</v>
+        <v>169500</v>
       </c>
       <c r="J35" s="3">
-        <v>370500</v>
+        <v>357000</v>
       </c>
       <c r="K35" s="3">
         <v>51500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3140800</v>
+        <v>3026900</v>
       </c>
       <c r="E41" s="3">
-        <v>338900</v>
+        <v>326600</v>
       </c>
       <c r="F41" s="3">
-        <v>361400</v>
+        <v>348300</v>
       </c>
       <c r="G41" s="3">
-        <v>425000</v>
+        <v>409500</v>
       </c>
       <c r="H41" s="3">
-        <v>223900</v>
+        <v>215800</v>
       </c>
       <c r="I41" s="3">
-        <v>136800</v>
+        <v>131900</v>
       </c>
       <c r="J41" s="3">
-        <v>193700</v>
+        <v>186700</v>
       </c>
       <c r="K41" s="3">
         <v>189800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>252300</v>
+        <v>243200</v>
       </c>
       <c r="E42" s="3">
-        <v>101600</v>
+        <v>97900</v>
       </c>
       <c r="F42" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G42" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="H42" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="I42" s="3">
-        <v>148900</v>
+        <v>143500</v>
       </c>
       <c r="J42" s="3">
-        <v>157900</v>
+        <v>152200</v>
       </c>
       <c r="K42" s="3">
         <v>408700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>749900</v>
+        <v>722700</v>
       </c>
       <c r="E43" s="3">
-        <v>675900</v>
+        <v>651300</v>
       </c>
       <c r="F43" s="3">
-        <v>1351100</v>
+        <v>1302100</v>
       </c>
       <c r="G43" s="3">
-        <v>583200</v>
+        <v>562000</v>
       </c>
       <c r="H43" s="3">
-        <v>512300</v>
+        <v>493700</v>
       </c>
       <c r="I43" s="3">
-        <v>441700</v>
+        <v>425600</v>
       </c>
       <c r="J43" s="3">
-        <v>417500</v>
+        <v>402300</v>
       </c>
       <c r="K43" s="3">
         <v>505900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>185800</v>
+        <v>179100</v>
       </c>
       <c r="E44" s="3">
-        <v>150700</v>
+        <v>145200</v>
       </c>
       <c r="F44" s="3">
-        <v>292100</v>
+        <v>281500</v>
       </c>
       <c r="G44" s="3">
-        <v>119300</v>
+        <v>115000</v>
       </c>
       <c r="H44" s="3">
-        <v>113200</v>
+        <v>109100</v>
       </c>
       <c r="I44" s="3">
-        <v>78800</v>
+        <v>76000</v>
       </c>
       <c r="J44" s="3">
-        <v>83300</v>
+        <v>80300</v>
       </c>
       <c r="K44" s="3">
         <v>87600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49400</v>
+        <v>47600</v>
       </c>
       <c r="E45" s="3">
-        <v>42900</v>
+        <v>41300</v>
       </c>
       <c r="F45" s="3">
-        <v>52200</v>
+        <v>50300</v>
       </c>
       <c r="G45" s="3">
-        <v>80800</v>
+        <v>77900</v>
       </c>
       <c r="H45" s="3">
-        <v>299400</v>
+        <v>288600</v>
       </c>
       <c r="I45" s="3">
-        <v>41000</v>
+        <v>39500</v>
       </c>
       <c r="J45" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="K45" s="3">
         <v>79800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4378200</v>
+        <v>4219400</v>
       </c>
       <c r="E46" s="3">
-        <v>1310000</v>
+        <v>1262500</v>
       </c>
       <c r="F46" s="3">
-        <v>1049300</v>
+        <v>1011300</v>
       </c>
       <c r="G46" s="3">
-        <v>1222800</v>
+        <v>1178500</v>
       </c>
       <c r="H46" s="3">
-        <v>1165200</v>
+        <v>1122900</v>
       </c>
       <c r="I46" s="3">
-        <v>847200</v>
+        <v>816500</v>
       </c>
       <c r="J46" s="3">
-        <v>889400</v>
+        <v>857100</v>
       </c>
       <c r="K46" s="3">
         <v>1271700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>153300</v>
+        <v>147700</v>
       </c>
       <c r="E47" s="3">
-        <v>153000</v>
+        <v>147400</v>
       </c>
       <c r="F47" s="3">
-        <v>514500</v>
+        <v>495900</v>
       </c>
       <c r="G47" s="3">
-        <v>410200</v>
+        <v>395400</v>
       </c>
       <c r="H47" s="3">
-        <v>40800</v>
+        <v>39300</v>
       </c>
       <c r="I47" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="J47" s="3">
-        <v>36800</v>
+        <v>35500</v>
       </c>
       <c r="K47" s="3">
         <v>29400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>877700</v>
+        <v>845800</v>
       </c>
       <c r="E48" s="3">
-        <v>867300</v>
+        <v>835900</v>
       </c>
       <c r="F48" s="3">
-        <v>1236500</v>
+        <v>1191700</v>
       </c>
       <c r="G48" s="3">
-        <v>552200</v>
+        <v>532200</v>
       </c>
       <c r="H48" s="3">
-        <v>589100</v>
+        <v>567700</v>
       </c>
       <c r="I48" s="3">
-        <v>675100</v>
+        <v>650700</v>
       </c>
       <c r="J48" s="3">
-        <v>715300</v>
+        <v>689400</v>
       </c>
       <c r="K48" s="3">
         <v>743600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2720000</v>
+        <v>2621300</v>
       </c>
       <c r="E49" s="3">
-        <v>2368000</v>
+        <v>2282200</v>
       </c>
       <c r="F49" s="3">
-        <v>4271100</v>
+        <v>4116200</v>
       </c>
       <c r="G49" s="3">
-        <v>1726700</v>
+        <v>1664100</v>
       </c>
       <c r="H49" s="3">
-        <v>1414500</v>
+        <v>1363200</v>
       </c>
       <c r="I49" s="3">
-        <v>1158000</v>
+        <v>1116000</v>
       </c>
       <c r="J49" s="3">
-        <v>610300</v>
+        <v>588200</v>
       </c>
       <c r="K49" s="3">
         <v>583600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132600</v>
+        <v>127800</v>
       </c>
       <c r="E52" s="3">
-        <v>105100</v>
+        <v>101300</v>
       </c>
       <c r="F52" s="3">
-        <v>43000</v>
+        <v>41500</v>
       </c>
       <c r="G52" s="3">
-        <v>485800</v>
+        <v>468200</v>
       </c>
       <c r="H52" s="3">
-        <v>388700</v>
+        <v>374600</v>
       </c>
       <c r="I52" s="3">
-        <v>340200</v>
+        <v>327900</v>
       </c>
       <c r="J52" s="3">
-        <v>278900</v>
+        <v>268800</v>
       </c>
       <c r="K52" s="3">
         <v>109900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8261700</v>
+        <v>7962100</v>
       </c>
       <c r="E54" s="3">
-        <v>4803400</v>
+        <v>4629200</v>
       </c>
       <c r="F54" s="3">
-        <v>4360700</v>
+        <v>4202500</v>
       </c>
       <c r="G54" s="3">
-        <v>4397700</v>
+        <v>4238300</v>
       </c>
       <c r="H54" s="3">
-        <v>3598300</v>
+        <v>3467800</v>
       </c>
       <c r="I54" s="3">
-        <v>3057800</v>
+        <v>2946900</v>
       </c>
       <c r="J54" s="3">
-        <v>2530800</v>
+        <v>2439000</v>
       </c>
       <c r="K54" s="3">
         <v>2738100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>258000</v>
+        <v>248600</v>
       </c>
       <c r="E57" s="3">
-        <v>265900</v>
+        <v>256300</v>
       </c>
       <c r="F57" s="3">
-        <v>1114100</v>
+        <v>1073700</v>
       </c>
       <c r="G57" s="3">
-        <v>215500</v>
+        <v>207700</v>
       </c>
       <c r="H57" s="3">
-        <v>169500</v>
+        <v>163400</v>
       </c>
       <c r="I57" s="3">
-        <v>131900</v>
+        <v>127100</v>
       </c>
       <c r="J57" s="3">
-        <v>136600</v>
+        <v>131600</v>
       </c>
       <c r="K57" s="3">
         <v>187700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2716000</v>
+        <v>2617500</v>
       </c>
       <c r="E58" s="3">
-        <v>214800</v>
+        <v>207000</v>
       </c>
       <c r="F58" s="3">
-        <v>984600</v>
+        <v>948900</v>
       </c>
       <c r="G58" s="3">
-        <v>96200</v>
+        <v>92700</v>
       </c>
       <c r="H58" s="3">
-        <v>109500</v>
+        <v>105600</v>
       </c>
       <c r="I58" s="3">
-        <v>470700</v>
+        <v>453600</v>
       </c>
       <c r="J58" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="K58" s="3">
         <v>564100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1211800</v>
+        <v>1167800</v>
       </c>
       <c r="E59" s="3">
-        <v>815200</v>
+        <v>785700</v>
       </c>
       <c r="F59" s="3">
-        <v>779200</v>
+        <v>750900</v>
       </c>
       <c r="G59" s="3">
-        <v>698400</v>
+        <v>673000</v>
       </c>
       <c r="H59" s="3">
-        <v>682600</v>
+        <v>657900</v>
       </c>
       <c r="I59" s="3">
-        <v>604000</v>
+        <v>582100</v>
       </c>
       <c r="J59" s="3">
-        <v>576200</v>
+        <v>555300</v>
       </c>
       <c r="K59" s="3">
         <v>678100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4185800</v>
+        <v>4034000</v>
       </c>
       <c r="E60" s="3">
-        <v>1296000</v>
+        <v>1249000</v>
       </c>
       <c r="F60" s="3">
-        <v>1761200</v>
+        <v>1697400</v>
       </c>
       <c r="G60" s="3">
-        <v>1010100</v>
+        <v>973500</v>
       </c>
       <c r="H60" s="3">
-        <v>961700</v>
+        <v>926800</v>
       </c>
       <c r="I60" s="3">
-        <v>1206500</v>
+        <v>1162800</v>
       </c>
       <c r="J60" s="3">
-        <v>730300</v>
+        <v>703900</v>
       </c>
       <c r="K60" s="3">
         <v>1429900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2093500</v>
+        <v>2017600</v>
       </c>
       <c r="E61" s="3">
-        <v>1703800</v>
+        <v>1642000</v>
       </c>
       <c r="F61" s="3">
-        <v>1053000</v>
+        <v>1014800</v>
       </c>
       <c r="G61" s="3">
-        <v>1651300</v>
+        <v>1591400</v>
       </c>
       <c r="H61" s="3">
-        <v>1783600</v>
+        <v>1718900</v>
       </c>
       <c r="I61" s="3">
-        <v>1224600</v>
+        <v>1180200</v>
       </c>
       <c r="J61" s="3">
-        <v>1381300</v>
+        <v>1331200</v>
       </c>
       <c r="K61" s="3">
         <v>1404100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>382500</v>
+        <v>368600</v>
       </c>
       <c r="E62" s="3">
-        <v>385300</v>
+        <v>371400</v>
       </c>
       <c r="F62" s="3">
-        <v>368200</v>
+        <v>354900</v>
       </c>
       <c r="G62" s="3">
-        <v>414600</v>
+        <v>399600</v>
       </c>
       <c r="H62" s="3">
-        <v>342600</v>
+        <v>330200</v>
       </c>
       <c r="I62" s="3">
-        <v>326500</v>
+        <v>314600</v>
       </c>
       <c r="J62" s="3">
-        <v>277600</v>
+        <v>267600</v>
       </c>
       <c r="K62" s="3">
         <v>222700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6663000</v>
+        <v>6421400</v>
       </c>
       <c r="E66" s="3">
-        <v>3385900</v>
+        <v>3263100</v>
       </c>
       <c r="F66" s="3">
-        <v>3183000</v>
+        <v>3067600</v>
       </c>
       <c r="G66" s="3">
-        <v>3076400</v>
+        <v>2964900</v>
       </c>
       <c r="H66" s="3">
-        <v>3088100</v>
+        <v>2976100</v>
       </c>
       <c r="I66" s="3">
-        <v>2757300</v>
+        <v>2657300</v>
       </c>
       <c r="J66" s="3">
-        <v>2389000</v>
+        <v>2302400</v>
       </c>
       <c r="K66" s="3">
         <v>3056900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1865500</v>
+        <v>1797900</v>
       </c>
       <c r="E72" s="3">
-        <v>1601600</v>
+        <v>1543500</v>
       </c>
       <c r="F72" s="3">
-        <v>1300300</v>
+        <v>1253200</v>
       </c>
       <c r="G72" s="3">
-        <v>1478500</v>
+        <v>1424900</v>
       </c>
       <c r="H72" s="3">
-        <v>547200</v>
+        <v>527400</v>
       </c>
       <c r="I72" s="3">
-        <v>345000</v>
+        <v>332500</v>
       </c>
       <c r="J72" s="3">
-        <v>190900</v>
+        <v>184000</v>
       </c>
       <c r="K72" s="3">
         <v>-246100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1598600</v>
+        <v>1540700</v>
       </c>
       <c r="E76" s="3">
-        <v>1417500</v>
+        <v>1366100</v>
       </c>
       <c r="F76" s="3">
-        <v>1177700</v>
+        <v>1134900</v>
       </c>
       <c r="G76" s="3">
-        <v>1321300</v>
+        <v>1273400</v>
       </c>
       <c r="H76" s="3">
-        <v>510300</v>
+        <v>491800</v>
       </c>
       <c r="I76" s="3">
-        <v>300400</v>
+        <v>289500</v>
       </c>
       <c r="J76" s="3">
-        <v>141800</v>
+        <v>136700</v>
       </c>
       <c r="K76" s="3">
         <v>-318700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>263600</v>
+        <v>254100</v>
       </c>
       <c r="E81" s="3">
-        <v>401600</v>
+        <v>387000</v>
       </c>
       <c r="F81" s="3">
-        <v>-139100</v>
+        <v>-134100</v>
       </c>
       <c r="G81" s="3">
-        <v>966500</v>
+        <v>931500</v>
       </c>
       <c r="H81" s="3">
-        <v>237500</v>
+        <v>228800</v>
       </c>
       <c r="I81" s="3">
-        <v>175900</v>
+        <v>169500</v>
       </c>
       <c r="J81" s="3">
-        <v>370500</v>
+        <v>357000</v>
       </c>
       <c r="K81" s="3">
         <v>51500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>440500</v>
+        <v>424500</v>
       </c>
       <c r="E83" s="3">
-        <v>431600</v>
+        <v>416000</v>
       </c>
       <c r="F83" s="3">
-        <v>295300</v>
+        <v>284600</v>
       </c>
       <c r="G83" s="3">
-        <v>284300</v>
+        <v>274000</v>
       </c>
       <c r="H83" s="3">
-        <v>345400</v>
+        <v>332900</v>
       </c>
       <c r="I83" s="3">
-        <v>289400</v>
+        <v>278900</v>
       </c>
       <c r="J83" s="3">
-        <v>297000</v>
+        <v>286300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>770100</v>
+        <v>742200</v>
       </c>
       <c r="E89" s="3">
-        <v>655100</v>
+        <v>631300</v>
       </c>
       <c r="F89" s="3">
-        <v>514500</v>
+        <v>495900</v>
       </c>
       <c r="G89" s="3">
-        <v>537500</v>
+        <v>518000</v>
       </c>
       <c r="H89" s="3">
-        <v>513000</v>
+        <v>494400</v>
       </c>
       <c r="I89" s="3">
-        <v>452800</v>
+        <v>436400</v>
       </c>
       <c r="J89" s="3">
-        <v>379500</v>
+        <v>365800</v>
       </c>
       <c r="K89" s="3">
         <v>340400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-183800</v>
+        <v>-177200</v>
       </c>
       <c r="E91" s="3">
-        <v>-198300</v>
+        <v>-191100</v>
       </c>
       <c r="F91" s="3">
-        <v>-208300</v>
+        <v>-200700</v>
       </c>
       <c r="G91" s="3">
-        <v>-246700</v>
+        <v>-237700</v>
       </c>
       <c r="H91" s="3">
-        <v>-263500</v>
+        <v>-253900</v>
       </c>
       <c r="I91" s="3">
-        <v>-225300</v>
+        <v>-217100</v>
       </c>
       <c r="J91" s="3">
-        <v>-245000</v>
+        <v>-236100</v>
       </c>
       <c r="K91" s="3">
         <v>-276100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-462700</v>
+        <v>-446000</v>
       </c>
       <c r="E94" s="3">
-        <v>-86500</v>
+        <v>-83300</v>
       </c>
       <c r="F94" s="3">
-        <v>-646400</v>
+        <v>-623000</v>
       </c>
       <c r="G94" s="3">
-        <v>-20500</v>
+        <v>-19800</v>
       </c>
       <c r="H94" s="3">
-        <v>-423800</v>
+        <v>-408500</v>
       </c>
       <c r="I94" s="3">
-        <v>-752700</v>
+        <v>-725400</v>
       </c>
       <c r="J94" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-121400</v>
+        <v>-117000</v>
       </c>
       <c r="F96" s="3">
-        <v>-105000</v>
+        <v>-101200</v>
       </c>
       <c r="G96" s="3">
-        <v>-91000</v>
+        <v>-87700</v>
       </c>
       <c r="H96" s="3">
-        <v>-78500</v>
+        <v>-75700</v>
       </c>
       <c r="I96" s="3">
-        <v>-69200</v>
+        <v>-66700</v>
       </c>
       <c r="J96" s="3">
-        <v>-61100</v>
+        <v>-58900</v>
       </c>
       <c r="K96" s="3">
         <v>-53000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>88000</v>
+        <v>84800</v>
       </c>
       <c r="E100" s="3">
-        <v>-313200</v>
+        <v>-301800</v>
       </c>
       <c r="F100" s="3">
-        <v>-163700</v>
+        <v>-157800</v>
       </c>
       <c r="G100" s="3">
-        <v>-232900</v>
+        <v>-224500</v>
       </c>
       <c r="H100" s="3">
-        <v>-96500</v>
+        <v>-93000</v>
       </c>
       <c r="I100" s="3">
-        <v>175300</v>
+        <v>169000</v>
       </c>
       <c r="J100" s="3">
-        <v>-288700</v>
+        <v>-278200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>-10600</v>
+        <v>-10200</v>
       </c>
       <c r="F101" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="H101" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="I101" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="J101" s="3">
-        <v>-20400</v>
+        <v>-19600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>391800</v>
+        <v>377600</v>
       </c>
       <c r="E102" s="3">
-        <v>244800</v>
+        <v>235900</v>
       </c>
       <c r="F102" s="3">
-        <v>-287600</v>
+        <v>-277100</v>
       </c>
       <c r="G102" s="3">
-        <v>280500</v>
+        <v>270300</v>
       </c>
       <c r="H102" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I102" s="3">
-        <v>-132500</v>
+        <v>-127700</v>
       </c>
       <c r="J102" s="3">
-        <v>71700</v>
+        <v>69100</v>
       </c>
       <c r="K102" s="3">
         <v>-103700</v>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3850700</v>
+        <v>3758400</v>
       </c>
       <c r="E8" s="3">
-        <v>3701900</v>
+        <v>3613100</v>
       </c>
       <c r="F8" s="3">
-        <v>3371700</v>
+        <v>3290900</v>
       </c>
       <c r="G8" s="3">
-        <v>3289900</v>
+        <v>3211000</v>
       </c>
       <c r="H8" s="3">
-        <v>2956800</v>
+        <v>2886000</v>
       </c>
       <c r="I8" s="3">
-        <v>2398900</v>
+        <v>2341400</v>
       </c>
       <c r="J8" s="3">
-        <v>2374100</v>
+        <v>2317200</v>
       </c>
       <c r="K8" s="3">
         <v>2459900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>823300</v>
+        <v>803600</v>
       </c>
       <c r="E9" s="3">
-        <v>771500</v>
+        <v>753000</v>
       </c>
       <c r="F9" s="3">
-        <v>698100</v>
+        <v>681400</v>
       </c>
       <c r="G9" s="3">
-        <v>645900</v>
+        <v>630400</v>
       </c>
       <c r="H9" s="3">
-        <v>511700</v>
+        <v>499400</v>
       </c>
       <c r="I9" s="3">
-        <v>420000</v>
+        <v>410000</v>
       </c>
       <c r="J9" s="3">
-        <v>129200</v>
+        <v>126100</v>
       </c>
       <c r="K9" s="3">
         <v>119900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3027300</v>
+        <v>2954800</v>
       </c>
       <c r="E10" s="3">
-        <v>2930400</v>
+        <v>2860100</v>
       </c>
       <c r="F10" s="3">
-        <v>2673600</v>
+        <v>2609500</v>
       </c>
       <c r="G10" s="3">
-        <v>2644000</v>
+        <v>2580600</v>
       </c>
       <c r="H10" s="3">
-        <v>2445100</v>
+        <v>2386500</v>
       </c>
       <c r="I10" s="3">
-        <v>1978900</v>
+        <v>1931400</v>
       </c>
       <c r="J10" s="3">
-        <v>2244900</v>
+        <v>2191100</v>
       </c>
       <c r="K10" s="3">
         <v>2340100</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46200</v>
+        <v>45100</v>
       </c>
       <c r="E14" s="3">
-        <v>-104300</v>
+        <v>-101800</v>
       </c>
       <c r="F14" s="3">
-        <v>506600</v>
+        <v>494500</v>
       </c>
       <c r="G14" s="3">
-        <v>-590100</v>
+        <v>-576000</v>
       </c>
       <c r="H14" s="3">
-        <v>22500</v>
+        <v>22000</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="J14" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="K14" s="3">
         <v>86000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300400</v>
+        <v>293200</v>
       </c>
       <c r="E15" s="3">
-        <v>301500</v>
+        <v>294300</v>
       </c>
       <c r="F15" s="3">
-        <v>283900</v>
+        <v>277100</v>
       </c>
       <c r="G15" s="3">
-        <v>271000</v>
+        <v>264500</v>
       </c>
       <c r="H15" s="3">
-        <v>333000</v>
+        <v>325100</v>
       </c>
       <c r="I15" s="3">
-        <v>289000</v>
+        <v>282100</v>
       </c>
       <c r="J15" s="3">
-        <v>283100</v>
+        <v>276300</v>
       </c>
       <c r="K15" s="3">
         <v>307000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3450000</v>
+        <v>3367300</v>
       </c>
       <c r="E17" s="3">
-        <v>3198100</v>
+        <v>3121400</v>
       </c>
       <c r="F17" s="3">
-        <v>3502800</v>
+        <v>3418800</v>
       </c>
       <c r="G17" s="3">
-        <v>2278800</v>
+        <v>2224100</v>
       </c>
       <c r="H17" s="3">
-        <v>2639900</v>
+        <v>2576600</v>
       </c>
       <c r="I17" s="3">
-        <v>2142800</v>
+        <v>2091400</v>
       </c>
       <c r="J17" s="3">
-        <v>2098500</v>
+        <v>2048200</v>
       </c>
       <c r="K17" s="3">
         <v>2237500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>400700</v>
+        <v>391100</v>
       </c>
       <c r="E18" s="3">
-        <v>503800</v>
+        <v>491700</v>
       </c>
       <c r="F18" s="3">
-        <v>-131100</v>
+        <v>-127900</v>
       </c>
       <c r="G18" s="3">
-        <v>1011100</v>
+        <v>986900</v>
       </c>
       <c r="H18" s="3">
-        <v>316900</v>
+        <v>309300</v>
       </c>
       <c r="I18" s="3">
-        <v>256100</v>
+        <v>250000</v>
       </c>
       <c r="J18" s="3">
-        <v>275600</v>
+        <v>269000</v>
       </c>
       <c r="K18" s="3">
         <v>222500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45300</v>
+        <v>-44200</v>
       </c>
       <c r="E20" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="G20" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="H20" s="3">
-        <v>19900</v>
+        <v>19400</v>
       </c>
       <c r="I20" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="J20" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="K20" s="3">
         <v>109400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>783600</v>
+        <v>762200</v>
       </c>
       <c r="E21" s="3">
-        <v>933300</v>
+        <v>908300</v>
       </c>
       <c r="F21" s="3">
-        <v>180000</v>
+        <v>173900</v>
       </c>
       <c r="G21" s="3">
-        <v>1297000</v>
+        <v>1264200</v>
       </c>
       <c r="H21" s="3">
-        <v>672600</v>
+        <v>654400</v>
       </c>
       <c r="I21" s="3">
-        <v>550400</v>
+        <v>535400</v>
       </c>
       <c r="J21" s="3">
-        <v>571400</v>
+        <v>555900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42000</v>
+        <v>41000</v>
       </c>
       <c r="E22" s="3">
-        <v>52100</v>
+        <v>50800</v>
       </c>
       <c r="F22" s="3">
-        <v>48600</v>
+        <v>47400</v>
       </c>
       <c r="G22" s="3">
-        <v>47500</v>
+        <v>46300</v>
       </c>
       <c r="H22" s="3">
-        <v>52500</v>
+        <v>51200</v>
       </c>
       <c r="I22" s="3">
-        <v>52200</v>
+        <v>51000</v>
       </c>
       <c r="J22" s="3">
-        <v>60100</v>
+        <v>58700</v>
       </c>
       <c r="K22" s="3">
         <v>177800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>313400</v>
+        <v>305900</v>
       </c>
       <c r="E23" s="3">
-        <v>461600</v>
+        <v>450600</v>
       </c>
       <c r="F23" s="3">
-        <v>-155600</v>
+        <v>-151900</v>
       </c>
       <c r="G23" s="3">
-        <v>973200</v>
+        <v>949900</v>
       </c>
       <c r="H23" s="3">
-        <v>284400</v>
+        <v>277500</v>
       </c>
       <c r="I23" s="3">
-        <v>216800</v>
+        <v>211600</v>
       </c>
       <c r="J23" s="3">
-        <v>222600</v>
+        <v>217200</v>
       </c>
       <c r="K23" s="3">
         <v>154100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59300</v>
+        <v>57900</v>
       </c>
       <c r="E24" s="3">
-        <v>74600</v>
+        <v>72800</v>
       </c>
       <c r="F24" s="3">
-        <v>-21500</v>
+        <v>-21000</v>
       </c>
       <c r="G24" s="3">
-        <v>50500</v>
+        <v>49300</v>
       </c>
       <c r="H24" s="3">
-        <v>55500</v>
+        <v>54200</v>
       </c>
       <c r="I24" s="3">
-        <v>47300</v>
+        <v>46200</v>
       </c>
       <c r="J24" s="3">
-        <v>50600</v>
+        <v>49400</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>254100</v>
+        <v>248000</v>
       </c>
       <c r="E26" s="3">
-        <v>387000</v>
+        <v>377800</v>
       </c>
       <c r="F26" s="3">
-        <v>-134100</v>
+        <v>-130800</v>
       </c>
       <c r="G26" s="3">
-        <v>922700</v>
+        <v>900600</v>
       </c>
       <c r="H26" s="3">
-        <v>228800</v>
+        <v>223400</v>
       </c>
       <c r="I26" s="3">
-        <v>169500</v>
+        <v>165500</v>
       </c>
       <c r="J26" s="3">
-        <v>172000</v>
+        <v>167900</v>
       </c>
       <c r="K26" s="3">
         <v>114400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>254100</v>
+        <v>248000</v>
       </c>
       <c r="E27" s="3">
-        <v>387000</v>
+        <v>377800</v>
       </c>
       <c r="F27" s="3">
-        <v>-134100</v>
+        <v>-130800</v>
       </c>
       <c r="G27" s="3">
-        <v>922700</v>
+        <v>900600</v>
       </c>
       <c r="H27" s="3">
-        <v>228800</v>
+        <v>223400</v>
       </c>
       <c r="I27" s="3">
-        <v>169500</v>
+        <v>165500</v>
       </c>
       <c r="J27" s="3">
-        <v>172400</v>
+        <v>168300</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>184700</v>
+        <v>180200</v>
       </c>
       <c r="K29" s="3">
         <v>-61200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45300</v>
+        <v>44200</v>
       </c>
       <c r="E32" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-24000</v>
+        <v>-23400</v>
       </c>
       <c r="G32" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="H32" s="3">
-        <v>-19900</v>
+        <v>-19400</v>
       </c>
       <c r="I32" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="J32" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="K32" s="3">
         <v>-109400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>254100</v>
+        <v>248000</v>
       </c>
       <c r="E33" s="3">
-        <v>387000</v>
+        <v>377800</v>
       </c>
       <c r="F33" s="3">
-        <v>-134100</v>
+        <v>-130800</v>
       </c>
       <c r="G33" s="3">
-        <v>931500</v>
+        <v>909100</v>
       </c>
       <c r="H33" s="3">
-        <v>228800</v>
+        <v>223400</v>
       </c>
       <c r="I33" s="3">
-        <v>169500</v>
+        <v>165500</v>
       </c>
       <c r="J33" s="3">
-        <v>357000</v>
+        <v>348500</v>
       </c>
       <c r="K33" s="3">
         <v>51500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>254100</v>
+        <v>248000</v>
       </c>
       <c r="E35" s="3">
-        <v>387000</v>
+        <v>377800</v>
       </c>
       <c r="F35" s="3">
-        <v>-134100</v>
+        <v>-130800</v>
       </c>
       <c r="G35" s="3">
-        <v>931500</v>
+        <v>909100</v>
       </c>
       <c r="H35" s="3">
-        <v>228800</v>
+        <v>223400</v>
       </c>
       <c r="I35" s="3">
-        <v>169500</v>
+        <v>165500</v>
       </c>
       <c r="J35" s="3">
-        <v>357000</v>
+        <v>348500</v>
       </c>
       <c r="K35" s="3">
         <v>51500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3026900</v>
+        <v>2954400</v>
       </c>
       <c r="E41" s="3">
-        <v>326600</v>
+        <v>318800</v>
       </c>
       <c r="F41" s="3">
-        <v>348300</v>
+        <v>340000</v>
       </c>
       <c r="G41" s="3">
-        <v>409500</v>
+        <v>399700</v>
       </c>
       <c r="H41" s="3">
-        <v>215800</v>
+        <v>210600</v>
       </c>
       <c r="I41" s="3">
-        <v>131900</v>
+        <v>128700</v>
       </c>
       <c r="J41" s="3">
-        <v>186700</v>
+        <v>182200</v>
       </c>
       <c r="K41" s="3">
         <v>189800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>243200</v>
+        <v>237300</v>
       </c>
       <c r="E42" s="3">
-        <v>97900</v>
+        <v>95600</v>
       </c>
       <c r="F42" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="G42" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="H42" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="I42" s="3">
-        <v>143500</v>
+        <v>140000</v>
       </c>
       <c r="J42" s="3">
-        <v>152200</v>
+        <v>148600</v>
       </c>
       <c r="K42" s="3">
         <v>408700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>722700</v>
+        <v>705300</v>
       </c>
       <c r="E43" s="3">
-        <v>651300</v>
+        <v>635700</v>
       </c>
       <c r="F43" s="3">
-        <v>1302100</v>
+        <v>1270900</v>
       </c>
       <c r="G43" s="3">
-        <v>562000</v>
+        <v>548500</v>
       </c>
       <c r="H43" s="3">
-        <v>493700</v>
+        <v>481900</v>
       </c>
       <c r="I43" s="3">
-        <v>425600</v>
+        <v>415400</v>
       </c>
       <c r="J43" s="3">
-        <v>402300</v>
+        <v>392700</v>
       </c>
       <c r="K43" s="3">
         <v>505900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>179100</v>
+        <v>174800</v>
       </c>
       <c r="E44" s="3">
-        <v>145200</v>
+        <v>141800</v>
       </c>
       <c r="F44" s="3">
-        <v>281500</v>
+        <v>274700</v>
       </c>
       <c r="G44" s="3">
-        <v>115000</v>
+        <v>112200</v>
       </c>
       <c r="H44" s="3">
-        <v>109100</v>
+        <v>106500</v>
       </c>
       <c r="I44" s="3">
-        <v>76000</v>
+        <v>74100</v>
       </c>
       <c r="J44" s="3">
-        <v>80300</v>
+        <v>78400</v>
       </c>
       <c r="K44" s="3">
         <v>87600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47600</v>
+        <v>46500</v>
       </c>
       <c r="E45" s="3">
-        <v>41300</v>
+        <v>40300</v>
       </c>
       <c r="F45" s="3">
-        <v>50300</v>
+        <v>49100</v>
       </c>
       <c r="G45" s="3">
-        <v>77900</v>
+        <v>76000</v>
       </c>
       <c r="H45" s="3">
-        <v>288600</v>
+        <v>281700</v>
       </c>
       <c r="I45" s="3">
-        <v>39500</v>
+        <v>38600</v>
       </c>
       <c r="J45" s="3">
-        <v>35600</v>
+        <v>34700</v>
       </c>
       <c r="K45" s="3">
         <v>79800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4219400</v>
+        <v>4118300</v>
       </c>
       <c r="E46" s="3">
-        <v>1262500</v>
+        <v>1232200</v>
       </c>
       <c r="F46" s="3">
-        <v>1011300</v>
+        <v>987000</v>
       </c>
       <c r="G46" s="3">
-        <v>1178500</v>
+        <v>1150200</v>
       </c>
       <c r="H46" s="3">
-        <v>1122900</v>
+        <v>1096000</v>
       </c>
       <c r="I46" s="3">
-        <v>816500</v>
+        <v>796900</v>
       </c>
       <c r="J46" s="3">
-        <v>857100</v>
+        <v>836600</v>
       </c>
       <c r="K46" s="3">
         <v>1271700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>147700</v>
+        <v>144200</v>
       </c>
       <c r="E47" s="3">
-        <v>147400</v>
+        <v>143900</v>
       </c>
       <c r="F47" s="3">
-        <v>495900</v>
+        <v>484000</v>
       </c>
       <c r="G47" s="3">
-        <v>395400</v>
+        <v>385900</v>
       </c>
       <c r="H47" s="3">
-        <v>39300</v>
+        <v>38300</v>
       </c>
       <c r="I47" s="3">
-        <v>35900</v>
+        <v>35000</v>
       </c>
       <c r="J47" s="3">
-        <v>35500</v>
+        <v>34600</v>
       </c>
       <c r="K47" s="3">
         <v>29400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>845800</v>
+        <v>825500</v>
       </c>
       <c r="E48" s="3">
-        <v>835900</v>
+        <v>815800</v>
       </c>
       <c r="F48" s="3">
-        <v>1191700</v>
+        <v>1163100</v>
       </c>
       <c r="G48" s="3">
-        <v>532200</v>
+        <v>519400</v>
       </c>
       <c r="H48" s="3">
-        <v>567700</v>
+        <v>554100</v>
       </c>
       <c r="I48" s="3">
-        <v>650700</v>
+        <v>635100</v>
       </c>
       <c r="J48" s="3">
-        <v>689400</v>
+        <v>672900</v>
       </c>
       <c r="K48" s="3">
         <v>743600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2621300</v>
+        <v>2558500</v>
       </c>
       <c r="E49" s="3">
-        <v>2282200</v>
+        <v>2227500</v>
       </c>
       <c r="F49" s="3">
-        <v>4116200</v>
+        <v>4017500</v>
       </c>
       <c r="G49" s="3">
-        <v>1664100</v>
+        <v>1624200</v>
       </c>
       <c r="H49" s="3">
-        <v>1363200</v>
+        <v>1330600</v>
       </c>
       <c r="I49" s="3">
-        <v>1116000</v>
+        <v>1089200</v>
       </c>
       <c r="J49" s="3">
-        <v>588200</v>
+        <v>574100</v>
       </c>
       <c r="K49" s="3">
         <v>583600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>127800</v>
+        <v>124700</v>
       </c>
       <c r="E52" s="3">
-        <v>101300</v>
+        <v>98900</v>
       </c>
       <c r="F52" s="3">
-        <v>41500</v>
+        <v>40500</v>
       </c>
       <c r="G52" s="3">
-        <v>468200</v>
+        <v>457000</v>
       </c>
       <c r="H52" s="3">
-        <v>374600</v>
+        <v>365700</v>
       </c>
       <c r="I52" s="3">
-        <v>327900</v>
+        <v>320000</v>
       </c>
       <c r="J52" s="3">
-        <v>268800</v>
+        <v>262400</v>
       </c>
       <c r="K52" s="3">
         <v>109900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7962100</v>
+        <v>7771200</v>
       </c>
       <c r="E54" s="3">
-        <v>4629200</v>
+        <v>4518300</v>
       </c>
       <c r="F54" s="3">
-        <v>4202500</v>
+        <v>4101800</v>
       </c>
       <c r="G54" s="3">
-        <v>4238300</v>
+        <v>4136700</v>
       </c>
       <c r="H54" s="3">
-        <v>3467800</v>
+        <v>3384700</v>
       </c>
       <c r="I54" s="3">
-        <v>2946900</v>
+        <v>2876200</v>
       </c>
       <c r="J54" s="3">
-        <v>2439000</v>
+        <v>2380500</v>
       </c>
       <c r="K54" s="3">
         <v>2738100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>248600</v>
+        <v>242700</v>
       </c>
       <c r="E57" s="3">
-        <v>256300</v>
+        <v>250100</v>
       </c>
       <c r="F57" s="3">
-        <v>1073700</v>
+        <v>1048000</v>
       </c>
       <c r="G57" s="3">
-        <v>207700</v>
+        <v>202700</v>
       </c>
       <c r="H57" s="3">
-        <v>163400</v>
+        <v>159500</v>
       </c>
       <c r="I57" s="3">
-        <v>127100</v>
+        <v>124100</v>
       </c>
       <c r="J57" s="3">
-        <v>131600</v>
+        <v>128500</v>
       </c>
       <c r="K57" s="3">
         <v>187700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2617500</v>
+        <v>2554800</v>
       </c>
       <c r="E58" s="3">
-        <v>207000</v>
+        <v>202100</v>
       </c>
       <c r="F58" s="3">
-        <v>948900</v>
+        <v>926200</v>
       </c>
       <c r="G58" s="3">
-        <v>92700</v>
+        <v>90500</v>
       </c>
       <c r="H58" s="3">
-        <v>105600</v>
+        <v>103000</v>
       </c>
       <c r="I58" s="3">
-        <v>453600</v>
+        <v>442700</v>
       </c>
       <c r="J58" s="3">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="K58" s="3">
         <v>564100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1167800</v>
+        <v>1139800</v>
       </c>
       <c r="E59" s="3">
-        <v>785700</v>
+        <v>766800</v>
       </c>
       <c r="F59" s="3">
-        <v>750900</v>
+        <v>732900</v>
       </c>
       <c r="G59" s="3">
-        <v>673000</v>
+        <v>656900</v>
       </c>
       <c r="H59" s="3">
-        <v>657900</v>
+        <v>642100</v>
       </c>
       <c r="I59" s="3">
-        <v>582100</v>
+        <v>568100</v>
       </c>
       <c r="J59" s="3">
-        <v>555300</v>
+        <v>542000</v>
       </c>
       <c r="K59" s="3">
         <v>678100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4034000</v>
+        <v>3937300</v>
       </c>
       <c r="E60" s="3">
-        <v>1249000</v>
+        <v>1219000</v>
       </c>
       <c r="F60" s="3">
-        <v>1697400</v>
+        <v>1656700</v>
       </c>
       <c r="G60" s="3">
-        <v>973500</v>
+        <v>950100</v>
       </c>
       <c r="H60" s="3">
-        <v>926800</v>
+        <v>904600</v>
       </c>
       <c r="I60" s="3">
-        <v>1162800</v>
+        <v>1134900</v>
       </c>
       <c r="J60" s="3">
-        <v>703900</v>
+        <v>687000</v>
       </c>
       <c r="K60" s="3">
         <v>1429900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2017600</v>
+        <v>1969200</v>
       </c>
       <c r="E61" s="3">
-        <v>1642000</v>
+        <v>1602600</v>
       </c>
       <c r="F61" s="3">
-        <v>1014800</v>
+        <v>990500</v>
       </c>
       <c r="G61" s="3">
-        <v>1591400</v>
+        <v>1553300</v>
       </c>
       <c r="H61" s="3">
-        <v>1718900</v>
+        <v>1677700</v>
       </c>
       <c r="I61" s="3">
-        <v>1180200</v>
+        <v>1151900</v>
       </c>
       <c r="J61" s="3">
-        <v>1331200</v>
+        <v>1299300</v>
       </c>
       <c r="K61" s="3">
         <v>1404100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>368600</v>
+        <v>359800</v>
       </c>
       <c r="E62" s="3">
-        <v>371400</v>
+        <v>362500</v>
       </c>
       <c r="F62" s="3">
-        <v>354900</v>
+        <v>346400</v>
       </c>
       <c r="G62" s="3">
-        <v>399600</v>
+        <v>390000</v>
       </c>
       <c r="H62" s="3">
-        <v>330200</v>
+        <v>322300</v>
       </c>
       <c r="I62" s="3">
-        <v>314600</v>
+        <v>307100</v>
       </c>
       <c r="J62" s="3">
-        <v>267600</v>
+        <v>261200</v>
       </c>
       <c r="K62" s="3">
         <v>222700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6421400</v>
+        <v>6267500</v>
       </c>
       <c r="E66" s="3">
-        <v>3263100</v>
+        <v>3184900</v>
       </c>
       <c r="F66" s="3">
-        <v>3067600</v>
+        <v>2994000</v>
       </c>
       <c r="G66" s="3">
-        <v>2964900</v>
+        <v>2893800</v>
       </c>
       <c r="H66" s="3">
-        <v>2976100</v>
+        <v>2904700</v>
       </c>
       <c r="I66" s="3">
-        <v>2657300</v>
+        <v>2593600</v>
       </c>
       <c r="J66" s="3">
-        <v>2302400</v>
+        <v>2247200</v>
       </c>
       <c r="K66" s="3">
         <v>3056900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1797900</v>
+        <v>1754800</v>
       </c>
       <c r="E72" s="3">
-        <v>1543500</v>
+        <v>1506500</v>
       </c>
       <c r="F72" s="3">
-        <v>1253200</v>
+        <v>1223100</v>
       </c>
       <c r="G72" s="3">
-        <v>1424900</v>
+        <v>1390700</v>
       </c>
       <c r="H72" s="3">
-        <v>527400</v>
+        <v>514700</v>
       </c>
       <c r="I72" s="3">
-        <v>332500</v>
+        <v>324500</v>
       </c>
       <c r="J72" s="3">
-        <v>184000</v>
+        <v>179600</v>
       </c>
       <c r="K72" s="3">
         <v>-246100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1540700</v>
+        <v>1503700</v>
       </c>
       <c r="E76" s="3">
-        <v>1366100</v>
+        <v>1333400</v>
       </c>
       <c r="F76" s="3">
-        <v>1134900</v>
+        <v>1107700</v>
       </c>
       <c r="G76" s="3">
-        <v>1273400</v>
+        <v>1242800</v>
       </c>
       <c r="H76" s="3">
-        <v>491800</v>
+        <v>480000</v>
       </c>
       <c r="I76" s="3">
-        <v>289500</v>
+        <v>282600</v>
       </c>
       <c r="J76" s="3">
-        <v>136700</v>
+        <v>133400</v>
       </c>
       <c r="K76" s="3">
         <v>-318700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>254100</v>
+        <v>248000</v>
       </c>
       <c r="E81" s="3">
-        <v>387000</v>
+        <v>377800</v>
       </c>
       <c r="F81" s="3">
-        <v>-134100</v>
+        <v>-130800</v>
       </c>
       <c r="G81" s="3">
-        <v>931500</v>
+        <v>909100</v>
       </c>
       <c r="H81" s="3">
-        <v>228800</v>
+        <v>223400</v>
       </c>
       <c r="I81" s="3">
-        <v>169500</v>
+        <v>165500</v>
       </c>
       <c r="J81" s="3">
-        <v>357000</v>
+        <v>348500</v>
       </c>
       <c r="K81" s="3">
         <v>51500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>424500</v>
+        <v>414400</v>
       </c>
       <c r="E83" s="3">
-        <v>416000</v>
+        <v>406000</v>
       </c>
       <c r="F83" s="3">
-        <v>284600</v>
+        <v>277800</v>
       </c>
       <c r="G83" s="3">
-        <v>274000</v>
+        <v>267400</v>
       </c>
       <c r="H83" s="3">
-        <v>332900</v>
+        <v>324900</v>
       </c>
       <c r="I83" s="3">
-        <v>278900</v>
+        <v>272200</v>
       </c>
       <c r="J83" s="3">
-        <v>286300</v>
+        <v>279400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>742200</v>
+        <v>724400</v>
       </c>
       <c r="E89" s="3">
-        <v>631300</v>
+        <v>616200</v>
       </c>
       <c r="F89" s="3">
-        <v>495900</v>
+        <v>484000</v>
       </c>
       <c r="G89" s="3">
-        <v>518000</v>
+        <v>505600</v>
       </c>
       <c r="H89" s="3">
-        <v>494400</v>
+        <v>482500</v>
       </c>
       <c r="I89" s="3">
-        <v>436400</v>
+        <v>426000</v>
       </c>
       <c r="J89" s="3">
-        <v>365800</v>
+        <v>357000</v>
       </c>
       <c r="K89" s="3">
         <v>340400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-177200</v>
+        <v>-172900</v>
       </c>
       <c r="E91" s="3">
-        <v>-191100</v>
+        <v>-186500</v>
       </c>
       <c r="F91" s="3">
-        <v>-200700</v>
+        <v>-195900</v>
       </c>
       <c r="G91" s="3">
-        <v>-237700</v>
+        <v>-232000</v>
       </c>
       <c r="H91" s="3">
-        <v>-253900</v>
+        <v>-247900</v>
       </c>
       <c r="I91" s="3">
-        <v>-217100</v>
+        <v>-211900</v>
       </c>
       <c r="J91" s="3">
-        <v>-236100</v>
+        <v>-230400</v>
       </c>
       <c r="K91" s="3">
         <v>-276100</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-446000</v>
+        <v>-435300</v>
       </c>
       <c r="E94" s="3">
-        <v>-83300</v>
+        <v>-81300</v>
       </c>
       <c r="F94" s="3">
-        <v>-623000</v>
+        <v>-608000</v>
       </c>
       <c r="G94" s="3">
-        <v>-19800</v>
+        <v>-19300</v>
       </c>
       <c r="H94" s="3">
-        <v>-408500</v>
+        <v>-398700</v>
       </c>
       <c r="I94" s="3">
-        <v>-725400</v>
+        <v>-708000</v>
       </c>
       <c r="J94" s="3">
         <v>1200</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-117000</v>
+        <v>-114200</v>
       </c>
       <c r="F96" s="3">
-        <v>-101200</v>
+        <v>-98800</v>
       </c>
       <c r="G96" s="3">
-        <v>-87700</v>
+        <v>-85600</v>
       </c>
       <c r="H96" s="3">
-        <v>-75700</v>
+        <v>-73900</v>
       </c>
       <c r="I96" s="3">
-        <v>-66700</v>
+        <v>-65100</v>
       </c>
       <c r="J96" s="3">
-        <v>-58900</v>
+        <v>-57500</v>
       </c>
       <c r="K96" s="3">
         <v>-53000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>84800</v>
+        <v>82800</v>
       </c>
       <c r="E100" s="3">
-        <v>-301800</v>
+        <v>-294600</v>
       </c>
       <c r="F100" s="3">
-        <v>-157800</v>
+        <v>-154000</v>
       </c>
       <c r="G100" s="3">
-        <v>-224500</v>
+        <v>-219100</v>
       </c>
       <c r="H100" s="3">
-        <v>-93000</v>
+        <v>-90800</v>
       </c>
       <c r="I100" s="3">
-        <v>169000</v>
+        <v>164900</v>
       </c>
       <c r="J100" s="3">
-        <v>-278200</v>
+        <v>-271500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H101" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="I101" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="J101" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>377600</v>
+        <v>368600</v>
       </c>
       <c r="E102" s="3">
-        <v>235900</v>
+        <v>230300</v>
       </c>
       <c r="F102" s="3">
-        <v>-277100</v>
+        <v>-270500</v>
       </c>
       <c r="G102" s="3">
-        <v>270300</v>
+        <v>263800</v>
       </c>
       <c r="H102" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>-127700</v>
+        <v>-124600</v>
       </c>
       <c r="J102" s="3">
-        <v>69100</v>
+        <v>67500</v>
       </c>
       <c r="K102" s="3">
         <v>-103700</v>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3758400</v>
+        <v>3680700</v>
       </c>
       <c r="E8" s="3">
-        <v>3613100</v>
+        <v>3538500</v>
       </c>
       <c r="F8" s="3">
-        <v>3290900</v>
+        <v>3222900</v>
       </c>
       <c r="G8" s="3">
-        <v>3211000</v>
+        <v>3144700</v>
       </c>
       <c r="H8" s="3">
-        <v>2886000</v>
+        <v>2826300</v>
       </c>
       <c r="I8" s="3">
-        <v>2341400</v>
+        <v>2293000</v>
       </c>
       <c r="J8" s="3">
-        <v>2317200</v>
+        <v>2269300</v>
       </c>
       <c r="K8" s="3">
         <v>2459900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>803600</v>
+        <v>787000</v>
       </c>
       <c r="E9" s="3">
-        <v>753000</v>
+        <v>737400</v>
       </c>
       <c r="F9" s="3">
-        <v>681400</v>
+        <v>667300</v>
       </c>
       <c r="G9" s="3">
-        <v>630400</v>
+        <v>617400</v>
       </c>
       <c r="H9" s="3">
-        <v>499400</v>
+        <v>489100</v>
       </c>
       <c r="I9" s="3">
-        <v>410000</v>
+        <v>401500</v>
       </c>
       <c r="J9" s="3">
-        <v>126100</v>
+        <v>123400</v>
       </c>
       <c r="K9" s="3">
         <v>119900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2954800</v>
+        <v>2893700</v>
       </c>
       <c r="E10" s="3">
-        <v>2860100</v>
+        <v>2801000</v>
       </c>
       <c r="F10" s="3">
-        <v>2609500</v>
+        <v>2555600</v>
       </c>
       <c r="G10" s="3">
-        <v>2580600</v>
+        <v>2527300</v>
       </c>
       <c r="H10" s="3">
-        <v>2386500</v>
+        <v>2337200</v>
       </c>
       <c r="I10" s="3">
-        <v>1931400</v>
+        <v>1891500</v>
       </c>
       <c r="J10" s="3">
-        <v>2191100</v>
+        <v>2145800</v>
       </c>
       <c r="K10" s="3">
         <v>2340100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>45100</v>
+        <v>44200</v>
       </c>
       <c r="E14" s="3">
-        <v>-101800</v>
+        <v>-99700</v>
       </c>
       <c r="F14" s="3">
-        <v>494500</v>
+        <v>484300</v>
       </c>
       <c r="G14" s="3">
-        <v>-576000</v>
+        <v>-564100</v>
       </c>
       <c r="H14" s="3">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="I14" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="J14" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="K14" s="3">
         <v>86000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>293200</v>
+        <v>287200</v>
       </c>
       <c r="E15" s="3">
-        <v>294300</v>
+        <v>288200</v>
       </c>
       <c r="F15" s="3">
-        <v>277100</v>
+        <v>271400</v>
       </c>
       <c r="G15" s="3">
-        <v>264500</v>
+        <v>259000</v>
       </c>
       <c r="H15" s="3">
-        <v>325100</v>
+        <v>318300</v>
       </c>
       <c r="I15" s="3">
-        <v>282100</v>
+        <v>276200</v>
       </c>
       <c r="J15" s="3">
-        <v>276300</v>
+        <v>270600</v>
       </c>
       <c r="K15" s="3">
         <v>307000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3367300</v>
+        <v>3297700</v>
       </c>
       <c r="E17" s="3">
-        <v>3121400</v>
+        <v>3056900</v>
       </c>
       <c r="F17" s="3">
-        <v>3418800</v>
+        <v>3348100</v>
       </c>
       <c r="G17" s="3">
-        <v>2224100</v>
+        <v>2178200</v>
       </c>
       <c r="H17" s="3">
-        <v>2576600</v>
+        <v>2523400</v>
       </c>
       <c r="I17" s="3">
-        <v>2091400</v>
+        <v>2048200</v>
       </c>
       <c r="J17" s="3">
-        <v>2048200</v>
+        <v>2005800</v>
       </c>
       <c r="K17" s="3">
         <v>2237500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>391100</v>
+        <v>383000</v>
       </c>
       <c r="E18" s="3">
-        <v>491700</v>
+        <v>481500</v>
       </c>
       <c r="F18" s="3">
-        <v>-127900</v>
+        <v>-125300</v>
       </c>
       <c r="G18" s="3">
-        <v>986900</v>
+        <v>966500</v>
       </c>
       <c r="H18" s="3">
-        <v>309300</v>
+        <v>303000</v>
       </c>
       <c r="I18" s="3">
-        <v>250000</v>
+        <v>244800</v>
       </c>
       <c r="J18" s="3">
-        <v>269000</v>
+        <v>263500</v>
       </c>
       <c r="K18" s="3">
         <v>222500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44200</v>
+        <v>-43300</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="F20" s="3">
-        <v>23400</v>
+        <v>22900</v>
       </c>
       <c r="G20" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="H20" s="3">
-        <v>19400</v>
+        <v>19000</v>
       </c>
       <c r="I20" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="J20" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K20" s="3">
         <v>109400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>762200</v>
+        <v>750000</v>
       </c>
       <c r="E21" s="3">
-        <v>908300</v>
+        <v>893000</v>
       </c>
       <c r="F21" s="3">
-        <v>173900</v>
+        <v>172700</v>
       </c>
       <c r="G21" s="3">
-        <v>1264200</v>
+        <v>1240400</v>
       </c>
       <c r="H21" s="3">
-        <v>654400</v>
+        <v>643700</v>
       </c>
       <c r="I21" s="3">
-        <v>535400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>555900</v>
+        <v>526700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41000</v>
+        <v>40200</v>
       </c>
       <c r="E22" s="3">
-        <v>50800</v>
+        <v>49800</v>
       </c>
       <c r="F22" s="3">
-        <v>47400</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="3">
-        <v>46300</v>
+        <v>45400</v>
       </c>
       <c r="H22" s="3">
-        <v>51200</v>
+        <v>50200</v>
       </c>
       <c r="I22" s="3">
-        <v>51000</v>
+        <v>49900</v>
       </c>
       <c r="J22" s="3">
-        <v>58700</v>
+        <v>57500</v>
       </c>
       <c r="K22" s="3">
         <v>177800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>305900</v>
+        <v>299600</v>
       </c>
       <c r="E23" s="3">
-        <v>450600</v>
+        <v>441300</v>
       </c>
       <c r="F23" s="3">
-        <v>-151900</v>
+        <v>-148700</v>
       </c>
       <c r="G23" s="3">
-        <v>949900</v>
+        <v>930200</v>
       </c>
       <c r="H23" s="3">
-        <v>277500</v>
+        <v>271800</v>
       </c>
       <c r="I23" s="3">
-        <v>211600</v>
+        <v>207300</v>
       </c>
       <c r="J23" s="3">
-        <v>217200</v>
+        <v>212700</v>
       </c>
       <c r="K23" s="3">
         <v>154100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57900</v>
+        <v>56700</v>
       </c>
       <c r="E24" s="3">
-        <v>72800</v>
+        <v>71300</v>
       </c>
       <c r="F24" s="3">
-        <v>-21000</v>
+        <v>-20600</v>
       </c>
       <c r="G24" s="3">
-        <v>49300</v>
+        <v>48200</v>
       </c>
       <c r="H24" s="3">
-        <v>54200</v>
+        <v>53100</v>
       </c>
       <c r="I24" s="3">
-        <v>46200</v>
+        <v>45200</v>
       </c>
       <c r="J24" s="3">
-        <v>49400</v>
+        <v>48400</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>248000</v>
+        <v>242900</v>
       </c>
       <c r="E26" s="3">
-        <v>377800</v>
+        <v>370000</v>
       </c>
       <c r="F26" s="3">
-        <v>-130800</v>
+        <v>-128100</v>
       </c>
       <c r="G26" s="3">
-        <v>900600</v>
+        <v>882000</v>
       </c>
       <c r="H26" s="3">
-        <v>223400</v>
+        <v>218700</v>
       </c>
       <c r="I26" s="3">
-        <v>165500</v>
+        <v>162000</v>
       </c>
       <c r="J26" s="3">
-        <v>167900</v>
+        <v>164400</v>
       </c>
       <c r="K26" s="3">
         <v>114400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>248000</v>
+        <v>242900</v>
       </c>
       <c r="E27" s="3">
-        <v>377800</v>
+        <v>370000</v>
       </c>
       <c r="F27" s="3">
-        <v>-130800</v>
+        <v>-128100</v>
       </c>
       <c r="G27" s="3">
-        <v>900600</v>
+        <v>882000</v>
       </c>
       <c r="H27" s="3">
-        <v>223400</v>
+        <v>218700</v>
       </c>
       <c r="I27" s="3">
-        <v>165500</v>
+        <v>162000</v>
       </c>
       <c r="J27" s="3">
-        <v>168300</v>
+        <v>164800</v>
       </c>
       <c r="K27" s="3">
         <v>112700</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>180200</v>
+        <v>176500</v>
       </c>
       <c r="K29" s="3">
         <v>-61200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44200</v>
+        <v>43300</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="F32" s="3">
-        <v>-23400</v>
+        <v>-22900</v>
       </c>
       <c r="G32" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="H32" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="I32" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="J32" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="K32" s="3">
         <v>-109400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>248000</v>
+        <v>242900</v>
       </c>
       <c r="E33" s="3">
-        <v>377800</v>
+        <v>370000</v>
       </c>
       <c r="F33" s="3">
-        <v>-130800</v>
+        <v>-128100</v>
       </c>
       <c r="G33" s="3">
-        <v>909100</v>
+        <v>890400</v>
       </c>
       <c r="H33" s="3">
-        <v>223400</v>
+        <v>218700</v>
       </c>
       <c r="I33" s="3">
-        <v>165500</v>
+        <v>162000</v>
       </c>
       <c r="J33" s="3">
-        <v>348500</v>
+        <v>341300</v>
       </c>
       <c r="K33" s="3">
         <v>51500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>248000</v>
+        <v>242900</v>
       </c>
       <c r="E35" s="3">
-        <v>377800</v>
+        <v>370000</v>
       </c>
       <c r="F35" s="3">
-        <v>-130800</v>
+        <v>-128100</v>
       </c>
       <c r="G35" s="3">
-        <v>909100</v>
+        <v>890400</v>
       </c>
       <c r="H35" s="3">
-        <v>223400</v>
+        <v>218700</v>
       </c>
       <c r="I35" s="3">
-        <v>165500</v>
+        <v>162000</v>
       </c>
       <c r="J35" s="3">
-        <v>348500</v>
+        <v>341300</v>
       </c>
       <c r="K35" s="3">
         <v>51500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2954400</v>
+        <v>871300</v>
       </c>
       <c r="E41" s="3">
-        <v>318800</v>
+        <v>2893300</v>
       </c>
       <c r="F41" s="3">
-        <v>340000</v>
+        <v>312200</v>
       </c>
       <c r="G41" s="3">
-        <v>399700</v>
+        <v>332900</v>
       </c>
       <c r="H41" s="3">
-        <v>210600</v>
+        <v>391500</v>
       </c>
       <c r="I41" s="3">
-        <v>128700</v>
+        <v>206200</v>
       </c>
       <c r="J41" s="3">
-        <v>182200</v>
+        <v>126100</v>
       </c>
       <c r="K41" s="3">
         <v>189800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>237300</v>
+        <v>2100</v>
       </c>
       <c r="E42" s="3">
-        <v>95600</v>
+        <v>232400</v>
       </c>
       <c r="F42" s="3">
-        <v>8900</v>
+        <v>93600</v>
       </c>
       <c r="G42" s="3">
-        <v>13700</v>
+        <v>8700</v>
       </c>
       <c r="H42" s="3">
-        <v>15400</v>
+        <v>13400</v>
       </c>
       <c r="I42" s="3">
-        <v>140000</v>
+        <v>15100</v>
       </c>
       <c r="J42" s="3">
-        <v>148600</v>
+        <v>137100</v>
       </c>
       <c r="K42" s="3">
         <v>408700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>705300</v>
+        <v>697900</v>
       </c>
       <c r="E43" s="3">
-        <v>635700</v>
+        <v>690800</v>
       </c>
       <c r="F43" s="3">
-        <v>1270900</v>
+        <v>622600</v>
       </c>
       <c r="G43" s="3">
-        <v>548500</v>
+        <v>1244700</v>
       </c>
       <c r="H43" s="3">
-        <v>481900</v>
+        <v>537200</v>
       </c>
       <c r="I43" s="3">
-        <v>415400</v>
+        <v>471900</v>
       </c>
       <c r="J43" s="3">
-        <v>392700</v>
+        <v>406900</v>
       </c>
       <c r="K43" s="3">
         <v>505900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>174800</v>
+        <v>176900</v>
       </c>
       <c r="E44" s="3">
-        <v>141800</v>
+        <v>171200</v>
       </c>
       <c r="F44" s="3">
-        <v>274700</v>
+        <v>138800</v>
       </c>
       <c r="G44" s="3">
-        <v>112200</v>
+        <v>269100</v>
       </c>
       <c r="H44" s="3">
-        <v>106500</v>
+        <v>109900</v>
       </c>
       <c r="I44" s="3">
-        <v>74100</v>
+        <v>104300</v>
       </c>
       <c r="J44" s="3">
-        <v>78400</v>
+        <v>72600</v>
       </c>
       <c r="K44" s="3">
         <v>87600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46500</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>40300</v>
+        <v>45500</v>
       </c>
       <c r="F45" s="3">
-        <v>49100</v>
+        <v>39500</v>
       </c>
       <c r="G45" s="3">
-        <v>76000</v>
+        <v>48100</v>
       </c>
       <c r="H45" s="3">
-        <v>281700</v>
+        <v>74400</v>
       </c>
       <c r="I45" s="3">
-        <v>38600</v>
+        <v>275800</v>
       </c>
       <c r="J45" s="3">
-        <v>34700</v>
+        <v>37800</v>
       </c>
       <c r="K45" s="3">
         <v>79800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4118300</v>
+        <v>1751500</v>
       </c>
       <c r="E46" s="3">
-        <v>1232200</v>
+        <v>4033200</v>
       </c>
       <c r="F46" s="3">
-        <v>987000</v>
+        <v>1206700</v>
       </c>
       <c r="G46" s="3">
-        <v>1150200</v>
+        <v>966600</v>
       </c>
       <c r="H46" s="3">
-        <v>1096000</v>
+        <v>1126400</v>
       </c>
       <c r="I46" s="3">
-        <v>796900</v>
+        <v>1073400</v>
       </c>
       <c r="J46" s="3">
-        <v>836600</v>
+        <v>780500</v>
       </c>
       <c r="K46" s="3">
         <v>1271700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>144200</v>
+        <v>155400</v>
       </c>
       <c r="E47" s="3">
-        <v>143900</v>
+        <v>141200</v>
       </c>
       <c r="F47" s="3">
-        <v>484000</v>
+        <v>140900</v>
       </c>
       <c r="G47" s="3">
-        <v>385900</v>
+        <v>474000</v>
       </c>
       <c r="H47" s="3">
-        <v>38300</v>
+        <v>377900</v>
       </c>
       <c r="I47" s="3">
-        <v>35000</v>
+        <v>37500</v>
       </c>
       <c r="J47" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="K47" s="3">
         <v>29400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>825500</v>
+        <v>815500</v>
       </c>
       <c r="E48" s="3">
-        <v>815800</v>
+        <v>808500</v>
       </c>
       <c r="F48" s="3">
-        <v>1163100</v>
+        <v>799000</v>
       </c>
       <c r="G48" s="3">
-        <v>519400</v>
+        <v>1139100</v>
       </c>
       <c r="H48" s="3">
-        <v>554100</v>
+        <v>508700</v>
       </c>
       <c r="I48" s="3">
-        <v>635100</v>
+        <v>542700</v>
       </c>
       <c r="J48" s="3">
-        <v>672900</v>
+        <v>621900</v>
       </c>
       <c r="K48" s="3">
         <v>743600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2558500</v>
+        <v>2821400</v>
       </c>
       <c r="E49" s="3">
-        <v>2227500</v>
+        <v>2505600</v>
       </c>
       <c r="F49" s="3">
-        <v>4017500</v>
+        <v>2181400</v>
       </c>
       <c r="G49" s="3">
-        <v>1624200</v>
+        <v>3934500</v>
       </c>
       <c r="H49" s="3">
-        <v>1330600</v>
+        <v>1590600</v>
       </c>
       <c r="I49" s="3">
-        <v>1089200</v>
+        <v>1303100</v>
       </c>
       <c r="J49" s="3">
-        <v>574100</v>
+        <v>1066700</v>
       </c>
       <c r="K49" s="3">
         <v>583600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>124700</v>
+        <v>91800</v>
       </c>
       <c r="E52" s="3">
-        <v>98900</v>
+        <v>122100</v>
       </c>
       <c r="F52" s="3">
-        <v>40500</v>
+        <v>96900</v>
       </c>
       <c r="G52" s="3">
-        <v>457000</v>
+        <v>39600</v>
       </c>
       <c r="H52" s="3">
-        <v>365700</v>
+        <v>447500</v>
       </c>
       <c r="I52" s="3">
-        <v>320000</v>
+        <v>358100</v>
       </c>
       <c r="J52" s="3">
-        <v>262400</v>
+        <v>313400</v>
       </c>
       <c r="K52" s="3">
         <v>109900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7771200</v>
+        <v>5635500</v>
       </c>
       <c r="E54" s="3">
-        <v>4518300</v>
+        <v>7610600</v>
       </c>
       <c r="F54" s="3">
-        <v>4101800</v>
+        <v>4424900</v>
       </c>
       <c r="G54" s="3">
-        <v>4136700</v>
+        <v>4017000</v>
       </c>
       <c r="H54" s="3">
-        <v>3384700</v>
+        <v>4051200</v>
       </c>
       <c r="I54" s="3">
-        <v>2876200</v>
+        <v>3314800</v>
       </c>
       <c r="J54" s="3">
-        <v>2380500</v>
+        <v>2816800</v>
       </c>
       <c r="K54" s="3">
         <v>2738100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>242700</v>
+        <v>995900</v>
       </c>
       <c r="E57" s="3">
-        <v>250100</v>
+        <v>237600</v>
       </c>
       <c r="F57" s="3">
-        <v>1048000</v>
+        <v>244900</v>
       </c>
       <c r="G57" s="3">
-        <v>202700</v>
+        <v>1026300</v>
       </c>
       <c r="H57" s="3">
-        <v>159500</v>
+        <v>198500</v>
       </c>
       <c r="I57" s="3">
-        <v>124100</v>
+        <v>156200</v>
       </c>
       <c r="J57" s="3">
-        <v>128500</v>
+        <v>121500</v>
       </c>
       <c r="K57" s="3">
         <v>187700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2554800</v>
+        <v>700200</v>
       </c>
       <c r="E58" s="3">
-        <v>202100</v>
+        <v>2502000</v>
       </c>
       <c r="F58" s="3">
-        <v>926200</v>
+        <v>197900</v>
       </c>
       <c r="G58" s="3">
-        <v>90500</v>
+        <v>907000</v>
       </c>
       <c r="H58" s="3">
-        <v>103000</v>
+        <v>88600</v>
       </c>
       <c r="I58" s="3">
-        <v>442700</v>
+        <v>100900</v>
       </c>
       <c r="J58" s="3">
-        <v>16500</v>
+        <v>433600</v>
       </c>
       <c r="K58" s="3">
         <v>564100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1139800</v>
+        <v>115400</v>
       </c>
       <c r="E59" s="3">
-        <v>766800</v>
+        <v>1116300</v>
       </c>
       <c r="F59" s="3">
-        <v>732900</v>
+        <v>751000</v>
       </c>
       <c r="G59" s="3">
-        <v>656900</v>
+        <v>717800</v>
       </c>
       <c r="H59" s="3">
-        <v>642100</v>
+        <v>643300</v>
       </c>
       <c r="I59" s="3">
-        <v>568100</v>
+        <v>628900</v>
       </c>
       <c r="J59" s="3">
-        <v>542000</v>
+        <v>556400</v>
       </c>
       <c r="K59" s="3">
         <v>678100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3937300</v>
+        <v>1811500</v>
       </c>
       <c r="E60" s="3">
-        <v>1219000</v>
+        <v>3855900</v>
       </c>
       <c r="F60" s="3">
-        <v>1656700</v>
+        <v>1193800</v>
       </c>
       <c r="G60" s="3">
-        <v>950100</v>
+        <v>1622400</v>
       </c>
       <c r="H60" s="3">
-        <v>904600</v>
+        <v>930500</v>
       </c>
       <c r="I60" s="3">
-        <v>1134900</v>
+        <v>885900</v>
       </c>
       <c r="J60" s="3">
-        <v>687000</v>
+        <v>1111400</v>
       </c>
       <c r="K60" s="3">
         <v>1429900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1969200</v>
+        <v>1818900</v>
       </c>
       <c r="E61" s="3">
-        <v>1602600</v>
+        <v>1928500</v>
       </c>
       <c r="F61" s="3">
-        <v>990500</v>
+        <v>1569500</v>
       </c>
       <c r="G61" s="3">
-        <v>1553300</v>
+        <v>970000</v>
       </c>
       <c r="H61" s="3">
-        <v>1677700</v>
+        <v>1521200</v>
       </c>
       <c r="I61" s="3">
-        <v>1151900</v>
+        <v>1643000</v>
       </c>
       <c r="J61" s="3">
-        <v>1299300</v>
+        <v>1128100</v>
       </c>
       <c r="K61" s="3">
         <v>1404100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>359800</v>
+        <v>357600</v>
       </c>
       <c r="E62" s="3">
-        <v>362500</v>
+        <v>352400</v>
       </c>
       <c r="F62" s="3">
-        <v>346400</v>
+        <v>355000</v>
       </c>
       <c r="G62" s="3">
-        <v>390000</v>
+        <v>339200</v>
       </c>
       <c r="H62" s="3">
-        <v>322300</v>
+        <v>382000</v>
       </c>
       <c r="I62" s="3">
-        <v>307100</v>
+        <v>315600</v>
       </c>
       <c r="J62" s="3">
-        <v>261200</v>
+        <v>300700</v>
       </c>
       <c r="K62" s="3">
         <v>222700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6267500</v>
+        <v>3987300</v>
       </c>
       <c r="E66" s="3">
-        <v>3184900</v>
+        <v>6138000</v>
       </c>
       <c r="F66" s="3">
-        <v>2994000</v>
+        <v>3119100</v>
       </c>
       <c r="G66" s="3">
-        <v>2893800</v>
+        <v>2932200</v>
       </c>
       <c r="H66" s="3">
-        <v>2904700</v>
+        <v>2834000</v>
       </c>
       <c r="I66" s="3">
-        <v>2593600</v>
+        <v>2844700</v>
       </c>
       <c r="J66" s="3">
-        <v>2247200</v>
+        <v>2540000</v>
       </c>
       <c r="K66" s="3">
         <v>3056900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1754800</v>
+        <v>1615100</v>
       </c>
       <c r="E72" s="3">
-        <v>1506500</v>
+        <v>1718500</v>
       </c>
       <c r="F72" s="3">
-        <v>1223100</v>
+        <v>1475400</v>
       </c>
       <c r="G72" s="3">
-        <v>1390700</v>
+        <v>1197900</v>
       </c>
       <c r="H72" s="3">
-        <v>514700</v>
+        <v>1362000</v>
       </c>
       <c r="I72" s="3">
-        <v>324500</v>
+        <v>504100</v>
       </c>
       <c r="J72" s="3">
-        <v>179600</v>
+        <v>317800</v>
       </c>
       <c r="K72" s="3">
         <v>-246100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1503700</v>
+        <v>1648300</v>
       </c>
       <c r="E76" s="3">
-        <v>1333400</v>
+        <v>1472700</v>
       </c>
       <c r="F76" s="3">
-        <v>1107700</v>
+        <v>1305800</v>
       </c>
       <c r="G76" s="3">
-        <v>1242800</v>
+        <v>1084800</v>
       </c>
       <c r="H76" s="3">
-        <v>480000</v>
+        <v>1217200</v>
       </c>
       <c r="I76" s="3">
-        <v>282600</v>
+        <v>470100</v>
       </c>
       <c r="J76" s="3">
-        <v>133400</v>
+        <v>276800</v>
       </c>
       <c r="K76" s="3">
         <v>-318700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>248000</v>
+        <v>242900</v>
       </c>
       <c r="E81" s="3">
-        <v>377800</v>
+        <v>370000</v>
       </c>
       <c r="F81" s="3">
-        <v>-130800</v>
+        <v>-128100</v>
       </c>
       <c r="G81" s="3">
-        <v>909100</v>
+        <v>890400</v>
       </c>
       <c r="H81" s="3">
-        <v>223400</v>
+        <v>218700</v>
       </c>
       <c r="I81" s="3">
-        <v>165500</v>
+        <v>162000</v>
       </c>
       <c r="J81" s="3">
-        <v>348500</v>
+        <v>341300</v>
       </c>
       <c r="K81" s="3">
         <v>51500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>414400</v>
+        <v>405800</v>
       </c>
       <c r="E83" s="3">
-        <v>406000</v>
+        <v>397600</v>
       </c>
       <c r="F83" s="3">
-        <v>277800</v>
+        <v>272100</v>
       </c>
       <c r="G83" s="3">
-        <v>267400</v>
+        <v>261900</v>
       </c>
       <c r="H83" s="3">
-        <v>324900</v>
+        <v>318200</v>
       </c>
       <c r="I83" s="3">
-        <v>272200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>279400</v>
+        <v>266600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>724400</v>
+        <v>709400</v>
       </c>
       <c r="E89" s="3">
-        <v>616200</v>
+        <v>603400</v>
       </c>
       <c r="F89" s="3">
-        <v>484000</v>
+        <v>474000</v>
       </c>
       <c r="G89" s="3">
-        <v>505600</v>
+        <v>495100</v>
       </c>
       <c r="H89" s="3">
-        <v>482500</v>
+        <v>472600</v>
       </c>
       <c r="I89" s="3">
-        <v>426000</v>
+        <v>417100</v>
       </c>
       <c r="J89" s="3">
-        <v>357000</v>
+        <v>349600</v>
       </c>
       <c r="K89" s="3">
         <v>340400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172900</v>
+        <v>-169300</v>
       </c>
       <c r="E91" s="3">
-        <v>-186500</v>
+        <v>-182600</v>
       </c>
       <c r="F91" s="3">
-        <v>-195900</v>
+        <v>-191900</v>
       </c>
       <c r="G91" s="3">
-        <v>-232000</v>
+        <v>-227200</v>
       </c>
       <c r="H91" s="3">
-        <v>-247900</v>
+        <v>-242700</v>
       </c>
       <c r="I91" s="3">
-        <v>-211900</v>
+        <v>-207500</v>
       </c>
       <c r="J91" s="3">
-        <v>-230400</v>
+        <v>-225700</v>
       </c>
       <c r="K91" s="3">
         <v>-276100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-435300</v>
+        <v>-426300</v>
       </c>
       <c r="E94" s="3">
-        <v>-81300</v>
+        <v>-79600</v>
       </c>
       <c r="F94" s="3">
-        <v>-608000</v>
+        <v>-595500</v>
       </c>
       <c r="G94" s="3">
-        <v>-19300</v>
+        <v>-18900</v>
       </c>
       <c r="H94" s="3">
-        <v>-398700</v>
+        <v>-390400</v>
       </c>
       <c r="I94" s="3">
-        <v>-708000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>1200</v>
+        <v>-693400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-114200</v>
+        <v>-111800</v>
       </c>
       <c r="F96" s="3">
-        <v>-98800</v>
+        <v>-96700</v>
       </c>
       <c r="G96" s="3">
-        <v>-85600</v>
+        <v>-83800</v>
       </c>
       <c r="H96" s="3">
-        <v>-73900</v>
+        <v>-72300</v>
       </c>
       <c r="I96" s="3">
-        <v>-65100</v>
+        <v>-63700</v>
       </c>
       <c r="J96" s="3">
-        <v>-57500</v>
+        <v>-56300</v>
       </c>
       <c r="K96" s="3">
         <v>-53000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>82800</v>
+        <v>81100</v>
       </c>
       <c r="E100" s="3">
-        <v>-294600</v>
+        <v>-288500</v>
       </c>
       <c r="F100" s="3">
-        <v>-154000</v>
+        <v>-150800</v>
       </c>
       <c r="G100" s="3">
-        <v>-219100</v>
+        <v>-214600</v>
       </c>
       <c r="H100" s="3">
-        <v>-90800</v>
+        <v>-88900</v>
       </c>
       <c r="I100" s="3">
-        <v>164900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-271500</v>
+        <v>161500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3714,22 +3714,22 @@
         <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-10000</v>
+        <v>-9800</v>
       </c>
       <c r="F101" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G101" s="3">
         <v>-3300</v>
       </c>
       <c r="H101" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="I101" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-19200</v>
+        <v>-7300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>368600</v>
+        <v>361000</v>
       </c>
       <c r="E102" s="3">
-        <v>230300</v>
+        <v>225500</v>
       </c>
       <c r="F102" s="3">
-        <v>-270500</v>
+        <v>-264900</v>
       </c>
       <c r="G102" s="3">
-        <v>263800</v>
+        <v>258400</v>
       </c>
       <c r="H102" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I102" s="3">
-        <v>-124600</v>
+        <v>-122000</v>
       </c>
       <c r="J102" s="3">
-        <v>67500</v>
+        <v>66100</v>
       </c>
       <c r="K102" s="3">
         <v>-103700</v>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>RTOKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3680700</v>
+        <v>3606800</v>
       </c>
       <c r="E8" s="3">
-        <v>3538500</v>
+        <v>3419700</v>
       </c>
       <c r="F8" s="3">
-        <v>3222900</v>
+        <v>3311300</v>
       </c>
       <c r="G8" s="3">
-        <v>3144700</v>
+        <v>3016000</v>
       </c>
       <c r="H8" s="3">
-        <v>2826300</v>
+        <v>2942800</v>
       </c>
       <c r="I8" s="3">
-        <v>2293000</v>
+        <v>2644900</v>
       </c>
       <c r="J8" s="3">
+        <v>2145800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2269300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2459900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2878700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3350300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>787000</v>
+        <v>714900</v>
       </c>
       <c r="E9" s="3">
-        <v>737400</v>
+        <v>711800</v>
       </c>
       <c r="F9" s="3">
-        <v>667300</v>
+        <v>690100</v>
       </c>
       <c r="G9" s="3">
-        <v>617400</v>
+        <v>624500</v>
       </c>
       <c r="H9" s="3">
-        <v>489100</v>
+        <v>577700</v>
       </c>
       <c r="I9" s="3">
-        <v>401500</v>
+        <v>457700</v>
       </c>
       <c r="J9" s="3">
+        <v>375700</v>
+      </c>
+      <c r="K9" s="3">
         <v>123400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>119900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1670800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1633100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2893700</v>
+        <v>2891900</v>
       </c>
       <c r="E10" s="3">
-        <v>2801000</v>
+        <v>2707900</v>
       </c>
       <c r="F10" s="3">
-        <v>2555600</v>
+        <v>2621200</v>
       </c>
       <c r="G10" s="3">
-        <v>2527300</v>
+        <v>2391500</v>
       </c>
       <c r="H10" s="3">
-        <v>2337200</v>
+        <v>2365000</v>
       </c>
       <c r="I10" s="3">
-        <v>1891500</v>
+        <v>2187200</v>
       </c>
       <c r="J10" s="3">
+        <v>1770100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2145800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2340100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1207900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1717200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,21 +874,24 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44200</v>
+        <v>27300</v>
       </c>
       <c r="E14" s="3">
-        <v>-99700</v>
+        <v>41800</v>
       </c>
       <c r="F14" s="3">
-        <v>484300</v>
+        <v>-93300</v>
       </c>
       <c r="G14" s="3">
-        <v>-564100</v>
+        <v>453200</v>
       </c>
       <c r="H14" s="3">
-        <v>21500</v>
+        <v>-527900</v>
       </c>
       <c r="I14" s="3">
-        <v>17300</v>
+        <v>20100</v>
       </c>
       <c r="J14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K14" s="3">
         <v>14600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>86000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>181800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>246800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>287200</v>
+        <v>265700</v>
       </c>
       <c r="E15" s="3">
-        <v>288200</v>
+        <v>429600</v>
       </c>
       <c r="F15" s="3">
-        <v>271400</v>
+        <v>269700</v>
       </c>
       <c r="G15" s="3">
-        <v>259000</v>
+        <v>254000</v>
       </c>
       <c r="H15" s="3">
-        <v>318300</v>
+        <v>242400</v>
       </c>
       <c r="I15" s="3">
-        <v>276200</v>
+        <v>297900</v>
       </c>
       <c r="J15" s="3">
+        <v>258500</v>
+      </c>
+      <c r="K15" s="3">
         <v>270600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>307000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>515800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>331400</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3297700</v>
+        <v>3184100</v>
       </c>
       <c r="E17" s="3">
-        <v>3056900</v>
+        <v>3061300</v>
       </c>
       <c r="F17" s="3">
-        <v>3348100</v>
+        <v>2860700</v>
       </c>
       <c r="G17" s="3">
-        <v>2178200</v>
+        <v>3133200</v>
       </c>
       <c r="H17" s="3">
-        <v>2523400</v>
+        <v>2038300</v>
       </c>
       <c r="I17" s="3">
-        <v>2048200</v>
+        <v>2361400</v>
       </c>
       <c r="J17" s="3">
+        <v>1916700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2005800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2237500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2694200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3363700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>383000</v>
+        <v>422700</v>
       </c>
       <c r="E18" s="3">
-        <v>481500</v>
+        <v>358400</v>
       </c>
       <c r="F18" s="3">
-        <v>-125300</v>
+        <v>450600</v>
       </c>
       <c r="G18" s="3">
-        <v>966500</v>
+        <v>-117200</v>
       </c>
       <c r="H18" s="3">
-        <v>303000</v>
+        <v>904400</v>
       </c>
       <c r="I18" s="3">
-        <v>244800</v>
+        <v>283500</v>
       </c>
       <c r="J18" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K18" s="3">
         <v>263500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>222500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>184500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-43300</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>9500</v>
+        <v>-40500</v>
       </c>
       <c r="F20" s="3">
-        <v>22900</v>
+        <v>8900</v>
       </c>
       <c r="G20" s="3">
-        <v>9100</v>
+        <v>21500</v>
       </c>
       <c r="H20" s="3">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="I20" s="3">
-        <v>12400</v>
+        <v>17800</v>
       </c>
       <c r="J20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>109400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-53100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>750000</v>
+        <v>783200</v>
       </c>
       <c r="E21" s="3">
-        <v>893000</v>
+        <v>717400</v>
       </c>
       <c r="F21" s="3">
-        <v>172700</v>
+        <v>833200</v>
       </c>
       <c r="G21" s="3">
-        <v>1240400</v>
+        <v>159900</v>
       </c>
       <c r="H21" s="3">
-        <v>643700</v>
+        <v>1159100</v>
       </c>
       <c r="I21" s="3">
-        <v>526700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>600300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>491200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>501800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>459400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40200</v>
+        <v>23900</v>
       </c>
       <c r="E22" s="3">
-        <v>49800</v>
+        <v>37600</v>
       </c>
       <c r="F22" s="3">
-        <v>46400</v>
+        <v>46600</v>
       </c>
       <c r="G22" s="3">
-        <v>45400</v>
+        <v>43400</v>
       </c>
       <c r="H22" s="3">
-        <v>50200</v>
+        <v>42500</v>
       </c>
       <c r="I22" s="3">
-        <v>49900</v>
+        <v>47000</v>
       </c>
       <c r="J22" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K22" s="3">
         <v>57500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>177800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65800</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>299600</v>
+        <v>396600</v>
       </c>
       <c r="E23" s="3">
-        <v>441300</v>
+        <v>280300</v>
       </c>
       <c r="F23" s="3">
-        <v>-148700</v>
+        <v>412900</v>
       </c>
       <c r="G23" s="3">
-        <v>930200</v>
+        <v>-139200</v>
       </c>
       <c r="H23" s="3">
-        <v>271800</v>
+        <v>870500</v>
       </c>
       <c r="I23" s="3">
-        <v>207300</v>
+        <v>254300</v>
       </c>
       <c r="J23" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K23" s="3">
         <v>212700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>154100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-66500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56700</v>
+        <v>75500</v>
       </c>
       <c r="E24" s="3">
-        <v>71300</v>
+        <v>53100</v>
       </c>
       <c r="F24" s="3">
-        <v>-20600</v>
+        <v>66700</v>
       </c>
       <c r="G24" s="3">
-        <v>48200</v>
+        <v>-19300</v>
       </c>
       <c r="H24" s="3">
-        <v>53100</v>
+        <v>45100</v>
       </c>
       <c r="I24" s="3">
-        <v>45200</v>
+        <v>49600</v>
       </c>
       <c r="J24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K24" s="3">
         <v>48400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242900</v>
+        <v>321100</v>
       </c>
       <c r="E26" s="3">
-        <v>370000</v>
+        <v>227300</v>
       </c>
       <c r="F26" s="3">
-        <v>-128100</v>
+        <v>346200</v>
       </c>
       <c r="G26" s="3">
-        <v>882000</v>
+        <v>-119900</v>
       </c>
       <c r="H26" s="3">
-        <v>218700</v>
+        <v>825400</v>
       </c>
       <c r="I26" s="3">
-        <v>162000</v>
+        <v>204700</v>
       </c>
       <c r="J26" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K26" s="3">
         <v>164400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>95200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-88400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>242900</v>
+        <v>321100</v>
       </c>
       <c r="E27" s="3">
-        <v>370000</v>
+        <v>226800</v>
       </c>
       <c r="F27" s="3">
-        <v>-128100</v>
+        <v>346200</v>
       </c>
       <c r="G27" s="3">
-        <v>882000</v>
+        <v>-119900</v>
       </c>
       <c r="H27" s="3">
-        <v>218700</v>
+        <v>825400</v>
       </c>
       <c r="I27" s="3">
-        <v>162000</v>
+        <v>204700</v>
       </c>
       <c r="J27" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K27" s="3">
         <v>164800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-91800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,33 +1478,36 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>176500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-61200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-30600</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>43300</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-9500</v>
+        <v>40500</v>
       </c>
       <c r="F32" s="3">
-        <v>-22900</v>
+        <v>-8900</v>
       </c>
       <c r="G32" s="3">
-        <v>-9100</v>
+        <v>-21500</v>
       </c>
       <c r="H32" s="3">
-        <v>-19000</v>
+        <v>-8500</v>
       </c>
       <c r="I32" s="3">
-        <v>-12400</v>
+        <v>-17800</v>
       </c>
       <c r="J32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-109400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>53100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>242900</v>
+        <v>321100</v>
       </c>
       <c r="E33" s="3">
-        <v>370000</v>
+        <v>226800</v>
       </c>
       <c r="F33" s="3">
-        <v>-128100</v>
+        <v>346200</v>
       </c>
       <c r="G33" s="3">
-        <v>890400</v>
+        <v>-119900</v>
       </c>
       <c r="H33" s="3">
-        <v>218700</v>
+        <v>833200</v>
       </c>
       <c r="I33" s="3">
-        <v>162000</v>
+        <v>204700</v>
       </c>
       <c r="J33" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K33" s="3">
         <v>341300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-91800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>242900</v>
+        <v>321100</v>
       </c>
       <c r="E35" s="3">
-        <v>370000</v>
+        <v>226800</v>
       </c>
       <c r="F35" s="3">
-        <v>-128100</v>
+        <v>346200</v>
       </c>
       <c r="G35" s="3">
-        <v>890400</v>
+        <v>-119900</v>
       </c>
       <c r="H35" s="3">
-        <v>218700</v>
+        <v>833200</v>
       </c>
       <c r="I35" s="3">
-        <v>162000</v>
+        <v>204700</v>
       </c>
       <c r="J35" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K35" s="3">
         <v>341300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-91800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>871300</v>
+        <v>740000</v>
       </c>
       <c r="E41" s="3">
-        <v>2893300</v>
+        <v>2370800</v>
       </c>
       <c r="F41" s="3">
-        <v>312200</v>
+        <v>292200</v>
       </c>
       <c r="G41" s="3">
-        <v>332900</v>
+        <v>311600</v>
       </c>
       <c r="H41" s="3">
-        <v>391500</v>
+        <v>366300</v>
       </c>
       <c r="I41" s="3">
-        <v>206200</v>
+        <v>193000</v>
       </c>
       <c r="J41" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K41" s="3">
         <v>126100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>207500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2100</v>
+        <v>77300</v>
       </c>
       <c r="E42" s="3">
-        <v>232400</v>
+        <v>217500</v>
       </c>
       <c r="F42" s="3">
-        <v>93600</v>
+        <v>87600</v>
       </c>
       <c r="G42" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="H42" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="I42" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="J42" s="3">
+        <v>128300</v>
+      </c>
+      <c r="K42" s="3">
         <v>137100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>408700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>697900</v>
+        <v>610000</v>
       </c>
       <c r="E43" s="3">
-        <v>690800</v>
+        <v>672000</v>
       </c>
       <c r="F43" s="3">
-        <v>622600</v>
+        <v>582600</v>
       </c>
       <c r="G43" s="3">
-        <v>1244700</v>
+        <v>1164800</v>
       </c>
       <c r="H43" s="3">
-        <v>537200</v>
+        <v>502700</v>
       </c>
       <c r="I43" s="3">
-        <v>471900</v>
+        <v>441600</v>
       </c>
       <c r="J43" s="3">
+        <v>380700</v>
+      </c>
+      <c r="K43" s="3">
         <v>406900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>505900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1112300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>508000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>176900</v>
+        <v>165500</v>
       </c>
       <c r="E44" s="3">
-        <v>171200</v>
+        <v>160200</v>
       </c>
       <c r="F44" s="3">
-        <v>138800</v>
+        <v>129900</v>
       </c>
       <c r="G44" s="3">
-        <v>269100</v>
+        <v>251800</v>
       </c>
       <c r="H44" s="3">
-        <v>109900</v>
+        <v>102800</v>
       </c>
       <c r="I44" s="3">
-        <v>104300</v>
+        <v>97600</v>
       </c>
       <c r="J44" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K44" s="3">
         <v>72600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>69800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>46200</v>
       </c>
       <c r="E45" s="3">
-        <v>45500</v>
+        <v>42600</v>
       </c>
       <c r="F45" s="3">
-        <v>39500</v>
+        <v>37000</v>
       </c>
       <c r="G45" s="3">
-        <v>48100</v>
+        <v>45000</v>
       </c>
       <c r="H45" s="3">
-        <v>74400</v>
+        <v>69700</v>
       </c>
       <c r="I45" s="3">
-        <v>275800</v>
+        <v>258100</v>
       </c>
       <c r="J45" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K45" s="3">
         <v>37800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>115200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1751500</v>
+        <v>1639100</v>
       </c>
       <c r="E46" s="3">
-        <v>4033200</v>
+        <v>3463100</v>
       </c>
       <c r="F46" s="3">
-        <v>1206700</v>
+        <v>1129300</v>
       </c>
       <c r="G46" s="3">
-        <v>966600</v>
+        <v>904600</v>
       </c>
       <c r="H46" s="3">
-        <v>1126400</v>
+        <v>1054100</v>
       </c>
       <c r="I46" s="3">
-        <v>1073400</v>
+        <v>1004500</v>
       </c>
       <c r="J46" s="3">
+        <v>730400</v>
+      </c>
+      <c r="K46" s="3">
         <v>780500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1271700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>899700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>766200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>155400</v>
+        <v>145400</v>
       </c>
       <c r="E47" s="3">
-        <v>141200</v>
+        <v>132100</v>
       </c>
       <c r="F47" s="3">
-        <v>140900</v>
+        <v>131900</v>
       </c>
       <c r="G47" s="3">
-        <v>474000</v>
+        <v>443600</v>
       </c>
       <c r="H47" s="3">
-        <v>377900</v>
+        <v>353600</v>
       </c>
       <c r="I47" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="J47" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K47" s="3">
         <v>34300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>123700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>65700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>815500</v>
+        <v>763200</v>
       </c>
       <c r="E48" s="3">
-        <v>808500</v>
+        <v>756600</v>
       </c>
       <c r="F48" s="3">
-        <v>799000</v>
+        <v>747700</v>
       </c>
       <c r="G48" s="3">
-        <v>1139100</v>
+        <v>1065900</v>
       </c>
       <c r="H48" s="3">
-        <v>508700</v>
+        <v>476000</v>
       </c>
       <c r="I48" s="3">
-        <v>542700</v>
+        <v>507800</v>
       </c>
       <c r="J48" s="3">
+        <v>582000</v>
+      </c>
+      <c r="K48" s="3">
         <v>621900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>743600</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>755400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2821400</v>
+        <v>2640200</v>
       </c>
       <c r="E49" s="3">
-        <v>2505600</v>
+        <v>2344800</v>
       </c>
       <c r="F49" s="3">
-        <v>2181400</v>
+        <v>2041400</v>
       </c>
       <c r="G49" s="3">
-        <v>3934500</v>
+        <v>3681900</v>
       </c>
       <c r="H49" s="3">
-        <v>1590600</v>
+        <v>1488500</v>
       </c>
       <c r="I49" s="3">
-        <v>1303100</v>
+        <v>1219400</v>
       </c>
       <c r="J49" s="3">
+        <v>998200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1066700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>583600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>314500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>514100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91800</v>
+        <v>85900</v>
       </c>
       <c r="E52" s="3">
-        <v>122100</v>
+        <v>114300</v>
       </c>
       <c r="F52" s="3">
-        <v>96900</v>
+        <v>90600</v>
       </c>
       <c r="G52" s="3">
-        <v>39600</v>
+        <v>37100</v>
       </c>
       <c r="H52" s="3">
-        <v>447500</v>
+        <v>418800</v>
       </c>
       <c r="I52" s="3">
-        <v>358100</v>
+        <v>335100</v>
       </c>
       <c r="J52" s="3">
+        <v>293300</v>
+      </c>
+      <c r="K52" s="3">
         <v>313400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>235500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>267300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5635500</v>
+        <v>5273700</v>
       </c>
       <c r="E54" s="3">
-        <v>7610600</v>
+        <v>6810800</v>
       </c>
       <c r="F54" s="3">
-        <v>4424900</v>
+        <v>4140800</v>
       </c>
       <c r="G54" s="3">
-        <v>4017000</v>
+        <v>3759100</v>
       </c>
       <c r="H54" s="3">
-        <v>4051200</v>
+        <v>3791100</v>
       </c>
       <c r="I54" s="3">
-        <v>3314800</v>
+        <v>3102000</v>
       </c>
       <c r="J54" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2816800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2738100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2554900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2368800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>995900</v>
+        <v>201500</v>
       </c>
       <c r="E57" s="3">
-        <v>237600</v>
+        <v>222400</v>
       </c>
       <c r="F57" s="3">
-        <v>244900</v>
+        <v>229200</v>
       </c>
       <c r="G57" s="3">
-        <v>1026300</v>
+        <v>960400</v>
       </c>
       <c r="H57" s="3">
-        <v>198500</v>
+        <v>185800</v>
       </c>
       <c r="I57" s="3">
-        <v>156200</v>
+        <v>146100</v>
       </c>
       <c r="J57" s="3">
+        <v>113700</v>
+      </c>
+      <c r="K57" s="3">
         <v>121500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>187700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>728200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>192000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700200</v>
+        <v>651400</v>
       </c>
       <c r="E58" s="3">
-        <v>2502000</v>
+        <v>2024700</v>
       </c>
       <c r="F58" s="3">
-        <v>197900</v>
+        <v>185200</v>
       </c>
       <c r="G58" s="3">
-        <v>907000</v>
+        <v>848800</v>
       </c>
       <c r="H58" s="3">
-        <v>88600</v>
+        <v>83000</v>
       </c>
       <c r="I58" s="3">
-        <v>100900</v>
+        <v>94400</v>
       </c>
       <c r="J58" s="3">
+        <v>405700</v>
+      </c>
+      <c r="K58" s="3">
         <v>433600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>564100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>78500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115400</v>
+        <v>842200</v>
       </c>
       <c r="E59" s="3">
-        <v>1116300</v>
+        <v>1050100</v>
       </c>
       <c r="F59" s="3">
-        <v>751000</v>
+        <v>702800</v>
       </c>
       <c r="G59" s="3">
-        <v>717800</v>
+        <v>671700</v>
       </c>
       <c r="H59" s="3">
-        <v>643300</v>
+        <v>602000</v>
       </c>
       <c r="I59" s="3">
-        <v>628900</v>
+        <v>588500</v>
       </c>
       <c r="J59" s="3">
+        <v>520700</v>
+      </c>
+      <c r="K59" s="3">
         <v>556400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>678100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>704300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>706100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1811500</v>
+        <v>1695200</v>
       </c>
       <c r="E60" s="3">
-        <v>3855900</v>
+        <v>3297100</v>
       </c>
       <c r="F60" s="3">
-        <v>1193800</v>
+        <v>1117200</v>
       </c>
       <c r="G60" s="3">
-        <v>1622400</v>
+        <v>1518300</v>
       </c>
       <c r="H60" s="3">
-        <v>930500</v>
+        <v>870800</v>
       </c>
       <c r="I60" s="3">
-        <v>885900</v>
+        <v>829000</v>
       </c>
       <c r="J60" s="3">
+        <v>1040100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1111400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1429900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>975800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>935100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1818900</v>
+        <v>1702100</v>
       </c>
       <c r="E61" s="3">
-        <v>1928500</v>
+        <v>1804700</v>
       </c>
       <c r="F61" s="3">
-        <v>1569500</v>
+        <v>1468800</v>
       </c>
       <c r="G61" s="3">
-        <v>970000</v>
+        <v>907700</v>
       </c>
       <c r="H61" s="3">
-        <v>1521200</v>
+        <v>1423500</v>
       </c>
       <c r="I61" s="3">
-        <v>1643000</v>
+        <v>1537600</v>
       </c>
       <c r="J61" s="3">
+        <v>1055700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1128100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1404100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1449000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1254200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>357600</v>
+        <v>334600</v>
       </c>
       <c r="E62" s="3">
-        <v>352400</v>
+        <v>329700</v>
       </c>
       <c r="F62" s="3">
-        <v>355000</v>
+        <v>332200</v>
       </c>
       <c r="G62" s="3">
-        <v>339200</v>
+        <v>317400</v>
       </c>
       <c r="H62" s="3">
-        <v>382000</v>
+        <v>357400</v>
       </c>
       <c r="I62" s="3">
-        <v>315600</v>
+        <v>295300</v>
       </c>
       <c r="J62" s="3">
+        <v>281400</v>
+      </c>
+      <c r="K62" s="3">
         <v>300700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>222700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>310700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>316700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3987300</v>
+        <v>3731300</v>
       </c>
       <c r="E66" s="3">
-        <v>6138000</v>
+        <v>5432700</v>
       </c>
       <c r="F66" s="3">
-        <v>3119100</v>
+        <v>2918900</v>
       </c>
       <c r="G66" s="3">
-        <v>2932200</v>
+        <v>2743900</v>
       </c>
       <c r="H66" s="3">
-        <v>2834000</v>
+        <v>2652100</v>
       </c>
       <c r="I66" s="3">
-        <v>2844700</v>
+        <v>2662100</v>
       </c>
       <c r="J66" s="3">
+        <v>2377000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2540000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3056900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2728000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2513200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1615100</v>
+        <v>1761400</v>
       </c>
       <c r="E72" s="3">
-        <v>1718500</v>
+        <v>1608200</v>
       </c>
       <c r="F72" s="3">
-        <v>1475400</v>
+        <v>1380700</v>
       </c>
       <c r="G72" s="3">
-        <v>1197900</v>
+        <v>1121000</v>
       </c>
       <c r="H72" s="3">
-        <v>1362000</v>
+        <v>1274600</v>
       </c>
       <c r="I72" s="3">
-        <v>504100</v>
+        <v>471700</v>
       </c>
       <c r="J72" s="3">
+        <v>297400</v>
+      </c>
+      <c r="K72" s="3">
         <v>317800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-246100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1905900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1648300</v>
+        <v>1542400</v>
       </c>
       <c r="E76" s="3">
-        <v>1472700</v>
+        <v>1378100</v>
       </c>
       <c r="F76" s="3">
-        <v>1305800</v>
+        <v>1222000</v>
       </c>
       <c r="G76" s="3">
-        <v>1084800</v>
+        <v>1015200</v>
       </c>
       <c r="H76" s="3">
-        <v>1217200</v>
+        <v>1139000</v>
       </c>
       <c r="I76" s="3">
-        <v>470100</v>
+        <v>439900</v>
       </c>
       <c r="J76" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K76" s="3">
         <v>276800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-318700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-173100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-144500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>242900</v>
+        <v>321100</v>
       </c>
       <c r="E81" s="3">
-        <v>370000</v>
+        <v>226800</v>
       </c>
       <c r="F81" s="3">
-        <v>-128100</v>
+        <v>346200</v>
       </c>
       <c r="G81" s="3">
-        <v>890400</v>
+        <v>-119900</v>
       </c>
       <c r="H81" s="3">
-        <v>218700</v>
+        <v>833200</v>
       </c>
       <c r="I81" s="3">
-        <v>162000</v>
+        <v>204700</v>
       </c>
       <c r="J81" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K81" s="3">
         <v>341300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-91800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>405800</v>
+        <v>361200</v>
       </c>
       <c r="E83" s="3">
-        <v>397600</v>
+        <v>397800</v>
       </c>
       <c r="F83" s="3">
-        <v>272100</v>
+        <v>372100</v>
       </c>
       <c r="G83" s="3">
-        <v>261900</v>
+        <v>254600</v>
       </c>
       <c r="H83" s="3">
-        <v>318200</v>
+        <v>245100</v>
       </c>
       <c r="I83" s="3">
-        <v>266600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>297800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>249500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>295100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>527900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>709400</v>
+        <v>687000</v>
       </c>
       <c r="E89" s="3">
-        <v>603400</v>
+        <v>638500</v>
       </c>
       <c r="F89" s="3">
-        <v>474000</v>
+        <v>564700</v>
       </c>
       <c r="G89" s="3">
-        <v>495100</v>
+        <v>443600</v>
       </c>
       <c r="H89" s="3">
-        <v>472600</v>
+        <v>463300</v>
       </c>
       <c r="I89" s="3">
-        <v>417100</v>
+        <v>442200</v>
       </c>
       <c r="J89" s="3">
+        <v>390400</v>
+      </c>
+      <c r="K89" s="3">
         <v>349600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>340400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>343800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>362400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-169300</v>
+        <v>-155900</v>
       </c>
       <c r="E91" s="3">
-        <v>-182600</v>
+        <v>-158500</v>
       </c>
       <c r="F91" s="3">
-        <v>-191900</v>
+        <v>-170900</v>
       </c>
       <c r="G91" s="3">
-        <v>-227200</v>
+        <v>-179600</v>
       </c>
       <c r="H91" s="3">
-        <v>-242700</v>
+        <v>-212600</v>
       </c>
       <c r="I91" s="3">
-        <v>-207500</v>
+        <v>-227100</v>
       </c>
       <c r="J91" s="3">
+        <v>-194200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-225700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-276100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-236200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-276800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-426300</v>
+        <v>-538100</v>
       </c>
       <c r="E94" s="3">
-        <v>-79600</v>
+        <v>-606900</v>
       </c>
       <c r="F94" s="3">
-        <v>-595500</v>
+        <v>-74500</v>
       </c>
       <c r="G94" s="3">
-        <v>-18900</v>
+        <v>-557300</v>
       </c>
       <c r="H94" s="3">
-        <v>-390400</v>
+        <v>-17700</v>
       </c>
       <c r="I94" s="3">
-        <v>-693400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-365400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-648900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-347400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-301900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-169200</v>
       </c>
       <c r="E96" s="3">
-        <v>-111800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-96700</v>
+        <v>-104700</v>
       </c>
       <c r="G96" s="3">
-        <v>-83800</v>
+        <v>-90500</v>
       </c>
       <c r="H96" s="3">
-        <v>-72300</v>
+        <v>-78400</v>
       </c>
       <c r="I96" s="3">
-        <v>-63700</v>
+        <v>-67700</v>
       </c>
       <c r="J96" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-56300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-53000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>81100</v>
+        <v>-508800</v>
       </c>
       <c r="E100" s="3">
-        <v>-288500</v>
+        <v>309200</v>
       </c>
       <c r="F100" s="3">
-        <v>-150800</v>
+        <v>-270000</v>
       </c>
       <c r="G100" s="3">
-        <v>-214600</v>
+        <v>-141100</v>
       </c>
       <c r="H100" s="3">
-        <v>-88900</v>
+        <v>-200800</v>
       </c>
       <c r="I100" s="3">
-        <v>161500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-83200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>151100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>197800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-17000</v>
       </c>
       <c r="E101" s="3">
-        <v>-9800</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>7400</v>
+        <v>-9100</v>
       </c>
       <c r="G101" s="3">
-        <v>-3300</v>
+        <v>7000</v>
       </c>
       <c r="H101" s="3">
-        <v>13800</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>12900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-6800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>361000</v>
+        <v>-376800</v>
       </c>
       <c r="E102" s="3">
-        <v>225500</v>
+        <v>337800</v>
       </c>
       <c r="F102" s="3">
-        <v>-264900</v>
+        <v>211000</v>
       </c>
       <c r="G102" s="3">
-        <v>258400</v>
+        <v>-247900</v>
       </c>
       <c r="H102" s="3">
-        <v>7000</v>
+        <v>241800</v>
       </c>
       <c r="I102" s="3">
-        <v>-122000</v>
+        <v>6600</v>
       </c>
       <c r="J102" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="K102" s="3">
         <v>66100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-103700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>191200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RTOKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3606800</v>
+        <v>3497400</v>
       </c>
       <c r="E8" s="3">
-        <v>3419700</v>
+        <v>3316000</v>
       </c>
       <c r="F8" s="3">
-        <v>3311300</v>
+        <v>3210900</v>
       </c>
       <c r="G8" s="3">
-        <v>3016000</v>
+        <v>2924500</v>
       </c>
       <c r="H8" s="3">
-        <v>2942800</v>
+        <v>2853500</v>
       </c>
       <c r="I8" s="3">
-        <v>2644900</v>
+        <v>2564600</v>
       </c>
       <c r="J8" s="3">
-        <v>2145800</v>
+        <v>2080700</v>
       </c>
       <c r="K8" s="3">
         <v>2269300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>714900</v>
+        <v>693200</v>
       </c>
       <c r="E9" s="3">
-        <v>711800</v>
+        <v>690200</v>
       </c>
       <c r="F9" s="3">
-        <v>690100</v>
+        <v>669200</v>
       </c>
       <c r="G9" s="3">
-        <v>624500</v>
+        <v>605500</v>
       </c>
       <c r="H9" s="3">
-        <v>577700</v>
+        <v>560200</v>
       </c>
       <c r="I9" s="3">
-        <v>457700</v>
+        <v>443800</v>
       </c>
       <c r="J9" s="3">
-        <v>375700</v>
+        <v>364300</v>
       </c>
       <c r="K9" s="3">
         <v>123400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2891900</v>
+        <v>2804200</v>
       </c>
       <c r="E10" s="3">
-        <v>2707900</v>
+        <v>2625800</v>
       </c>
       <c r="F10" s="3">
-        <v>2621200</v>
+        <v>2541700</v>
       </c>
       <c r="G10" s="3">
-        <v>2391500</v>
+        <v>2319000</v>
       </c>
       <c r="H10" s="3">
-        <v>2365000</v>
+        <v>2293300</v>
       </c>
       <c r="I10" s="3">
-        <v>2187200</v>
+        <v>2120800</v>
       </c>
       <c r="J10" s="3">
-        <v>1770100</v>
+        <v>1716400</v>
       </c>
       <c r="K10" s="3">
         <v>2145800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="E14" s="3">
-        <v>41800</v>
+        <v>40600</v>
       </c>
       <c r="F14" s="3">
-        <v>-93300</v>
+        <v>-90500</v>
       </c>
       <c r="G14" s="3">
-        <v>453200</v>
+        <v>439400</v>
       </c>
       <c r="H14" s="3">
-        <v>-527900</v>
+        <v>-511800</v>
       </c>
       <c r="I14" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J14" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="K14" s="3">
         <v>14600</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>265700</v>
+        <v>257600</v>
       </c>
       <c r="E15" s="3">
-        <v>429600</v>
+        <v>416600</v>
       </c>
       <c r="F15" s="3">
-        <v>269700</v>
+        <v>261500</v>
       </c>
       <c r="G15" s="3">
-        <v>254000</v>
+        <v>246300</v>
       </c>
       <c r="H15" s="3">
-        <v>242400</v>
+        <v>235000</v>
       </c>
       <c r="I15" s="3">
-        <v>297900</v>
+        <v>288900</v>
       </c>
       <c r="J15" s="3">
-        <v>258500</v>
+        <v>250700</v>
       </c>
       <c r="K15" s="3">
         <v>270600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3184100</v>
+        <v>3087500</v>
       </c>
       <c r="E17" s="3">
-        <v>3061300</v>
+        <v>2968500</v>
       </c>
       <c r="F17" s="3">
-        <v>2860700</v>
+        <v>2773900</v>
       </c>
       <c r="G17" s="3">
-        <v>3133200</v>
+        <v>3038200</v>
       </c>
       <c r="H17" s="3">
-        <v>2038300</v>
+        <v>1976500</v>
       </c>
       <c r="I17" s="3">
-        <v>2361400</v>
+        <v>2289700</v>
       </c>
       <c r="J17" s="3">
-        <v>1916700</v>
+        <v>1858600</v>
       </c>
       <c r="K17" s="3">
         <v>2005800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>422700</v>
+        <v>409900</v>
       </c>
       <c r="E18" s="3">
-        <v>358400</v>
+        <v>347500</v>
       </c>
       <c r="F18" s="3">
-        <v>450600</v>
+        <v>437000</v>
       </c>
       <c r="G18" s="3">
-        <v>-117200</v>
+        <v>-113700</v>
       </c>
       <c r="H18" s="3">
-        <v>904400</v>
+        <v>877000</v>
       </c>
       <c r="I18" s="3">
-        <v>283500</v>
+        <v>274900</v>
       </c>
       <c r="J18" s="3">
-        <v>229100</v>
+        <v>222100</v>
       </c>
       <c r="K18" s="3">
         <v>263500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-40500</v>
+        <v>-39300</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="G20" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="H20" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="I20" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="J20" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="K20" s="3">
         <v>6800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>783200</v>
+        <v>757100</v>
       </c>
       <c r="E21" s="3">
-        <v>717400</v>
+        <v>693000</v>
       </c>
       <c r="F21" s="3">
-        <v>833200</v>
+        <v>805400</v>
       </c>
       <c r="G21" s="3">
-        <v>159900</v>
+        <v>153300</v>
       </c>
       <c r="H21" s="3">
-        <v>1159100</v>
+        <v>1122300</v>
       </c>
       <c r="I21" s="3">
-        <v>600300</v>
+        <v>580100</v>
       </c>
       <c r="J21" s="3">
-        <v>491200</v>
+        <v>474600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="E22" s="3">
-        <v>37600</v>
+        <v>36400</v>
       </c>
       <c r="F22" s="3">
-        <v>46600</v>
+        <v>45200</v>
       </c>
       <c r="G22" s="3">
-        <v>43400</v>
+        <v>42100</v>
       </c>
       <c r="H22" s="3">
-        <v>42500</v>
+        <v>41200</v>
       </c>
       <c r="I22" s="3">
-        <v>47000</v>
+        <v>45500</v>
       </c>
       <c r="J22" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="K22" s="3">
         <v>57500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>396600</v>
+        <v>384600</v>
       </c>
       <c r="E23" s="3">
-        <v>280300</v>
+        <v>271800</v>
       </c>
       <c r="F23" s="3">
-        <v>412900</v>
+        <v>400400</v>
       </c>
       <c r="G23" s="3">
-        <v>-139200</v>
+        <v>-135000</v>
       </c>
       <c r="H23" s="3">
-        <v>870500</v>
+        <v>844100</v>
       </c>
       <c r="I23" s="3">
-        <v>254300</v>
+        <v>246600</v>
       </c>
       <c r="J23" s="3">
-        <v>194000</v>
+        <v>188100</v>
       </c>
       <c r="K23" s="3">
         <v>212700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75500</v>
+        <v>73200</v>
       </c>
       <c r="E24" s="3">
-        <v>53100</v>
+        <v>51500</v>
       </c>
       <c r="F24" s="3">
-        <v>66700</v>
+        <v>64700</v>
       </c>
       <c r="G24" s="3">
-        <v>-19300</v>
+        <v>-18700</v>
       </c>
       <c r="H24" s="3">
-        <v>45100</v>
+        <v>43800</v>
       </c>
       <c r="I24" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="J24" s="3">
-        <v>42300</v>
+        <v>41000</v>
       </c>
       <c r="K24" s="3">
         <v>48400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>321100</v>
+        <v>311300</v>
       </c>
       <c r="E26" s="3">
-        <v>227300</v>
+        <v>220400</v>
       </c>
       <c r="F26" s="3">
-        <v>346200</v>
+        <v>335700</v>
       </c>
       <c r="G26" s="3">
-        <v>-119900</v>
+        <v>-116300</v>
       </c>
       <c r="H26" s="3">
-        <v>825400</v>
+        <v>800400</v>
       </c>
       <c r="I26" s="3">
-        <v>204700</v>
+        <v>198500</v>
       </c>
       <c r="J26" s="3">
-        <v>151600</v>
+        <v>147000</v>
       </c>
       <c r="K26" s="3">
         <v>164400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>321100</v>
+        <v>311300</v>
       </c>
       <c r="E27" s="3">
-        <v>226800</v>
+        <v>219900</v>
       </c>
       <c r="F27" s="3">
-        <v>346200</v>
+        <v>335700</v>
       </c>
       <c r="G27" s="3">
-        <v>-119900</v>
+        <v>-116300</v>
       </c>
       <c r="H27" s="3">
-        <v>825400</v>
+        <v>800400</v>
       </c>
       <c r="I27" s="3">
-        <v>204700</v>
+        <v>198500</v>
       </c>
       <c r="J27" s="3">
-        <v>151600</v>
+        <v>147000</v>
       </c>
       <c r="K27" s="3">
         <v>164800</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>40500</v>
+        <v>39300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="G32" s="3">
-        <v>-21500</v>
+        <v>-20800</v>
       </c>
       <c r="H32" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="I32" s="3">
-        <v>-17800</v>
+        <v>-17300</v>
       </c>
       <c r="J32" s="3">
-        <v>-11600</v>
+        <v>-11200</v>
       </c>
       <c r="K32" s="3">
         <v>-6800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>321100</v>
+        <v>311300</v>
       </c>
       <c r="E33" s="3">
-        <v>226800</v>
+        <v>219900</v>
       </c>
       <c r="F33" s="3">
-        <v>346200</v>
+        <v>335700</v>
       </c>
       <c r="G33" s="3">
-        <v>-119900</v>
+        <v>-116300</v>
       </c>
       <c r="H33" s="3">
-        <v>833200</v>
+        <v>807900</v>
       </c>
       <c r="I33" s="3">
-        <v>204700</v>
+        <v>198500</v>
       </c>
       <c r="J33" s="3">
-        <v>151600</v>
+        <v>147000</v>
       </c>
       <c r="K33" s="3">
         <v>341300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>321100</v>
+        <v>311300</v>
       </c>
       <c r="E35" s="3">
-        <v>226800</v>
+        <v>219900</v>
       </c>
       <c r="F35" s="3">
-        <v>346200</v>
+        <v>335700</v>
       </c>
       <c r="G35" s="3">
-        <v>-119900</v>
+        <v>-116300</v>
       </c>
       <c r="H35" s="3">
-        <v>833200</v>
+        <v>807900</v>
       </c>
       <c r="I35" s="3">
-        <v>204700</v>
+        <v>198500</v>
       </c>
       <c r="J35" s="3">
-        <v>151600</v>
+        <v>147000</v>
       </c>
       <c r="K35" s="3">
         <v>341300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>740000</v>
+        <v>717500</v>
       </c>
       <c r="E41" s="3">
-        <v>2370800</v>
+        <v>2298800</v>
       </c>
       <c r="F41" s="3">
-        <v>292200</v>
+        <v>283300</v>
       </c>
       <c r="G41" s="3">
-        <v>311600</v>
+        <v>302100</v>
       </c>
       <c r="H41" s="3">
-        <v>366300</v>
+        <v>355200</v>
       </c>
       <c r="I41" s="3">
-        <v>193000</v>
+        <v>187100</v>
       </c>
       <c r="J41" s="3">
-        <v>118000</v>
+        <v>114400</v>
       </c>
       <c r="K41" s="3">
         <v>126100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77300</v>
+        <v>75000</v>
       </c>
       <c r="E42" s="3">
-        <v>217500</v>
+        <v>210900</v>
       </c>
       <c r="F42" s="3">
-        <v>87600</v>
+        <v>84900</v>
       </c>
       <c r="G42" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H42" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="I42" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="J42" s="3">
-        <v>128300</v>
+        <v>124400</v>
       </c>
       <c r="K42" s="3">
         <v>137100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>610000</v>
+        <v>591500</v>
       </c>
       <c r="E43" s="3">
-        <v>672000</v>
+        <v>651700</v>
       </c>
       <c r="F43" s="3">
-        <v>582600</v>
+        <v>565000</v>
       </c>
       <c r="G43" s="3">
-        <v>1164800</v>
+        <v>1129400</v>
       </c>
       <c r="H43" s="3">
-        <v>502700</v>
+        <v>487500</v>
       </c>
       <c r="I43" s="3">
-        <v>441600</v>
+        <v>428200</v>
       </c>
       <c r="J43" s="3">
-        <v>380700</v>
+        <v>369200</v>
       </c>
       <c r="K43" s="3">
         <v>406900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>165500</v>
+        <v>160500</v>
       </c>
       <c r="E44" s="3">
-        <v>160200</v>
+        <v>155300</v>
       </c>
       <c r="F44" s="3">
-        <v>129900</v>
+        <v>126000</v>
       </c>
       <c r="G44" s="3">
-        <v>251800</v>
+        <v>244200</v>
       </c>
       <c r="H44" s="3">
-        <v>102800</v>
+        <v>99700</v>
       </c>
       <c r="I44" s="3">
-        <v>97600</v>
+        <v>94600</v>
       </c>
       <c r="J44" s="3">
-        <v>67900</v>
+        <v>65900</v>
       </c>
       <c r="K44" s="3">
         <v>72600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46200</v>
+        <v>44800</v>
       </c>
       <c r="E45" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="F45" s="3">
-        <v>37000</v>
+        <v>35800</v>
       </c>
       <c r="G45" s="3">
-        <v>45000</v>
+        <v>43600</v>
       </c>
       <c r="H45" s="3">
-        <v>69700</v>
+        <v>67500</v>
       </c>
       <c r="I45" s="3">
-        <v>258100</v>
+        <v>250300</v>
       </c>
       <c r="J45" s="3">
-        <v>35400</v>
+        <v>34300</v>
       </c>
       <c r="K45" s="3">
         <v>37800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1639100</v>
+        <v>1589300</v>
       </c>
       <c r="E46" s="3">
-        <v>3463100</v>
+        <v>3358000</v>
       </c>
       <c r="F46" s="3">
-        <v>1129300</v>
+        <v>1095000</v>
       </c>
       <c r="G46" s="3">
-        <v>904600</v>
+        <v>877100</v>
       </c>
       <c r="H46" s="3">
-        <v>1054100</v>
+        <v>1022100</v>
       </c>
       <c r="I46" s="3">
-        <v>1004500</v>
+        <v>974000</v>
       </c>
       <c r="J46" s="3">
-        <v>730400</v>
+        <v>708200</v>
       </c>
       <c r="K46" s="3">
         <v>780500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>145400</v>
+        <v>141000</v>
       </c>
       <c r="E47" s="3">
-        <v>132100</v>
+        <v>128100</v>
       </c>
       <c r="F47" s="3">
-        <v>131900</v>
+        <v>127900</v>
       </c>
       <c r="G47" s="3">
-        <v>443600</v>
+        <v>430100</v>
       </c>
       <c r="H47" s="3">
-        <v>353600</v>
+        <v>342900</v>
       </c>
       <c r="I47" s="3">
-        <v>35100</v>
+        <v>34100</v>
       </c>
       <c r="J47" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="K47" s="3">
         <v>34300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>763200</v>
+        <v>740000</v>
       </c>
       <c r="E48" s="3">
-        <v>756600</v>
+        <v>733600</v>
       </c>
       <c r="F48" s="3">
-        <v>747700</v>
+        <v>725000</v>
       </c>
       <c r="G48" s="3">
-        <v>1065900</v>
+        <v>1033600</v>
       </c>
       <c r="H48" s="3">
-        <v>476000</v>
+        <v>461600</v>
       </c>
       <c r="I48" s="3">
-        <v>507800</v>
+        <v>492400</v>
       </c>
       <c r="J48" s="3">
-        <v>582000</v>
+        <v>564400</v>
       </c>
       <c r="K48" s="3">
         <v>621900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2640200</v>
+        <v>2560200</v>
       </c>
       <c r="E49" s="3">
-        <v>2344800</v>
+        <v>2273700</v>
       </c>
       <c r="F49" s="3">
-        <v>2041400</v>
+        <v>1979500</v>
       </c>
       <c r="G49" s="3">
-        <v>3681900</v>
+        <v>3570200</v>
       </c>
       <c r="H49" s="3">
-        <v>1488500</v>
+        <v>1443400</v>
       </c>
       <c r="I49" s="3">
-        <v>1219400</v>
+        <v>1182400</v>
       </c>
       <c r="J49" s="3">
-        <v>998200</v>
+        <v>968000</v>
       </c>
       <c r="K49" s="3">
         <v>1066700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85900</v>
+        <v>83300</v>
       </c>
       <c r="E52" s="3">
-        <v>114300</v>
+        <v>110800</v>
       </c>
       <c r="F52" s="3">
-        <v>90600</v>
+        <v>87900</v>
       </c>
       <c r="G52" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="H52" s="3">
-        <v>418800</v>
+        <v>406100</v>
       </c>
       <c r="I52" s="3">
-        <v>335100</v>
+        <v>324900</v>
       </c>
       <c r="J52" s="3">
-        <v>293300</v>
+        <v>284400</v>
       </c>
       <c r="K52" s="3">
         <v>313400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5273700</v>
+        <v>5113800</v>
       </c>
       <c r="E54" s="3">
-        <v>6810800</v>
+        <v>6604200</v>
       </c>
       <c r="F54" s="3">
-        <v>4140800</v>
+        <v>4015200</v>
       </c>
       <c r="G54" s="3">
-        <v>3759100</v>
+        <v>3645100</v>
       </c>
       <c r="H54" s="3">
-        <v>3791100</v>
+        <v>3676100</v>
       </c>
       <c r="I54" s="3">
-        <v>3102000</v>
+        <v>3007900</v>
       </c>
       <c r="J54" s="3">
-        <v>2636000</v>
+        <v>2556000</v>
       </c>
       <c r="K54" s="3">
         <v>2816800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>201500</v>
+        <v>195400</v>
       </c>
       <c r="E57" s="3">
-        <v>222400</v>
+        <v>215600</v>
       </c>
       <c r="F57" s="3">
-        <v>229200</v>
+        <v>222300</v>
       </c>
       <c r="G57" s="3">
-        <v>960400</v>
+        <v>931300</v>
       </c>
       <c r="H57" s="3">
-        <v>185800</v>
+        <v>180200</v>
       </c>
       <c r="I57" s="3">
-        <v>146100</v>
+        <v>141700</v>
       </c>
       <c r="J57" s="3">
-        <v>113700</v>
+        <v>110200</v>
       </c>
       <c r="K57" s="3">
         <v>121500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>651400</v>
+        <v>631700</v>
       </c>
       <c r="E58" s="3">
-        <v>2024700</v>
+        <v>1963300</v>
       </c>
       <c r="F58" s="3">
-        <v>185200</v>
+        <v>179600</v>
       </c>
       <c r="G58" s="3">
-        <v>848800</v>
+        <v>823100</v>
       </c>
       <c r="H58" s="3">
-        <v>83000</v>
+        <v>80400</v>
       </c>
       <c r="I58" s="3">
-        <v>94400</v>
+        <v>91600</v>
       </c>
       <c r="J58" s="3">
-        <v>405700</v>
+        <v>393400</v>
       </c>
       <c r="K58" s="3">
         <v>433600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>842200</v>
+        <v>816700</v>
       </c>
       <c r="E59" s="3">
-        <v>1050100</v>
+        <v>1018200</v>
       </c>
       <c r="F59" s="3">
-        <v>702800</v>
+        <v>681500</v>
       </c>
       <c r="G59" s="3">
-        <v>671700</v>
+        <v>651300</v>
       </c>
       <c r="H59" s="3">
-        <v>602000</v>
+        <v>583800</v>
       </c>
       <c r="I59" s="3">
-        <v>588500</v>
+        <v>570600</v>
       </c>
       <c r="J59" s="3">
-        <v>520700</v>
+        <v>504900</v>
       </c>
       <c r="K59" s="3">
         <v>556400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1695200</v>
+        <v>1643800</v>
       </c>
       <c r="E60" s="3">
-        <v>3297100</v>
+        <v>3197100</v>
       </c>
       <c r="F60" s="3">
-        <v>1117200</v>
+        <v>1083300</v>
       </c>
       <c r="G60" s="3">
-        <v>1518300</v>
+        <v>1472200</v>
       </c>
       <c r="H60" s="3">
-        <v>870800</v>
+        <v>844400</v>
       </c>
       <c r="I60" s="3">
-        <v>829000</v>
+        <v>803900</v>
       </c>
       <c r="J60" s="3">
-        <v>1040100</v>
+        <v>1008500</v>
       </c>
       <c r="K60" s="3">
         <v>1111400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1702100</v>
+        <v>1650500</v>
       </c>
       <c r="E61" s="3">
-        <v>1804700</v>
+        <v>1750000</v>
       </c>
       <c r="F61" s="3">
-        <v>1468800</v>
+        <v>1424200</v>
       </c>
       <c r="G61" s="3">
-        <v>907700</v>
+        <v>880200</v>
       </c>
       <c r="H61" s="3">
-        <v>1423500</v>
+        <v>1380300</v>
       </c>
       <c r="I61" s="3">
-        <v>1537600</v>
+        <v>1490900</v>
       </c>
       <c r="J61" s="3">
-        <v>1055700</v>
+        <v>1023700</v>
       </c>
       <c r="K61" s="3">
         <v>1128100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>334600</v>
+        <v>324500</v>
       </c>
       <c r="E62" s="3">
-        <v>329700</v>
+        <v>319700</v>
       </c>
       <c r="F62" s="3">
-        <v>332200</v>
+        <v>322100</v>
       </c>
       <c r="G62" s="3">
-        <v>317400</v>
+        <v>307800</v>
       </c>
       <c r="H62" s="3">
-        <v>357400</v>
+        <v>346600</v>
       </c>
       <c r="I62" s="3">
-        <v>295300</v>
+        <v>286400</v>
       </c>
       <c r="J62" s="3">
-        <v>281400</v>
+        <v>272900</v>
       </c>
       <c r="K62" s="3">
         <v>300700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3731300</v>
+        <v>3618100</v>
       </c>
       <c r="E66" s="3">
-        <v>5432700</v>
+        <v>5267900</v>
       </c>
       <c r="F66" s="3">
-        <v>2918900</v>
+        <v>2830300</v>
       </c>
       <c r="G66" s="3">
-        <v>2743900</v>
+        <v>2660700</v>
       </c>
       <c r="H66" s="3">
-        <v>2652100</v>
+        <v>2571600</v>
       </c>
       <c r="I66" s="3">
-        <v>2662100</v>
+        <v>2581300</v>
       </c>
       <c r="J66" s="3">
-        <v>2377000</v>
+        <v>2304900</v>
       </c>
       <c r="K66" s="3">
         <v>2540000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1761400</v>
+        <v>1708000</v>
       </c>
       <c r="E72" s="3">
-        <v>1608200</v>
+        <v>1559400</v>
       </c>
       <c r="F72" s="3">
-        <v>1380700</v>
+        <v>1338800</v>
       </c>
       <c r="G72" s="3">
-        <v>1121000</v>
+        <v>1087000</v>
       </c>
       <c r="H72" s="3">
-        <v>1274600</v>
+        <v>1235900</v>
       </c>
       <c r="I72" s="3">
-        <v>471700</v>
+        <v>457400</v>
       </c>
       <c r="J72" s="3">
-        <v>297400</v>
+        <v>288400</v>
       </c>
       <c r="K72" s="3">
         <v>317800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1542400</v>
+        <v>1495700</v>
       </c>
       <c r="E76" s="3">
-        <v>1378100</v>
+        <v>1336300</v>
       </c>
       <c r="F76" s="3">
-        <v>1222000</v>
+        <v>1184900</v>
       </c>
       <c r="G76" s="3">
-        <v>1015200</v>
+        <v>984400</v>
       </c>
       <c r="H76" s="3">
-        <v>1139000</v>
+        <v>1104500</v>
       </c>
       <c r="I76" s="3">
-        <v>439900</v>
+        <v>426600</v>
       </c>
       <c r="J76" s="3">
-        <v>259000</v>
+        <v>251100</v>
       </c>
       <c r="K76" s="3">
         <v>276800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>321100</v>
+        <v>311300</v>
       </c>
       <c r="E81" s="3">
-        <v>226800</v>
+        <v>219900</v>
       </c>
       <c r="F81" s="3">
-        <v>346200</v>
+        <v>335700</v>
       </c>
       <c r="G81" s="3">
-        <v>-119900</v>
+        <v>-116300</v>
       </c>
       <c r="H81" s="3">
-        <v>833200</v>
+        <v>807900</v>
       </c>
       <c r="I81" s="3">
-        <v>204700</v>
+        <v>198500</v>
       </c>
       <c r="J81" s="3">
-        <v>151600</v>
+        <v>147000</v>
       </c>
       <c r="K81" s="3">
         <v>341300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>361200</v>
+        <v>350300</v>
       </c>
       <c r="E83" s="3">
-        <v>397800</v>
+        <v>385700</v>
       </c>
       <c r="F83" s="3">
-        <v>372100</v>
+        <v>360800</v>
       </c>
       <c r="G83" s="3">
-        <v>254600</v>
+        <v>246900</v>
       </c>
       <c r="H83" s="3">
-        <v>245100</v>
+        <v>237600</v>
       </c>
       <c r="I83" s="3">
-        <v>297800</v>
+        <v>288700</v>
       </c>
       <c r="J83" s="3">
-        <v>249500</v>
+        <v>241900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>687000</v>
+        <v>666200</v>
       </c>
       <c r="E89" s="3">
-        <v>638500</v>
+        <v>619100</v>
       </c>
       <c r="F89" s="3">
-        <v>564700</v>
+        <v>547600</v>
       </c>
       <c r="G89" s="3">
-        <v>443600</v>
+        <v>430100</v>
       </c>
       <c r="H89" s="3">
-        <v>463300</v>
+        <v>449300</v>
       </c>
       <c r="I89" s="3">
-        <v>442200</v>
+        <v>428800</v>
       </c>
       <c r="J89" s="3">
-        <v>390400</v>
+        <v>378500</v>
       </c>
       <c r="K89" s="3">
         <v>349600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155900</v>
+        <v>-151200</v>
       </c>
       <c r="E91" s="3">
-        <v>-158500</v>
+        <v>-153700</v>
       </c>
       <c r="F91" s="3">
-        <v>-170900</v>
+        <v>-165700</v>
       </c>
       <c r="G91" s="3">
-        <v>-179600</v>
+        <v>-174100</v>
       </c>
       <c r="H91" s="3">
-        <v>-212600</v>
+        <v>-206200</v>
       </c>
       <c r="I91" s="3">
-        <v>-227100</v>
+        <v>-220300</v>
       </c>
       <c r="J91" s="3">
-        <v>-194200</v>
+        <v>-188300</v>
       </c>
       <c r="K91" s="3">
         <v>-225700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-538100</v>
+        <v>-521800</v>
       </c>
       <c r="E94" s="3">
-        <v>-606900</v>
+        <v>-588500</v>
       </c>
       <c r="F94" s="3">
-        <v>-74500</v>
+        <v>-72300</v>
       </c>
       <c r="G94" s="3">
-        <v>-557300</v>
+        <v>-540300</v>
       </c>
       <c r="H94" s="3">
-        <v>-17700</v>
+        <v>-17200</v>
       </c>
       <c r="I94" s="3">
-        <v>-365400</v>
+        <v>-354300</v>
       </c>
       <c r="J94" s="3">
-        <v>-648900</v>
+        <v>-629200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-169200</v>
+        <v>-164100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-104700</v>
+        <v>-101500</v>
       </c>
       <c r="G96" s="3">
-        <v>-90500</v>
+        <v>-87800</v>
       </c>
       <c r="H96" s="3">
-        <v>-78400</v>
+        <v>-76100</v>
       </c>
       <c r="I96" s="3">
-        <v>-67700</v>
+        <v>-65700</v>
       </c>
       <c r="J96" s="3">
-        <v>-59700</v>
+        <v>-57800</v>
       </c>
       <c r="K96" s="3">
         <v>-56300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-508800</v>
+        <v>-493400</v>
       </c>
       <c r="E100" s="3">
-        <v>309200</v>
+        <v>299900</v>
       </c>
       <c r="F100" s="3">
-        <v>-270000</v>
+        <v>-261800</v>
       </c>
       <c r="G100" s="3">
-        <v>-141100</v>
+        <v>-136900</v>
       </c>
       <c r="H100" s="3">
-        <v>-200800</v>
+        <v>-194700</v>
       </c>
       <c r="I100" s="3">
-        <v>-83200</v>
+        <v>-80700</v>
       </c>
       <c r="J100" s="3">
-        <v>151100</v>
+        <v>146600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17000</v>
+        <v>-16400</v>
       </c>
       <c r="E101" s="3">
         <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="G101" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="H101" s="3">
         <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="J101" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-376800</v>
+        <v>-365400</v>
       </c>
       <c r="E102" s="3">
-        <v>337800</v>
+        <v>327500</v>
       </c>
       <c r="F102" s="3">
-        <v>211000</v>
+        <v>204600</v>
       </c>
       <c r="G102" s="3">
-        <v>-247900</v>
+        <v>-240400</v>
       </c>
       <c r="H102" s="3">
-        <v>241800</v>
+        <v>234500</v>
       </c>
       <c r="I102" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J102" s="3">
-        <v>-114200</v>
+        <v>-110700</v>
       </c>
       <c r="K102" s="3">
         <v>66100</v>
